--- a/tools/nibrs-staging-data/src/test/resources/codeSpreadSheets/NIBRSCodeTablesHawaii.xlsx
+++ b/tools/nibrs-staging-data/src/test/resources/codeSpreadSheets/NIBRSCodeTablesHawaii.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10913"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10912"/>
   <workbookPr autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/haiqiwei/git/nibrsSpringBoot2/tools/nibrs-staging-data/src/test/resources/codeSpreadSheets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23A32CEB-94BD-E646-94BA-D5830688B3E1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1391D28B-395E-074E-86FE-DDB6F66A7527}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="29940" yWindow="1000" windowWidth="23960" windowHeight="14200" tabRatio="705" firstSheet="8" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="29940" yWindow="1000" windowWidth="23960" windowHeight="14200" tabRatio="705" firstSheet="3" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TOC" sheetId="1" r:id="rId1"/>
@@ -16955,8 +16955,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:I67"/>
   <sheetViews>
-    <sheetView topLeftCell="A41" workbookViewId="0">
-      <selection activeCell="A58" sqref="A58:XFD58"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16"/>
@@ -17144,7 +17144,7 @@
         <v>543</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>536</v>
+        <v>553</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="15" customHeight="1">
@@ -18730,13 +18730,13 @@
         <v>645</v>
       </c>
       <c r="F61" s="1" t="s">
-        <v>623</v>
+        <v>534</v>
       </c>
       <c r="G61" s="1" t="s">
         <v>168</v>
       </c>
       <c r="H61" s="1" t="s">
-        <v>627</v>
+        <v>645</v>
       </c>
       <c r="I61" s="1" t="s">
         <v>592</v>
@@ -18788,7 +18788,7 @@
         <v>650</v>
       </c>
       <c r="F63" s="1" t="s">
-        <v>623</v>
+        <v>534</v>
       </c>
       <c r="G63" s="1" t="s">
         <v>168</v>
@@ -20378,7 +20378,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:E19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>

--- a/tools/nibrs-staging-data/src/test/resources/codeSpreadSheets/NIBRSCodeTablesHawaii.xlsx
+++ b/tools/nibrs-staging-data/src/test/resources/codeSpreadSheets/NIBRSCodeTablesHawaii.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10912"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="11010"/>
   <workbookPr autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/haiqiwei/git/nibrsSpringBoot2/tools/nibrs-staging-data/src/test/resources/codeSpreadSheets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1391D28B-395E-074E-86FE-DDB6F66A7527}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E42901F-0039-E048-8111-3AB284B590F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="29940" yWindow="1000" windowWidth="23960" windowHeight="14200" tabRatio="705" firstSheet="3" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -57,7 +57,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3420" uniqueCount="1445">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3412" uniqueCount="1443">
   <si>
     <t>Table</t>
   </si>
@@ -1998,12 +1998,6 @@
   </si>
   <si>
     <t>26F</t>
-  </si>
-  <si>
-    <t>Identity Theft</t>
-  </si>
-  <si>
-    <t>Group B Offenses (Person)</t>
   </si>
   <si>
     <t>40C</t>
@@ -5364,13 +5358,13 @@
         <v>523</v>
       </c>
       <c r="C1" s="4" t="s">
+        <v>674</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>675</v>
+      </c>
+      <c r="E1" s="4" t="s">
         <v>676</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>677</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>678</v>
       </c>
       <c r="F1" t="s">
         <v>386</v>
@@ -5393,7 +5387,7 @@
         <v>171</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>1441</v>
+        <v>1439</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="15" customHeight="1">
@@ -5413,7 +5407,7 @@
         <v>172</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>1441</v>
+        <v>1439</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="15" customHeight="1">
@@ -5433,7 +5427,7 @@
         <v>173</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>1441</v>
+        <v>1439</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="15" customHeight="1">
@@ -5453,7 +5447,7 @@
         <v>174</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>1441</v>
+        <v>1439</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="15" customHeight="1">
@@ -5473,7 +5467,7 @@
         <v>175</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>1441</v>
+        <v>1439</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="15" customHeight="1">
@@ -5493,7 +5487,7 @@
         <v>176</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>1441</v>
+        <v>1439</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="15" customHeight="1">
@@ -5513,7 +5507,7 @@
         <v>177</v>
       </c>
       <c r="F8" t="s">
-        <v>1440</v>
+        <v>1438</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="15" customHeight="1">
@@ -5533,7 +5527,7 @@
         <v>178</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>1440</v>
+        <v>1438</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="15" customHeight="1">
@@ -5553,7 +5547,7 @@
         <v>179</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>1440</v>
+        <v>1438</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="15" customHeight="1">
@@ -5573,7 +5567,7 @@
         <v>180</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>1440</v>
+        <v>1438</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="15" customHeight="1">
@@ -5593,7 +5587,7 @@
         <v>181</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>1440</v>
+        <v>1438</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="15" customHeight="1">
@@ -5613,7 +5607,7 @@
         <v>182</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>1440</v>
+        <v>1438</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="15" customHeight="1">
@@ -5633,7 +5627,7 @@
         <v>183</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>1440</v>
+        <v>1438</v>
       </c>
     </row>
     <row r="15" spans="1:6" s="1" customFormat="1" ht="15" customHeight="1">
@@ -5644,16 +5638,16 @@
         <v>28</v>
       </c>
       <c r="C15" s="11" t="s">
-        <v>694</v>
+        <v>692</v>
       </c>
       <c r="D15" s="1">
         <v>28</v>
       </c>
       <c r="E15" s="11" t="s">
-        <v>694</v>
+        <v>692</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>1440</v>
+        <v>1438</v>
       </c>
     </row>
     <row r="16" spans="1:6" s="1" customFormat="1" ht="15" customHeight="1">
@@ -5664,16 +5658,16 @@
         <v>29</v>
       </c>
       <c r="C16" s="11" t="s">
-        <v>695</v>
+        <v>693</v>
       </c>
       <c r="D16" s="1">
         <v>29</v>
       </c>
       <c r="E16" s="11" t="s">
-        <v>695</v>
+        <v>693</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>1440</v>
+        <v>1438</v>
       </c>
     </row>
     <row r="17" spans="1:6" s="1" customFormat="1" ht="15" customHeight="1">
@@ -5684,16 +5678,16 @@
         <v>31</v>
       </c>
       <c r="C17" s="11" t="s">
-        <v>714</v>
+        <v>712</v>
       </c>
       <c r="D17" s="1">
         <v>31</v>
       </c>
       <c r="E17" s="11" t="s">
-        <v>714</v>
+        <v>712</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>1441</v>
+        <v>1439</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="15" customHeight="1">
@@ -5713,7 +5707,7 @@
         <v>184</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>1441</v>
+        <v>1439</v>
       </c>
     </row>
     <row r="19" spans="1:6" ht="15" customHeight="1">
@@ -5724,16 +5718,16 @@
         <v>33</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>713</v>
+        <v>711</v>
       </c>
       <c r="D19" s="1">
         <v>33</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>713</v>
+        <v>711</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>1441</v>
+        <v>1439</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="15" customHeight="1">
@@ -5853,7 +5847,7 @@
         <v>190</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>1443</v>
+        <v>1441</v>
       </c>
     </row>
     <row r="26" spans="1:6" ht="15" customHeight="1">
@@ -5873,7 +5867,7 @@
         <v>191</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>1443</v>
+        <v>1441</v>
       </c>
     </row>
     <row r="27" spans="1:6" ht="15" customHeight="1">
@@ -5933,7 +5927,7 @@
         <v>194</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>1442</v>
+        <v>1440</v>
       </c>
     </row>
     <row r="30" spans="1:6" ht="16" customHeight="1">
@@ -5953,7 +5947,7 @@
         <v>195</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>1442</v>
+        <v>1440</v>
       </c>
     </row>
     <row r="31" spans="1:6" s="1" customFormat="1" ht="16" customHeight="1">
@@ -5964,16 +5958,16 @@
         <v>81</v>
       </c>
       <c r="C31" s="11" t="s">
-        <v>696</v>
+        <v>694</v>
       </c>
       <c r="D31" s="1">
         <v>81</v>
       </c>
       <c r="E31" s="11" t="s">
-        <v>696</v>
+        <v>694</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>1440</v>
+        <v>1438</v>
       </c>
     </row>
     <row r="32" spans="1:6" s="1" customFormat="1" ht="16" customHeight="1">
@@ -5984,16 +5978,16 @@
         <v>82</v>
       </c>
       <c r="C32" s="11" t="s">
-        <v>697</v>
+        <v>695</v>
       </c>
       <c r="D32" s="1">
         <v>82</v>
       </c>
       <c r="E32" s="11" t="s">
-        <v>697</v>
+        <v>695</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>1440</v>
+        <v>1438</v>
       </c>
     </row>
     <row r="33" spans="1:6" s="1" customFormat="1" ht="15" customHeight="1">
@@ -6004,16 +5998,16 @@
         <v>83</v>
       </c>
       <c r="C33" s="11" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
       <c r="D33" s="1">
         <v>83</v>
       </c>
       <c r="E33" s="11" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>1440</v>
+        <v>1438</v>
       </c>
     </row>
     <row r="34" spans="1:6" s="1" customFormat="1" ht="15" customHeight="1">
@@ -6024,16 +6018,16 @@
         <v>84</v>
       </c>
       <c r="C34" s="11" t="s">
-        <v>699</v>
+        <v>697</v>
       </c>
       <c r="D34" s="1">
         <v>84</v>
       </c>
       <c r="E34" s="11" t="s">
-        <v>699</v>
+        <v>697</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>1440</v>
+        <v>1438</v>
       </c>
     </row>
     <row r="35" spans="1:6" s="1" customFormat="1" ht="15" customHeight="1">
@@ -6044,16 +6038,16 @@
         <v>85</v>
       </c>
       <c r="C35" s="11" t="s">
-        <v>700</v>
+        <v>698</v>
       </c>
       <c r="D35" s="1">
         <v>85</v>
       </c>
       <c r="E35" s="11" t="s">
-        <v>700</v>
+        <v>698</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>1440</v>
+        <v>1438</v>
       </c>
     </row>
     <row r="36" spans="1:6" ht="15" customHeight="1">
@@ -6151,13 +6145,13 @@
         <v>523</v>
       </c>
       <c r="C1" s="4" t="s">
+        <v>674</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>675</v>
+      </c>
+      <c r="E1" s="4" t="s">
         <v>676</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>677</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>678</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="15" customHeight="1">
@@ -6348,13 +6342,13 @@
         <v>523</v>
       </c>
       <c r="C1" s="4" t="s">
+        <v>674</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>675</v>
+      </c>
+      <c r="E1" s="4" t="s">
         <v>676</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>677</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>678</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="15" customHeight="1">
@@ -7564,13 +7558,13 @@
         <v>523</v>
       </c>
       <c r="C1" s="4" t="s">
+        <v>674</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>675</v>
+      </c>
+      <c r="E1" s="4" t="s">
         <v>676</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>677</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>678</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="15" customHeight="1">
@@ -7929,13 +7923,13 @@
         <v>523</v>
       </c>
       <c r="C1" t="s">
+        <v>674</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>675</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>676</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>677</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>678</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="15" customHeight="1">
@@ -8192,13 +8186,13 @@
         <v>523</v>
       </c>
       <c r="C1" t="s">
+        <v>674</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>675</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>676</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>677</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>678</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="15" customHeight="1">
@@ -8404,13 +8398,13 @@
         <v>523</v>
       </c>
       <c r="C1" s="4" t="s">
+        <v>674</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>675</v>
+      </c>
+      <c r="E1" s="4" t="s">
         <v>676</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>677</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>678</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="15" customHeight="1">
@@ -8421,13 +8415,13 @@
         <v>51</v>
       </c>
       <c r="C2" t="s">
-        <v>715</v>
+        <v>713</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>51</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>715</v>
+        <v>713</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="15" customHeight="1">
@@ -8557,13 +8551,13 @@
         <v>67</v>
       </c>
       <c r="C10" t="s">
-        <v>716</v>
+        <v>714</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>67</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>716</v>
+        <v>714</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="15" customHeight="1">
@@ -8667,13 +8661,13 @@
         <v>523</v>
       </c>
       <c r="C1" t="s">
+        <v>674</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>675</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>676</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>677</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>678</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="15" customHeight="1">
@@ -8862,13 +8856,13 @@
         <v>523</v>
       </c>
       <c r="C1" t="s">
+        <v>674</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>675</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>676</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>677</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>678</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="15" customHeight="1">
@@ -8972,13 +8966,13 @@
         <v>523</v>
       </c>
       <c r="C1" t="s">
+        <v>674</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>675</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>676</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>677</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>678</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="15" customHeight="1">
@@ -9023,7 +9017,7 @@
         <v>35</v>
       </c>
       <c r="C4" t="s">
-        <v>687</v>
+        <v>685</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>35</v>
@@ -9040,7 +9034,7 @@
         <v>45</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>37</v>
@@ -9057,7 +9051,7 @@
         <v>154</v>
       </c>
       <c r="C6" t="s">
-        <v>680</v>
+        <v>678</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>37</v>
@@ -9074,7 +9068,7 @@
         <v>140</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>681</v>
+        <v>679</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>37</v>
@@ -9091,7 +9085,7 @@
         <v>243</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>682</v>
+        <v>680</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>37</v>
@@ -9108,7 +9102,7 @@
         <v>37</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>683</v>
+        <v>681</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>37</v>
@@ -9125,7 +9119,7 @@
         <v>240</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>148</v>
@@ -9142,7 +9136,7 @@
         <v>274</v>
       </c>
       <c r="C11" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>148</v>
@@ -9159,7 +9153,7 @@
         <v>148</v>
       </c>
       <c r="C12" s="9" t="s">
-        <v>686</v>
+        <v>684</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>148</v>
@@ -9235,16 +9229,16 @@
         <v>34</v>
       </c>
       <c r="B1" t="s">
+        <v>673</v>
+      </c>
+      <c r="C1" t="s">
+        <v>674</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>675</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E1" s="1" t="s">
         <v>676</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>677</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>678</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="15" customHeight="1">
@@ -9306,13 +9300,13 @@
         <v>245</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>724</v>
+        <v>722</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>245</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>724</v>
+        <v>722</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -9382,13 +9376,13 @@
         <v>523</v>
       </c>
       <c r="C1" t="s">
+        <v>674</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>675</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>676</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>677</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>678</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="15" customHeight="1">
@@ -9492,13 +9486,13 @@
         <v>523</v>
       </c>
       <c r="C1" t="s">
+        <v>674</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>675</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>676</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>677</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>678</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="15" customHeight="1">
@@ -9602,13 +9596,13 @@
         <v>523</v>
       </c>
       <c r="C1" t="s">
+        <v>674</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>675</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>676</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>677</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>678</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="15" customHeight="1">
@@ -9704,13 +9698,13 @@
         <v>61</v>
       </c>
       <c r="C7" t="s">
-        <v>718</v>
+        <v>716</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>61</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>718</v>
+        <v>716</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="15" customHeight="1">
@@ -9967,13 +9961,13 @@
         <v>523</v>
       </c>
       <c r="C1" t="s">
+        <v>674</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>675</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>676</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>677</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>678</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="15" customHeight="1">
@@ -10162,13 +10156,13 @@
         <v>523</v>
       </c>
       <c r="C1" t="s">
+        <v>674</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>675</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>676</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>677</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>678</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="15" customHeight="1">
@@ -10374,13 +10368,13 @@
         <v>523</v>
       </c>
       <c r="C1" t="s">
+        <v>674</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>675</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>676</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>677</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>678</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="15" customHeight="1">
@@ -10711,16 +10705,16 @@
         <v>20</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>717</v>
+        <v>715</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>725</v>
+        <v>723</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>717</v>
+        <v>715</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>725</v>
+        <v>723</v>
       </c>
     </row>
     <row r="22" spans="1:5" s="1" customFormat="1" ht="15" customHeight="1">
@@ -10728,16 +10722,16 @@
         <v>21</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>720</v>
+        <v>718</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>721</v>
+        <v>719</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>720</v>
+        <v>718</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>721</v>
+        <v>719</v>
       </c>
     </row>
     <row r="23" spans="1:5" ht="15" customHeight="1">
@@ -10861,13 +10855,13 @@
         <v>523</v>
       </c>
       <c r="C1" t="s">
+        <v>674</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>675</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>676</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>677</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>678</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="15" customHeight="1">
@@ -10988,13 +10982,13 @@
         <v>523</v>
       </c>
       <c r="C1" t="s">
+        <v>674</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>675</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>676</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>677</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>678</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="15" customHeight="1">
@@ -11098,13 +11092,13 @@
         <v>523</v>
       </c>
       <c r="C1" t="s">
+        <v>674</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>675</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>676</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>677</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>678</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="15" customHeight="1">
@@ -11310,13 +11304,13 @@
         <v>523</v>
       </c>
       <c r="C1" t="s">
+        <v>674</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>675</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>676</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>677</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>678</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="15" customHeight="1">
@@ -11420,13 +11414,13 @@
         <v>523</v>
       </c>
       <c r="C1" t="s">
+        <v>674</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>675</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>676</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>677</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>678</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="15" customHeight="1">
@@ -11599,13 +11593,13 @@
         <v>523</v>
       </c>
       <c r="C1" t="s">
+        <v>674</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>675</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>676</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>677</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>678</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -11828,13 +11822,13 @@
         <v>523</v>
       </c>
       <c r="C1" t="s">
+        <v>674</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>675</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>676</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>677</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>678</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -11879,13 +11873,13 @@
         <v>496</v>
       </c>
       <c r="C4" t="s">
-        <v>719</v>
+        <v>717</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>496</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>719</v>
+        <v>717</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -11959,7 +11953,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="C2" t="s">
         <v>505</v>
@@ -11974,7 +11968,7 @@
         <v>526</v>
       </c>
       <c r="G2" t="s">
-        <v>658</v>
+        <v>656</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -11982,7 +11976,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>661</v>
+        <v>659</v>
       </c>
       <c r="C3" t="s">
         <v>506</v>
@@ -11997,7 +11991,7 @@
         <v>526</v>
       </c>
       <c r="G3" t="s">
-        <v>658</v>
+        <v>656</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -12005,7 +11999,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>662</v>
+        <v>660</v>
       </c>
       <c r="C4" t="s">
         <v>507</v>
@@ -12020,7 +12014,7 @@
         <v>526</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>658</v>
+        <v>656</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -12028,7 +12022,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>663</v>
+        <v>661</v>
       </c>
       <c r="C5" t="s">
         <v>508</v>
@@ -12043,7 +12037,7 @@
         <v>526</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>658</v>
+        <v>656</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -12051,7 +12045,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>664</v>
+        <v>662</v>
       </c>
       <c r="C6" t="s">
         <v>509</v>
@@ -12066,7 +12060,7 @@
         <v>526</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>658</v>
+        <v>656</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -12074,7 +12068,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="C7" t="s">
         <v>510</v>
@@ -12089,7 +12083,7 @@
         <v>526</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>658</v>
+        <v>656</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -12097,7 +12091,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>666</v>
+        <v>664</v>
       </c>
       <c r="C8" t="s">
         <v>511</v>
@@ -12112,7 +12106,7 @@
         <v>526</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>658</v>
+        <v>656</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -12120,7 +12114,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>667</v>
+        <v>665</v>
       </c>
       <c r="C9" t="s">
         <v>512</v>
@@ -12135,7 +12129,7 @@
         <v>526</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>658</v>
+        <v>656</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -12143,7 +12137,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>668</v>
+        <v>666</v>
       </c>
       <c r="C10" t="s">
         <v>513</v>
@@ -12158,7 +12152,7 @@
         <v>526</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>658</v>
+        <v>656</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -12166,7 +12160,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>669</v>
+        <v>667</v>
       </c>
       <c r="C11" t="s">
         <v>514</v>
@@ -12181,7 +12175,7 @@
         <v>526</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>658</v>
+        <v>656</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -12189,7 +12183,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>670</v>
+        <v>668</v>
       </c>
       <c r="C12" t="s">
         <v>515</v>
@@ -12204,7 +12198,7 @@
         <v>526</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>658</v>
+        <v>656</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -12212,7 +12206,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
       <c r="C13" t="s">
         <v>516</v>
@@ -12227,7 +12221,7 @@
         <v>526</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>658</v>
+        <v>656</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -12235,7 +12229,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>672</v>
+        <v>670</v>
       </c>
       <c r="C14" t="s">
         <v>517</v>
@@ -12250,7 +12244,7 @@
         <v>526</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>658</v>
+        <v>656</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -12258,7 +12252,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="C15" t="s">
         <v>518</v>
@@ -12273,7 +12267,7 @@
         <v>526</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>658</v>
+        <v>656</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -12281,7 +12275,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>674</v>
+        <v>672</v>
       </c>
       <c r="C16" t="s">
         <v>519</v>
@@ -12296,7 +12290,7 @@
         <v>526</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>658</v>
+        <v>656</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -12313,13 +12307,13 @@
         <v>99998</v>
       </c>
       <c r="E17" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="F17" t="s">
         <v>169</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>658</v>
+        <v>656</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -12336,13 +12330,13 @@
         <v>99998</v>
       </c>
       <c r="E18" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="F18" t="s">
         <v>497</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>658</v>
+        <v>656</v>
       </c>
     </row>
   </sheetData>
@@ -12373,16 +12367,16 @@
         <v>34</v>
       </c>
       <c r="B1" s="3" t="s">
+        <v>724</v>
+      </c>
+      <c r="C1" t="s">
+        <v>725</v>
+      </c>
+      <c r="D1" t="s">
         <v>726</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E1" t="s">
         <v>727</v>
-      </c>
-      <c r="D1" t="s">
-        <v>728</v>
-      </c>
-      <c r="E1" t="s">
-        <v>729</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -12390,16 +12384,16 @@
         <v>1</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>1186</v>
+        <v>1184</v>
       </c>
       <c r="C2" t="s">
+        <v>728</v>
+      </c>
+      <c r="D2" t="s">
+        <v>729</v>
+      </c>
+      <c r="E2" t="s">
         <v>730</v>
-      </c>
-      <c r="D2" t="s">
-        <v>731</v>
-      </c>
-      <c r="E2" t="s">
-        <v>732</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -12407,16 +12401,16 @@
         <v>2</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>1187</v>
+        <v>1185</v>
       </c>
       <c r="C3" t="s">
-        <v>730</v>
+        <v>728</v>
       </c>
       <c r="D3" t="s">
-        <v>733</v>
+        <v>731</v>
       </c>
       <c r="E3" t="s">
-        <v>734</v>
+        <v>732</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -12424,16 +12418,16 @@
         <v>3</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>1188</v>
+        <v>1186</v>
       </c>
       <c r="C4" t="s">
-        <v>730</v>
+        <v>728</v>
       </c>
       <c r="D4" t="s">
-        <v>735</v>
+        <v>733</v>
       </c>
       <c r="E4" t="s">
-        <v>736</v>
+        <v>734</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -12441,16 +12435,16 @@
         <v>4</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>1189</v>
+        <v>1187</v>
       </c>
       <c r="C5" t="s">
-        <v>730</v>
+        <v>728</v>
       </c>
       <c r="D5" t="s">
-        <v>737</v>
+        <v>735</v>
       </c>
       <c r="E5" t="s">
-        <v>738</v>
+        <v>736</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -12458,16 +12452,16 @@
         <v>5</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>1190</v>
+        <v>1188</v>
       </c>
       <c r="C6" t="s">
-        <v>730</v>
+        <v>728</v>
       </c>
       <c r="D6" t="s">
-        <v>739</v>
+        <v>737</v>
       </c>
       <c r="E6" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -12475,16 +12469,16 @@
         <v>6</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>1191</v>
+        <v>1189</v>
       </c>
       <c r="C7" t="s">
-        <v>730</v>
+        <v>728</v>
       </c>
       <c r="D7" t="s">
-        <v>741</v>
+        <v>739</v>
       </c>
       <c r="E7" t="s">
-        <v>742</v>
+        <v>740</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -12492,16 +12486,16 @@
         <v>7</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>1192</v>
+        <v>1190</v>
       </c>
       <c r="C8" t="s">
-        <v>730</v>
+        <v>728</v>
       </c>
       <c r="D8" t="s">
-        <v>743</v>
+        <v>741</v>
       </c>
       <c r="E8" t="s">
-        <v>744</v>
+        <v>742</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -12509,16 +12503,16 @@
         <v>8</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>1193</v>
+        <v>1191</v>
       </c>
       <c r="C9" t="s">
-        <v>730</v>
+        <v>728</v>
       </c>
       <c r="D9" t="s">
-        <v>745</v>
+        <v>743</v>
       </c>
       <c r="E9" t="s">
-        <v>746</v>
+        <v>744</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -12526,16 +12520,16 @@
         <v>9</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>1194</v>
+        <v>1192</v>
       </c>
       <c r="C10" t="s">
-        <v>730</v>
+        <v>728</v>
       </c>
       <c r="D10" t="s">
-        <v>747</v>
+        <v>745</v>
       </c>
       <c r="E10" t="s">
-        <v>748</v>
+        <v>746</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -12543,16 +12537,16 @@
         <v>10</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>1195</v>
+        <v>1193</v>
       </c>
       <c r="C11" t="s">
-        <v>730</v>
+        <v>728</v>
       </c>
       <c r="D11" t="s">
-        <v>749</v>
+        <v>747</v>
       </c>
       <c r="E11" t="s">
-        <v>750</v>
+        <v>748</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -12560,16 +12554,16 @@
         <v>11</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>1196</v>
+        <v>1194</v>
       </c>
       <c r="C12" t="s">
-        <v>730</v>
+        <v>728</v>
       </c>
       <c r="D12" t="s">
-        <v>751</v>
+        <v>749</v>
       </c>
       <c r="E12" t="s">
-        <v>752</v>
+        <v>750</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -12577,16 +12571,16 @@
         <v>12</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>1197</v>
+        <v>1195</v>
       </c>
       <c r="C13" t="s">
-        <v>730</v>
+        <v>728</v>
       </c>
       <c r="D13" t="s">
-        <v>753</v>
+        <v>751</v>
       </c>
       <c r="E13" t="s">
-        <v>754</v>
+        <v>752</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -12594,16 +12588,16 @@
         <v>13</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>1198</v>
+        <v>1196</v>
       </c>
       <c r="C14" t="s">
-        <v>730</v>
+        <v>728</v>
       </c>
       <c r="D14" t="s">
-        <v>755</v>
+        <v>753</v>
       </c>
       <c r="E14" t="s">
-        <v>756</v>
+        <v>754</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -12611,16 +12605,16 @@
         <v>14</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>1199</v>
+        <v>1197</v>
       </c>
       <c r="C15" t="s">
-        <v>730</v>
+        <v>728</v>
       </c>
       <c r="D15" t="s">
-        <v>757</v>
+        <v>755</v>
       </c>
       <c r="E15" t="s">
-        <v>758</v>
+        <v>756</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -12628,16 +12622,16 @@
         <v>15</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>1200</v>
+        <v>1198</v>
       </c>
       <c r="C16" t="s">
-        <v>730</v>
+        <v>728</v>
       </c>
       <c r="D16" t="s">
-        <v>759</v>
+        <v>757</v>
       </c>
       <c r="E16" t="s">
-        <v>760</v>
+        <v>758</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -12645,16 +12639,16 @@
         <v>16</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>1201</v>
+        <v>1199</v>
       </c>
       <c r="C17" t="s">
-        <v>730</v>
+        <v>728</v>
       </c>
       <c r="D17" t="s">
-        <v>761</v>
+        <v>759</v>
       </c>
       <c r="E17" t="s">
-        <v>762</v>
+        <v>760</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -12662,16 +12656,16 @@
         <v>17</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>1202</v>
+        <v>1200</v>
       </c>
       <c r="C18" t="s">
-        <v>730</v>
+        <v>728</v>
       </c>
       <c r="D18" t="s">
-        <v>763</v>
+        <v>761</v>
       </c>
       <c r="E18" t="s">
-        <v>764</v>
+        <v>762</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -12679,16 +12673,16 @@
         <v>18</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>1203</v>
+        <v>1201</v>
       </c>
       <c r="C19" t="s">
-        <v>730</v>
+        <v>728</v>
       </c>
       <c r="D19" t="s">
-        <v>765</v>
+        <v>763</v>
       </c>
       <c r="E19" t="s">
-        <v>766</v>
+        <v>764</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -12696,16 +12690,16 @@
         <v>19</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>1204</v>
+        <v>1202</v>
       </c>
       <c r="C20" t="s">
-        <v>730</v>
+        <v>728</v>
       </c>
       <c r="D20" t="s">
-        <v>767</v>
+        <v>765</v>
       </c>
       <c r="E20" t="s">
-        <v>768</v>
+        <v>766</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -12713,16 +12707,16 @@
         <v>20</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>1205</v>
+        <v>1203</v>
       </c>
       <c r="C21" t="s">
-        <v>730</v>
+        <v>728</v>
       </c>
       <c r="D21" t="s">
-        <v>769</v>
+        <v>767</v>
       </c>
       <c r="E21" t="s">
-        <v>770</v>
+        <v>768</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -12730,16 +12724,16 @@
         <v>21</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>1206</v>
+        <v>1204</v>
       </c>
       <c r="C22" t="s">
-        <v>730</v>
+        <v>728</v>
       </c>
       <c r="D22" t="s">
-        <v>771</v>
+        <v>769</v>
       </c>
       <c r="E22" t="s">
-        <v>772</v>
+        <v>770</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -12747,16 +12741,16 @@
         <v>22</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>1207</v>
+        <v>1205</v>
       </c>
       <c r="C23" t="s">
-        <v>730</v>
+        <v>728</v>
       </c>
       <c r="D23" t="s">
-        <v>773</v>
+        <v>771</v>
       </c>
       <c r="E23" t="s">
-        <v>774</v>
+        <v>772</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -12764,16 +12758,16 @@
         <v>23</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>1208</v>
+        <v>1206</v>
       </c>
       <c r="C24" t="s">
-        <v>730</v>
+        <v>728</v>
       </c>
       <c r="D24" t="s">
-        <v>775</v>
+        <v>773</v>
       </c>
       <c r="E24" t="s">
-        <v>776</v>
+        <v>774</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -12781,16 +12775,16 @@
         <v>24</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>1209</v>
+        <v>1207</v>
       </c>
       <c r="C25" t="s">
-        <v>730</v>
+        <v>728</v>
       </c>
       <c r="D25" t="s">
-        <v>777</v>
+        <v>775</v>
       </c>
       <c r="E25" t="s">
-        <v>778</v>
+        <v>776</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -12798,16 +12792,16 @@
         <v>25</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>1210</v>
+        <v>1208</v>
       </c>
       <c r="C26" t="s">
-        <v>730</v>
+        <v>728</v>
       </c>
       <c r="D26" t="s">
-        <v>779</v>
+        <v>777</v>
       </c>
       <c r="E26" t="s">
-        <v>780</v>
+        <v>778</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -12815,16 +12809,16 @@
         <v>26</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>1211</v>
+        <v>1209</v>
       </c>
       <c r="C27" t="s">
-        <v>730</v>
+        <v>728</v>
       </c>
       <c r="D27" t="s">
-        <v>781</v>
+        <v>779</v>
       </c>
       <c r="E27" t="s">
-        <v>782</v>
+        <v>780</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -12832,16 +12826,16 @@
         <v>27</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>1212</v>
+        <v>1210</v>
       </c>
       <c r="C28" t="s">
+        <v>781</v>
+      </c>
+      <c r="D28" t="s">
+        <v>782</v>
+      </c>
+      <c r="E28" t="s">
         <v>783</v>
-      </c>
-      <c r="D28" t="s">
-        <v>784</v>
-      </c>
-      <c r="E28" t="s">
-        <v>785</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -12849,16 +12843,16 @@
         <v>28</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>1213</v>
+        <v>1211</v>
       </c>
       <c r="C29" t="s">
-        <v>783</v>
+        <v>781</v>
       </c>
       <c r="D29" t="s">
-        <v>786</v>
+        <v>784</v>
       </c>
       <c r="E29" t="s">
-        <v>787</v>
+        <v>785</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -12866,16 +12860,16 @@
         <v>29</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>1214</v>
+        <v>1212</v>
       </c>
       <c r="C30" t="s">
-        <v>783</v>
+        <v>781</v>
       </c>
       <c r="D30" t="s">
-        <v>788</v>
+        <v>786</v>
       </c>
       <c r="E30" t="s">
-        <v>789</v>
+        <v>787</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -12883,16 +12877,16 @@
         <v>30</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>1215</v>
+        <v>1213</v>
       </c>
       <c r="C31" t="s">
-        <v>783</v>
+        <v>781</v>
       </c>
       <c r="D31" t="s">
-        <v>790</v>
+        <v>788</v>
       </c>
       <c r="E31" t="s">
-        <v>791</v>
+        <v>789</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -12900,16 +12894,16 @@
         <v>31</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>1216</v>
+        <v>1214</v>
       </c>
       <c r="C32" t="s">
-        <v>783</v>
+        <v>781</v>
       </c>
       <c r="D32" t="s">
-        <v>792</v>
+        <v>790</v>
       </c>
       <c r="E32" t="s">
-        <v>793</v>
+        <v>791</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -12917,16 +12911,16 @@
         <v>32</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>1217</v>
+        <v>1215</v>
       </c>
       <c r="C33" t="s">
-        <v>783</v>
+        <v>781</v>
       </c>
       <c r="D33" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
       <c r="E33" t="s">
-        <v>795</v>
+        <v>793</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -12934,16 +12928,16 @@
         <v>33</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>1218</v>
+        <v>1216</v>
       </c>
       <c r="C34" t="s">
-        <v>783</v>
+        <v>781</v>
       </c>
       <c r="D34" t="s">
-        <v>796</v>
+        <v>794</v>
       </c>
       <c r="E34" t="s">
-        <v>797</v>
+        <v>795</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -12951,16 +12945,16 @@
         <v>34</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>1219</v>
+        <v>1217</v>
       </c>
       <c r="C35" t="s">
-        <v>783</v>
+        <v>781</v>
       </c>
       <c r="D35" t="s">
-        <v>798</v>
+        <v>796</v>
       </c>
       <c r="E35" t="s">
-        <v>799</v>
+        <v>797</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -12968,16 +12962,16 @@
         <v>35</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>1220</v>
+        <v>1218</v>
       </c>
       <c r="C36" t="s">
-        <v>783</v>
+        <v>781</v>
       </c>
       <c r="D36" t="s">
-        <v>800</v>
+        <v>798</v>
       </c>
       <c r="E36" t="s">
-        <v>801</v>
+        <v>799</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -12985,16 +12979,16 @@
         <v>36</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>1221</v>
+        <v>1219</v>
       </c>
       <c r="C37" t="s">
-        <v>783</v>
+        <v>781</v>
       </c>
       <c r="D37" t="s">
-        <v>802</v>
+        <v>800</v>
       </c>
       <c r="E37" t="s">
-        <v>803</v>
+        <v>801</v>
       </c>
     </row>
     <row r="38" spans="1:5">
@@ -13002,16 +12996,16 @@
         <v>37</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>1222</v>
+        <v>1220</v>
       </c>
       <c r="C38" t="s">
-        <v>783</v>
+        <v>781</v>
       </c>
       <c r="D38" t="s">
-        <v>804</v>
+        <v>802</v>
       </c>
       <c r="E38" t="s">
-        <v>805</v>
+        <v>803</v>
       </c>
     </row>
     <row r="39" spans="1:5">
@@ -13019,16 +13013,16 @@
         <v>38</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>1223</v>
+        <v>1221</v>
       </c>
       <c r="C39" t="s">
-        <v>783</v>
+        <v>781</v>
       </c>
       <c r="D39" t="s">
-        <v>806</v>
+        <v>804</v>
       </c>
       <c r="E39" t="s">
-        <v>807</v>
+        <v>805</v>
       </c>
     </row>
     <row r="40" spans="1:5">
@@ -13036,16 +13030,16 @@
         <v>39</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>1224</v>
+        <v>1222</v>
       </c>
       <c r="C40" t="s">
-        <v>783</v>
+        <v>781</v>
       </c>
       <c r="D40" t="s">
-        <v>808</v>
+        <v>806</v>
       </c>
       <c r="E40" t="s">
-        <v>809</v>
+        <v>807</v>
       </c>
     </row>
     <row r="41" spans="1:5">
@@ -13053,16 +13047,16 @@
         <v>40</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>1225</v>
+        <v>1223</v>
       </c>
       <c r="C41" t="s">
-        <v>783</v>
+        <v>781</v>
       </c>
       <c r="D41" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="E41" t="s">
-        <v>811</v>
+        <v>809</v>
       </c>
     </row>
     <row r="42" spans="1:5">
@@ -13070,16 +13064,16 @@
         <v>41</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>1226</v>
+        <v>1224</v>
       </c>
       <c r="C42" t="s">
-        <v>783</v>
+        <v>781</v>
       </c>
       <c r="D42" t="s">
-        <v>812</v>
+        <v>810</v>
       </c>
       <c r="E42" t="s">
-        <v>813</v>
+        <v>811</v>
       </c>
     </row>
     <row r="43" spans="1:5">
@@ -13087,16 +13081,16 @@
         <v>42</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>1227</v>
+        <v>1225</v>
       </c>
       <c r="C43" t="s">
-        <v>783</v>
+        <v>781</v>
       </c>
       <c r="D43" t="s">
-        <v>814</v>
+        <v>812</v>
       </c>
       <c r="E43" t="s">
-        <v>815</v>
+        <v>813</v>
       </c>
     </row>
     <row r="44" spans="1:5">
@@ -13104,16 +13098,16 @@
         <v>43</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>1228</v>
+        <v>1226</v>
       </c>
       <c r="C44" t="s">
-        <v>783</v>
+        <v>781</v>
       </c>
       <c r="D44" t="s">
-        <v>816</v>
+        <v>814</v>
       </c>
       <c r="E44" t="s">
-        <v>817</v>
+        <v>815</v>
       </c>
     </row>
     <row r="45" spans="1:5">
@@ -13121,16 +13115,16 @@
         <v>44</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>1229</v>
+        <v>1227</v>
       </c>
       <c r="C45" t="s">
-        <v>783</v>
+        <v>781</v>
       </c>
       <c r="D45" t="s">
-        <v>818</v>
+        <v>816</v>
       </c>
       <c r="E45" t="s">
-        <v>819</v>
+        <v>817</v>
       </c>
     </row>
     <row r="46" spans="1:5">
@@ -13138,16 +13132,16 @@
         <v>45</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>1230</v>
+        <v>1228</v>
       </c>
       <c r="C46" t="s">
-        <v>783</v>
+        <v>781</v>
       </c>
       <c r="D46" t="s">
-        <v>820</v>
+        <v>818</v>
       </c>
       <c r="E46" t="s">
-        <v>821</v>
+        <v>819</v>
       </c>
     </row>
     <row r="47" spans="1:5">
@@ -13155,16 +13149,16 @@
         <v>46</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>1231</v>
+        <v>1229</v>
       </c>
       <c r="C47" t="s">
-        <v>783</v>
+        <v>781</v>
       </c>
       <c r="D47" t="s">
-        <v>822</v>
+        <v>820</v>
       </c>
       <c r="E47" t="s">
-        <v>823</v>
+        <v>821</v>
       </c>
     </row>
     <row r="48" spans="1:5">
@@ -13172,16 +13166,16 @@
         <v>47</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>1232</v>
+        <v>1230</v>
       </c>
       <c r="C48" t="s">
-        <v>783</v>
+        <v>781</v>
       </c>
       <c r="D48" t="s">
-        <v>824</v>
+        <v>822</v>
       </c>
       <c r="E48" t="s">
-        <v>825</v>
+        <v>823</v>
       </c>
     </row>
     <row r="49" spans="1:5">
@@ -13189,16 +13183,16 @@
         <v>48</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>1233</v>
+        <v>1231</v>
       </c>
       <c r="C49" t="s">
-        <v>783</v>
+        <v>781</v>
       </c>
       <c r="D49" t="s">
-        <v>826</v>
+        <v>824</v>
       </c>
       <c r="E49" t="s">
-        <v>827</v>
+        <v>825</v>
       </c>
     </row>
     <row r="50" spans="1:5">
@@ -13206,16 +13200,16 @@
         <v>49</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>1234</v>
+        <v>1232</v>
       </c>
       <c r="C50" t="s">
-        <v>828</v>
+        <v>826</v>
       </c>
       <c r="D50" t="s">
-        <v>784</v>
+        <v>782</v>
       </c>
       <c r="E50" t="s">
-        <v>829</v>
+        <v>827</v>
       </c>
     </row>
     <row r="51" spans="1:5">
@@ -13223,16 +13217,16 @@
         <v>50</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>1235</v>
+        <v>1233</v>
       </c>
       <c r="C51" t="s">
+        <v>826</v>
+      </c>
+      <c r="D51" t="s">
         <v>828</v>
       </c>
-      <c r="D51" t="s">
-        <v>830</v>
-      </c>
       <c r="E51" t="s">
-        <v>831</v>
+        <v>829</v>
       </c>
     </row>
     <row r="52" spans="1:5">
@@ -13240,16 +13234,16 @@
         <v>51</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>1236</v>
+        <v>1234</v>
       </c>
       <c r="C52" t="s">
-        <v>828</v>
+        <v>826</v>
       </c>
       <c r="D52" t="s">
-        <v>832</v>
+        <v>830</v>
       </c>
       <c r="E52" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
     </row>
     <row r="53" spans="1:5">
@@ -13257,16 +13251,16 @@
         <v>52</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>1237</v>
+        <v>1235</v>
       </c>
       <c r="C53" t="s">
-        <v>828</v>
+        <v>826</v>
       </c>
       <c r="D53" t="s">
-        <v>834</v>
+        <v>832</v>
       </c>
       <c r="E53" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
     </row>
     <row r="54" spans="1:5">
@@ -13274,16 +13268,16 @@
         <v>53</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>1238</v>
+        <v>1236</v>
       </c>
       <c r="C54" t="s">
-        <v>828</v>
+        <v>826</v>
       </c>
       <c r="D54" t="s">
-        <v>836</v>
+        <v>834</v>
       </c>
       <c r="E54" t="s">
-        <v>837</v>
+        <v>835</v>
       </c>
     </row>
     <row r="55" spans="1:5">
@@ -13291,16 +13285,16 @@
         <v>54</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>1239</v>
+        <v>1237</v>
       </c>
       <c r="C55" t="s">
-        <v>828</v>
+        <v>826</v>
       </c>
       <c r="D55" t="s">
-        <v>838</v>
+        <v>836</v>
       </c>
       <c r="E55" t="s">
-        <v>839</v>
+        <v>837</v>
       </c>
     </row>
     <row r="56" spans="1:5">
@@ -13308,16 +13302,16 @@
         <v>55</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>1240</v>
+        <v>1238</v>
       </c>
       <c r="C56" t="s">
-        <v>828</v>
+        <v>826</v>
       </c>
       <c r="D56" t="s">
-        <v>840</v>
+        <v>838</v>
       </c>
       <c r="E56" t="s">
-        <v>841</v>
+        <v>839</v>
       </c>
     </row>
     <row r="57" spans="1:5">
@@ -13325,16 +13319,16 @@
         <v>56</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>1241</v>
+        <v>1239</v>
       </c>
       <c r="C57" t="s">
-        <v>828</v>
+        <v>826</v>
       </c>
       <c r="D57" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
       <c r="E57" t="s">
-        <v>842</v>
+        <v>840</v>
       </c>
     </row>
     <row r="58" spans="1:5">
@@ -13342,16 +13336,16 @@
         <v>57</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>1242</v>
+        <v>1240</v>
       </c>
       <c r="C58" t="s">
-        <v>828</v>
+        <v>826</v>
       </c>
       <c r="D58" t="s">
-        <v>796</v>
+        <v>794</v>
       </c>
       <c r="E58" t="s">
-        <v>843</v>
+        <v>841</v>
       </c>
     </row>
     <row r="59" spans="1:5">
@@ -13359,16 +13353,16 @@
         <v>58</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>1243</v>
+        <v>1241</v>
       </c>
       <c r="C59" t="s">
-        <v>828</v>
+        <v>826</v>
       </c>
       <c r="D59" t="s">
-        <v>844</v>
+        <v>842</v>
       </c>
       <c r="E59" t="s">
-        <v>845</v>
+        <v>843</v>
       </c>
     </row>
     <row r="60" spans="1:5">
@@ -13376,16 +13370,16 @@
         <v>59</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>1244</v>
+        <v>1242</v>
       </c>
       <c r="C60" t="s">
-        <v>828</v>
+        <v>826</v>
       </c>
       <c r="D60" t="s">
-        <v>846</v>
+        <v>844</v>
       </c>
       <c r="E60" t="s">
-        <v>847</v>
+        <v>845</v>
       </c>
     </row>
     <row r="61" spans="1:5">
@@ -13393,16 +13387,16 @@
         <v>60</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>1245</v>
+        <v>1243</v>
       </c>
       <c r="C61" t="s">
-        <v>828</v>
+        <v>826</v>
       </c>
       <c r="D61" t="s">
+        <v>844</v>
+      </c>
+      <c r="E61" t="s">
         <v>846</v>
-      </c>
-      <c r="E61" t="s">
-        <v>848</v>
       </c>
     </row>
     <row r="62" spans="1:5">
@@ -13410,16 +13404,16 @@
         <v>61</v>
       </c>
       <c r="B62" s="3" t="s">
-        <v>1246</v>
+        <v>1244</v>
       </c>
       <c r="C62" t="s">
-        <v>828</v>
+        <v>826</v>
       </c>
       <c r="D62" t="s">
-        <v>849</v>
+        <v>847</v>
       </c>
       <c r="E62" t="s">
-        <v>848</v>
+        <v>846</v>
       </c>
     </row>
     <row r="63" spans="1:5">
@@ -13427,16 +13421,16 @@
         <v>62</v>
       </c>
       <c r="B63" s="3" t="s">
-        <v>1247</v>
+        <v>1245</v>
       </c>
       <c r="C63" t="s">
-        <v>828</v>
+        <v>826</v>
       </c>
       <c r="D63" t="s">
-        <v>850</v>
+        <v>848</v>
       </c>
       <c r="E63" t="s">
-        <v>851</v>
+        <v>849</v>
       </c>
     </row>
     <row r="64" spans="1:5">
@@ -13444,16 +13438,16 @@
         <v>63</v>
       </c>
       <c r="B64" s="3" t="s">
-        <v>1248</v>
+        <v>1246</v>
       </c>
       <c r="C64" t="s">
-        <v>828</v>
+        <v>826</v>
       </c>
       <c r="D64" t="s">
-        <v>852</v>
+        <v>850</v>
       </c>
       <c r="E64" t="s">
-        <v>853</v>
+        <v>851</v>
       </c>
     </row>
     <row r="65" spans="1:5">
@@ -13461,16 +13455,16 @@
         <v>64</v>
       </c>
       <c r="B65" s="3" t="s">
-        <v>1249</v>
+        <v>1247</v>
       </c>
       <c r="C65" t="s">
-        <v>828</v>
+        <v>826</v>
       </c>
       <c r="D65" t="s">
-        <v>854</v>
+        <v>852</v>
       </c>
       <c r="E65" t="s">
-        <v>855</v>
+        <v>853</v>
       </c>
     </row>
     <row r="66" spans="1:5">
@@ -13478,16 +13472,16 @@
         <v>65</v>
       </c>
       <c r="B66" s="3" t="s">
-        <v>1250</v>
+        <v>1248</v>
       </c>
       <c r="C66" t="s">
-        <v>828</v>
+        <v>826</v>
       </c>
       <c r="D66" t="s">
-        <v>856</v>
+        <v>854</v>
       </c>
       <c r="E66" t="s">
-        <v>857</v>
+        <v>855</v>
       </c>
     </row>
     <row r="67" spans="1:5">
@@ -13495,16 +13489,16 @@
         <v>66</v>
       </c>
       <c r="B67" s="3" t="s">
-        <v>1251</v>
+        <v>1249</v>
       </c>
       <c r="C67" t="s">
-        <v>828</v>
+        <v>826</v>
       </c>
       <c r="D67" t="s">
-        <v>858</v>
+        <v>856</v>
       </c>
       <c r="E67" t="s">
-        <v>859</v>
+        <v>857</v>
       </c>
     </row>
     <row r="68" spans="1:5">
@@ -13512,16 +13506,16 @@
         <v>67</v>
       </c>
       <c r="B68" s="3" t="s">
-        <v>1252</v>
+        <v>1250</v>
       </c>
       <c r="C68" t="s">
-        <v>828</v>
+        <v>826</v>
       </c>
       <c r="D68" t="s">
-        <v>860</v>
+        <v>858</v>
       </c>
       <c r="E68" t="s">
-        <v>861</v>
+        <v>859</v>
       </c>
     </row>
     <row r="69" spans="1:5">
@@ -13529,16 +13523,16 @@
         <v>68</v>
       </c>
       <c r="B69" s="3" t="s">
-        <v>1253</v>
+        <v>1251</v>
       </c>
       <c r="C69" t="s">
-        <v>828</v>
+        <v>826</v>
       </c>
       <c r="D69" t="s">
-        <v>862</v>
+        <v>860</v>
       </c>
       <c r="E69" t="s">
-        <v>863</v>
+        <v>861</v>
       </c>
     </row>
     <row r="70" spans="1:5">
@@ -13546,16 +13540,16 @@
         <v>69</v>
       </c>
       <c r="B70" s="3" t="s">
-        <v>1254</v>
+        <v>1252</v>
       </c>
       <c r="C70" t="s">
-        <v>828</v>
+        <v>826</v>
       </c>
       <c r="D70" t="s">
-        <v>864</v>
+        <v>862</v>
       </c>
       <c r="E70" t="s">
-        <v>865</v>
+        <v>863</v>
       </c>
     </row>
     <row r="71" spans="1:5">
@@ -13563,16 +13557,16 @@
         <v>70</v>
       </c>
       <c r="B71" s="3" t="s">
-        <v>1255</v>
+        <v>1253</v>
       </c>
       <c r="C71" t="s">
-        <v>828</v>
+        <v>826</v>
       </c>
       <c r="D71" t="s">
-        <v>866</v>
+        <v>864</v>
       </c>
       <c r="E71" t="s">
-        <v>867</v>
+        <v>865</v>
       </c>
     </row>
     <row r="72" spans="1:5">
@@ -13580,16 +13574,16 @@
         <v>71</v>
       </c>
       <c r="B72" s="3" t="s">
-        <v>1256</v>
+        <v>1254</v>
       </c>
       <c r="C72" t="s">
-        <v>828</v>
+        <v>826</v>
       </c>
       <c r="D72" t="s">
-        <v>868</v>
+        <v>866</v>
       </c>
       <c r="E72" t="s">
-        <v>869</v>
+        <v>867</v>
       </c>
     </row>
     <row r="73" spans="1:5">
@@ -13597,16 +13591,16 @@
         <v>72</v>
       </c>
       <c r="B73" s="3" t="s">
-        <v>1257</v>
+        <v>1255</v>
       </c>
       <c r="C73" t="s">
-        <v>828</v>
+        <v>826</v>
       </c>
       <c r="D73" t="s">
-        <v>870</v>
+        <v>868</v>
       </c>
       <c r="E73" t="s">
-        <v>871</v>
+        <v>869</v>
       </c>
     </row>
     <row r="74" spans="1:5">
@@ -13614,16 +13608,16 @@
         <v>73</v>
       </c>
       <c r="B74" s="3" t="s">
-        <v>1258</v>
+        <v>1256</v>
       </c>
       <c r="C74" t="s">
-        <v>828</v>
+        <v>826</v>
       </c>
       <c r="D74" t="s">
-        <v>872</v>
+        <v>870</v>
       </c>
       <c r="E74" t="s">
-        <v>873</v>
+        <v>871</v>
       </c>
     </row>
     <row r="75" spans="1:5">
@@ -13631,16 +13625,16 @@
         <v>74</v>
       </c>
       <c r="B75" s="3" t="s">
-        <v>1259</v>
+        <v>1257</v>
       </c>
       <c r="C75" t="s">
-        <v>828</v>
+        <v>826</v>
       </c>
       <c r="D75" t="s">
-        <v>874</v>
+        <v>872</v>
       </c>
       <c r="E75" t="s">
-        <v>875</v>
+        <v>873</v>
       </c>
     </row>
     <row r="76" spans="1:5">
@@ -13648,16 +13642,16 @@
         <v>75</v>
       </c>
       <c r="B76" s="3" t="s">
-        <v>1260</v>
+        <v>1258</v>
       </c>
       <c r="C76" t="s">
-        <v>828</v>
+        <v>826</v>
       </c>
       <c r="D76" t="s">
-        <v>876</v>
+        <v>874</v>
       </c>
       <c r="E76" t="s">
-        <v>877</v>
+        <v>875</v>
       </c>
     </row>
     <row r="77" spans="1:5">
@@ -13665,16 +13659,16 @@
         <v>76</v>
       </c>
       <c r="B77" s="3" t="s">
-        <v>1261</v>
+        <v>1259</v>
       </c>
       <c r="C77" t="s">
-        <v>828</v>
+        <v>826</v>
       </c>
       <c r="D77" t="s">
-        <v>878</v>
+        <v>876</v>
       </c>
       <c r="E77" t="s">
-        <v>879</v>
+        <v>877</v>
       </c>
     </row>
     <row r="78" spans="1:5">
@@ -13682,16 +13676,16 @@
         <v>77</v>
       </c>
       <c r="B78" s="3" t="s">
-        <v>1262</v>
+        <v>1260</v>
       </c>
       <c r="C78" t="s">
-        <v>828</v>
+        <v>826</v>
       </c>
       <c r="D78" t="s">
-        <v>880</v>
+        <v>878</v>
       </c>
       <c r="E78" t="s">
-        <v>881</v>
+        <v>879</v>
       </c>
     </row>
     <row r="79" spans="1:5">
@@ -13699,16 +13693,16 @@
         <v>78</v>
       </c>
       <c r="B79" s="3" t="s">
-        <v>1263</v>
+        <v>1261</v>
       </c>
       <c r="C79" t="s">
-        <v>828</v>
+        <v>826</v>
       </c>
       <c r="D79" t="s">
-        <v>882</v>
+        <v>880</v>
       </c>
       <c r="E79" t="s">
-        <v>883</v>
+        <v>881</v>
       </c>
     </row>
     <row r="80" spans="1:5">
@@ -13716,16 +13710,16 @@
         <v>79</v>
       </c>
       <c r="B80" s="3" t="s">
-        <v>1264</v>
+        <v>1262</v>
       </c>
       <c r="C80" t="s">
-        <v>828</v>
+        <v>826</v>
       </c>
       <c r="D80" t="s">
-        <v>884</v>
+        <v>882</v>
       </c>
       <c r="E80" t="s">
-        <v>885</v>
+        <v>883</v>
       </c>
     </row>
     <row r="81" spans="1:5">
@@ -13733,16 +13727,16 @@
         <v>80</v>
       </c>
       <c r="B81" s="3" t="s">
-        <v>1265</v>
+        <v>1263</v>
       </c>
       <c r="C81" t="s">
-        <v>886</v>
+        <v>884</v>
       </c>
       <c r="D81" t="s">
-        <v>784</v>
+        <v>782</v>
       </c>
       <c r="E81" t="s">
-        <v>887</v>
+        <v>885</v>
       </c>
     </row>
     <row r="82" spans="1:5">
@@ -13750,16 +13744,16 @@
         <v>81</v>
       </c>
       <c r="B82" s="3" t="s">
-        <v>1266</v>
+        <v>1264</v>
       </c>
       <c r="C82" t="s">
+        <v>884</v>
+      </c>
+      <c r="D82" t="s">
+        <v>828</v>
+      </c>
+      <c r="E82" t="s">
         <v>886</v>
-      </c>
-      <c r="D82" t="s">
-        <v>830</v>
-      </c>
-      <c r="E82" t="s">
-        <v>888</v>
       </c>
     </row>
     <row r="83" spans="1:5">
@@ -13767,16 +13761,16 @@
         <v>82</v>
       </c>
       <c r="B83" s="3" t="s">
-        <v>1267</v>
+        <v>1265</v>
       </c>
       <c r="C83" t="s">
-        <v>886</v>
+        <v>884</v>
       </c>
       <c r="D83" t="s">
-        <v>832</v>
+        <v>830</v>
       </c>
       <c r="E83" t="s">
-        <v>889</v>
+        <v>887</v>
       </c>
     </row>
     <row r="84" spans="1:5">
@@ -13784,16 +13778,16 @@
         <v>83</v>
       </c>
       <c r="B84" s="3" t="s">
-        <v>1268</v>
+        <v>1266</v>
       </c>
       <c r="C84" t="s">
-        <v>886</v>
+        <v>884</v>
       </c>
       <c r="D84" t="s">
-        <v>890</v>
+        <v>888</v>
       </c>
       <c r="E84" t="s">
-        <v>891</v>
+        <v>889</v>
       </c>
     </row>
     <row r="85" spans="1:5">
@@ -13801,16 +13795,16 @@
         <v>84</v>
       </c>
       <c r="B85" s="3" t="s">
-        <v>1269</v>
+        <v>1267</v>
       </c>
       <c r="C85" t="s">
-        <v>886</v>
+        <v>884</v>
       </c>
       <c r="D85" t="s">
-        <v>892</v>
+        <v>890</v>
       </c>
       <c r="E85" t="s">
-        <v>893</v>
+        <v>891</v>
       </c>
     </row>
     <row r="86" spans="1:5">
@@ -13818,16 +13812,16 @@
         <v>85</v>
       </c>
       <c r="B86" s="3" t="s">
-        <v>1270</v>
+        <v>1268</v>
       </c>
       <c r="C86" t="s">
-        <v>886</v>
+        <v>884</v>
       </c>
       <c r="D86" t="s">
-        <v>792</v>
+        <v>790</v>
       </c>
       <c r="E86" t="s">
-        <v>894</v>
+        <v>892</v>
       </c>
     </row>
     <row r="87" spans="1:5">
@@ -13835,16 +13829,16 @@
         <v>86</v>
       </c>
       <c r="B87" s="3" t="s">
-        <v>1271</v>
+        <v>1269</v>
       </c>
       <c r="C87" t="s">
-        <v>886</v>
+        <v>884</v>
       </c>
       <c r="D87" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
       <c r="E87" t="s">
-        <v>895</v>
+        <v>893</v>
       </c>
     </row>
     <row r="88" spans="1:5">
@@ -13852,16 +13846,16 @@
         <v>87</v>
       </c>
       <c r="B88" s="3" t="s">
-        <v>1272</v>
+        <v>1270</v>
       </c>
       <c r="C88" t="s">
-        <v>886</v>
+        <v>884</v>
       </c>
       <c r="D88" t="s">
-        <v>796</v>
+        <v>794</v>
       </c>
       <c r="E88" t="s">
-        <v>843</v>
+        <v>841</v>
       </c>
     </row>
     <row r="89" spans="1:5">
@@ -13869,16 +13863,16 @@
         <v>88</v>
       </c>
       <c r="B89" s="3" t="s">
-        <v>1273</v>
+        <v>1271</v>
       </c>
       <c r="C89" t="s">
-        <v>886</v>
+        <v>884</v>
       </c>
       <c r="D89" t="s">
-        <v>896</v>
+        <v>894</v>
       </c>
       <c r="E89" t="s">
-        <v>897</v>
+        <v>895</v>
       </c>
     </row>
     <row r="90" spans="1:5">
@@ -13886,16 +13880,16 @@
         <v>89</v>
       </c>
       <c r="B90" s="3" t="s">
-        <v>1274</v>
+        <v>1272</v>
       </c>
       <c r="C90" t="s">
-        <v>886</v>
+        <v>884</v>
       </c>
       <c r="D90" t="s">
-        <v>898</v>
+        <v>896</v>
       </c>
       <c r="E90" t="s">
-        <v>899</v>
+        <v>897</v>
       </c>
     </row>
     <row r="91" spans="1:5">
@@ -13903,16 +13897,16 @@
         <v>90</v>
       </c>
       <c r="B91" s="3" t="s">
-        <v>1275</v>
+        <v>1273</v>
       </c>
       <c r="C91" t="s">
-        <v>886</v>
+        <v>884</v>
       </c>
       <c r="D91" t="s">
-        <v>900</v>
+        <v>898</v>
       </c>
       <c r="E91" t="s">
-        <v>901</v>
+        <v>899</v>
       </c>
     </row>
     <row r="92" spans="1:5">
@@ -13920,16 +13914,16 @@
         <v>91</v>
       </c>
       <c r="B92" s="3" t="s">
-        <v>1276</v>
+        <v>1274</v>
       </c>
       <c r="C92" t="s">
-        <v>886</v>
+        <v>884</v>
       </c>
       <c r="D92" t="s">
-        <v>902</v>
+        <v>900</v>
       </c>
       <c r="E92" t="s">
-        <v>903</v>
+        <v>901</v>
       </c>
     </row>
     <row r="93" spans="1:5">
@@ -13937,16 +13931,16 @@
         <v>92</v>
       </c>
       <c r="B93" s="3" t="s">
-        <v>1277</v>
+        <v>1275</v>
       </c>
       <c r="C93" t="s">
-        <v>886</v>
+        <v>884</v>
       </c>
       <c r="D93" t="s">
-        <v>904</v>
+        <v>902</v>
       </c>
       <c r="E93" t="s">
-        <v>905</v>
+        <v>903</v>
       </c>
     </row>
     <row r="94" spans="1:5">
@@ -13954,16 +13948,16 @@
         <v>93</v>
       </c>
       <c r="B94" s="3" t="s">
-        <v>1278</v>
+        <v>1276</v>
       </c>
       <c r="C94" t="s">
-        <v>886</v>
+        <v>884</v>
       </c>
       <c r="D94" t="s">
-        <v>906</v>
+        <v>904</v>
       </c>
       <c r="E94" t="s">
-        <v>907</v>
+        <v>905</v>
       </c>
     </row>
     <row r="95" spans="1:5">
@@ -13971,16 +13965,16 @@
         <v>94</v>
       </c>
       <c r="B95" s="3" t="s">
-        <v>1279</v>
+        <v>1277</v>
       </c>
       <c r="C95" t="s">
-        <v>886</v>
+        <v>884</v>
       </c>
       <c r="D95" t="s">
-        <v>908</v>
+        <v>906</v>
       </c>
       <c r="E95" t="s">
-        <v>909</v>
+        <v>907</v>
       </c>
     </row>
     <row r="96" spans="1:5">
@@ -13988,16 +13982,16 @@
         <v>95</v>
       </c>
       <c r="B96" s="3" t="s">
-        <v>1280</v>
+        <v>1278</v>
       </c>
       <c r="C96" t="s">
-        <v>886</v>
+        <v>884</v>
       </c>
       <c r="D96" t="s">
-        <v>910</v>
+        <v>908</v>
       </c>
       <c r="E96" t="s">
-        <v>911</v>
+        <v>909</v>
       </c>
     </row>
     <row r="97" spans="1:5">
@@ -14005,16 +13999,16 @@
         <v>96</v>
       </c>
       <c r="B97" s="3" t="s">
-        <v>1281</v>
+        <v>1279</v>
       </c>
       <c r="C97" t="s">
-        <v>886</v>
+        <v>884</v>
       </c>
       <c r="D97" t="s">
-        <v>912</v>
+        <v>910</v>
       </c>
       <c r="E97" t="s">
-        <v>913</v>
+        <v>911</v>
       </c>
     </row>
     <row r="98" spans="1:5">
@@ -14022,16 +14016,16 @@
         <v>97</v>
       </c>
       <c r="B98" s="3" t="s">
-        <v>1282</v>
+        <v>1280</v>
       </c>
       <c r="C98" t="s">
-        <v>886</v>
+        <v>884</v>
       </c>
       <c r="D98" t="s">
-        <v>914</v>
+        <v>912</v>
       </c>
       <c r="E98" t="s">
-        <v>915</v>
+        <v>913</v>
       </c>
     </row>
     <row r="99" spans="1:5">
@@ -14039,16 +14033,16 @@
         <v>98</v>
       </c>
       <c r="B99" s="3" t="s">
-        <v>1283</v>
+        <v>1281</v>
       </c>
       <c r="C99" t="s">
-        <v>886</v>
+        <v>884</v>
       </c>
       <c r="D99" t="s">
-        <v>916</v>
+        <v>914</v>
       </c>
       <c r="E99" t="s">
-        <v>917</v>
+        <v>915</v>
       </c>
     </row>
     <row r="100" spans="1:5">
@@ -14056,16 +14050,16 @@
         <v>99</v>
       </c>
       <c r="B100" s="3" t="s">
-        <v>1284</v>
+        <v>1282</v>
       </c>
       <c r="C100" t="s">
-        <v>886</v>
+        <v>884</v>
       </c>
       <c r="D100" t="s">
-        <v>918</v>
+        <v>916</v>
       </c>
       <c r="E100" t="s">
-        <v>919</v>
+        <v>917</v>
       </c>
     </row>
     <row r="101" spans="1:5">
@@ -14073,16 +14067,16 @@
         <v>100</v>
       </c>
       <c r="B101" s="3" t="s">
-        <v>1285</v>
+        <v>1283</v>
       </c>
       <c r="C101" t="s">
-        <v>886</v>
+        <v>884</v>
       </c>
       <c r="D101" t="s">
-        <v>920</v>
+        <v>918</v>
       </c>
       <c r="E101" t="s">
-        <v>921</v>
+        <v>919</v>
       </c>
     </row>
     <row r="102" spans="1:5">
@@ -14090,16 +14084,16 @@
         <v>101</v>
       </c>
       <c r="B102" s="3" t="s">
-        <v>1286</v>
+        <v>1284</v>
       </c>
       <c r="C102" t="s">
-        <v>886</v>
+        <v>884</v>
       </c>
       <c r="D102" t="s">
-        <v>922</v>
+        <v>920</v>
       </c>
       <c r="E102" t="s">
-        <v>923</v>
+        <v>921</v>
       </c>
     </row>
     <row r="103" spans="1:5">
@@ -14107,16 +14101,16 @@
         <v>102</v>
       </c>
       <c r="B103" s="3" t="s">
-        <v>1287</v>
+        <v>1285</v>
       </c>
       <c r="C103" t="s">
-        <v>886</v>
+        <v>884</v>
       </c>
       <c r="D103" t="s">
-        <v>924</v>
+        <v>922</v>
       </c>
       <c r="E103" t="s">
-        <v>925</v>
+        <v>923</v>
       </c>
     </row>
     <row r="104" spans="1:5">
@@ -14124,16 +14118,16 @@
         <v>103</v>
       </c>
       <c r="B104" s="3" t="s">
-        <v>1288</v>
+        <v>1286</v>
       </c>
       <c r="C104" t="s">
-        <v>886</v>
+        <v>884</v>
       </c>
       <c r="D104" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="E104" t="s">
-        <v>927</v>
+        <v>925</v>
       </c>
     </row>
     <row r="105" spans="1:5">
@@ -14141,16 +14135,16 @@
         <v>104</v>
       </c>
       <c r="B105" s="3" t="s">
-        <v>1289</v>
+        <v>1287</v>
       </c>
       <c r="C105" t="s">
-        <v>886</v>
+        <v>884</v>
       </c>
       <c r="D105" t="s">
-        <v>928</v>
+        <v>926</v>
       </c>
       <c r="E105" t="s">
-        <v>929</v>
+        <v>927</v>
       </c>
     </row>
     <row r="106" spans="1:5">
@@ -14158,16 +14152,16 @@
         <v>105</v>
       </c>
       <c r="B106" s="3" t="s">
-        <v>1290</v>
+        <v>1288</v>
       </c>
       <c r="C106" t="s">
-        <v>886</v>
+        <v>884</v>
       </c>
       <c r="D106" t="s">
-        <v>930</v>
+        <v>928</v>
       </c>
       <c r="E106" t="s">
-        <v>931</v>
+        <v>929</v>
       </c>
     </row>
     <row r="107" spans="1:5">
@@ -14175,16 +14169,16 @@
         <v>106</v>
       </c>
       <c r="B107" s="3" t="s">
-        <v>1291</v>
+        <v>1289</v>
       </c>
       <c r="C107" t="s">
-        <v>886</v>
+        <v>884</v>
       </c>
       <c r="D107" t="s">
-        <v>932</v>
+        <v>930</v>
       </c>
       <c r="E107" t="s">
-        <v>933</v>
+        <v>931</v>
       </c>
     </row>
     <row r="108" spans="1:5">
@@ -14192,16 +14186,16 @@
         <v>107</v>
       </c>
       <c r="B108" s="3" t="s">
-        <v>1292</v>
+        <v>1290</v>
       </c>
       <c r="C108" t="s">
-        <v>886</v>
+        <v>884</v>
       </c>
       <c r="D108" t="s">
-        <v>934</v>
+        <v>932</v>
       </c>
       <c r="E108" t="s">
-        <v>935</v>
+        <v>933</v>
       </c>
     </row>
     <row r="109" spans="1:5">
@@ -14209,16 +14203,16 @@
         <v>108</v>
       </c>
       <c r="B109" s="3" t="s">
-        <v>1293</v>
+        <v>1291</v>
       </c>
       <c r="C109" t="s">
-        <v>886</v>
+        <v>884</v>
       </c>
       <c r="D109" t="s">
-        <v>936</v>
+        <v>934</v>
       </c>
       <c r="E109" t="s">
-        <v>937</v>
+        <v>935</v>
       </c>
     </row>
     <row r="110" spans="1:5">
@@ -14226,16 +14220,16 @@
         <v>109</v>
       </c>
       <c r="B110" s="3" t="s">
-        <v>1294</v>
+        <v>1292</v>
       </c>
       <c r="C110" t="s">
-        <v>886</v>
+        <v>884</v>
       </c>
       <c r="D110" t="s">
-        <v>938</v>
+        <v>936</v>
       </c>
       <c r="E110" t="s">
-        <v>939</v>
+        <v>937</v>
       </c>
     </row>
     <row r="111" spans="1:5">
@@ -14243,16 +14237,16 @@
         <v>110</v>
       </c>
       <c r="B111" s="3" t="s">
-        <v>1295</v>
+        <v>1293</v>
       </c>
       <c r="C111" t="s">
-        <v>886</v>
+        <v>884</v>
       </c>
       <c r="D111" t="s">
-        <v>940</v>
+        <v>938</v>
       </c>
       <c r="E111" t="s">
-        <v>941</v>
+        <v>939</v>
       </c>
     </row>
     <row r="112" spans="1:5">
@@ -14260,16 +14254,16 @@
         <v>111</v>
       </c>
       <c r="B112" s="3" t="s">
-        <v>1296</v>
+        <v>1294</v>
       </c>
       <c r="C112" t="s">
-        <v>886</v>
+        <v>884</v>
       </c>
       <c r="D112" t="s">
-        <v>942</v>
+        <v>940</v>
       </c>
       <c r="E112" t="s">
-        <v>943</v>
+        <v>941</v>
       </c>
     </row>
     <row r="113" spans="1:5">
@@ -14277,16 +14271,16 @@
         <v>112</v>
       </c>
       <c r="B113" s="3" t="s">
-        <v>1297</v>
+        <v>1295</v>
       </c>
       <c r="C113" t="s">
-        <v>886</v>
+        <v>884</v>
       </c>
       <c r="D113" t="s">
-        <v>944</v>
+        <v>942</v>
       </c>
       <c r="E113" t="s">
-        <v>945</v>
+        <v>943</v>
       </c>
     </row>
     <row r="114" spans="1:5">
@@ -14294,16 +14288,16 @@
         <v>113</v>
       </c>
       <c r="B114" s="3" t="s">
-        <v>1298</v>
+        <v>1296</v>
       </c>
       <c r="C114" t="s">
-        <v>886</v>
+        <v>884</v>
       </c>
       <c r="D114" t="s">
-        <v>946</v>
+        <v>944</v>
       </c>
       <c r="E114" t="s">
-        <v>947</v>
+        <v>945</v>
       </c>
     </row>
     <row r="115" spans="1:5">
@@ -14311,16 +14305,16 @@
         <v>114</v>
       </c>
       <c r="B115" s="3" t="s">
-        <v>1299</v>
+        <v>1297</v>
       </c>
       <c r="C115" t="s">
-        <v>886</v>
+        <v>884</v>
       </c>
       <c r="D115" t="s">
-        <v>948</v>
+        <v>946</v>
       </c>
       <c r="E115" t="s">
-        <v>949</v>
+        <v>947</v>
       </c>
     </row>
     <row r="116" spans="1:5">
@@ -14328,16 +14322,16 @@
         <v>115</v>
       </c>
       <c r="B116" s="3" t="s">
-        <v>1300</v>
+        <v>1298</v>
       </c>
       <c r="C116" t="s">
-        <v>886</v>
+        <v>884</v>
       </c>
       <c r="D116" t="s">
-        <v>950</v>
+        <v>948</v>
       </c>
       <c r="E116" t="s">
-        <v>951</v>
+        <v>949</v>
       </c>
     </row>
     <row r="117" spans="1:5">
@@ -14345,16 +14339,16 @@
         <v>116</v>
       </c>
       <c r="B117" s="3" t="s">
-        <v>1301</v>
+        <v>1299</v>
       </c>
       <c r="C117" t="s">
-        <v>886</v>
+        <v>884</v>
       </c>
       <c r="D117" t="s">
-        <v>952</v>
+        <v>950</v>
       </c>
       <c r="E117" t="s">
-        <v>953</v>
+        <v>951</v>
       </c>
     </row>
     <row r="118" spans="1:5">
@@ -14362,16 +14356,16 @@
         <v>117</v>
       </c>
       <c r="B118" s="3" t="s">
-        <v>1302</v>
+        <v>1300</v>
       </c>
       <c r="C118" t="s">
-        <v>886</v>
+        <v>884</v>
       </c>
       <c r="D118" t="s">
-        <v>954</v>
+        <v>952</v>
       </c>
       <c r="E118" t="s">
-        <v>955</v>
+        <v>953</v>
       </c>
     </row>
     <row r="119" spans="1:5">
@@ -14379,16 +14373,16 @@
         <v>118</v>
       </c>
       <c r="B119" s="3" t="s">
-        <v>1303</v>
+        <v>1301</v>
       </c>
       <c r="C119" t="s">
-        <v>886</v>
+        <v>884</v>
       </c>
       <c r="D119" t="s">
-        <v>956</v>
+        <v>954</v>
       </c>
       <c r="E119" t="s">
-        <v>957</v>
+        <v>955</v>
       </c>
     </row>
     <row r="120" spans="1:5">
@@ -14396,16 +14390,16 @@
         <v>119</v>
       </c>
       <c r="B120" s="3" t="s">
-        <v>1304</v>
+        <v>1302</v>
       </c>
       <c r="C120" t="s">
-        <v>886</v>
+        <v>884</v>
       </c>
       <c r="D120" t="s">
-        <v>958</v>
+        <v>956</v>
       </c>
       <c r="E120" t="s">
-        <v>959</v>
+        <v>957</v>
       </c>
     </row>
     <row r="121" spans="1:5">
@@ -14413,16 +14407,16 @@
         <v>120</v>
       </c>
       <c r="B121" s="3" t="s">
-        <v>1305</v>
+        <v>1303</v>
       </c>
       <c r="C121" t="s">
-        <v>886</v>
+        <v>884</v>
       </c>
       <c r="D121" t="s">
-        <v>960</v>
+        <v>958</v>
       </c>
       <c r="E121" t="s">
-        <v>961</v>
+        <v>959</v>
       </c>
     </row>
     <row r="122" spans="1:5">
@@ -14430,16 +14424,16 @@
         <v>121</v>
       </c>
       <c r="B122" s="3" t="s">
-        <v>1306</v>
+        <v>1304</v>
       </c>
       <c r="C122" t="s">
-        <v>962</v>
+        <v>960</v>
       </c>
       <c r="D122" t="s">
-        <v>963</v>
+        <v>961</v>
       </c>
       <c r="E122" t="s">
-        <v>887</v>
+        <v>885</v>
       </c>
     </row>
     <row r="123" spans="1:5">
@@ -14447,16 +14441,16 @@
         <v>122</v>
       </c>
       <c r="B123" s="3" t="s">
-        <v>1307</v>
+        <v>1305</v>
       </c>
       <c r="C123" t="s">
+        <v>960</v>
+      </c>
+      <c r="D123" t="s">
         <v>962</v>
       </c>
-      <c r="D123" t="s">
-        <v>964</v>
-      </c>
       <c r="E123" t="s">
-        <v>965</v>
+        <v>963</v>
       </c>
     </row>
     <row r="124" spans="1:5">
@@ -14464,16 +14458,16 @@
         <v>123</v>
       </c>
       <c r="B124" s="3" t="s">
-        <v>1308</v>
+        <v>1306</v>
       </c>
       <c r="C124" t="s">
-        <v>962</v>
+        <v>960</v>
       </c>
       <c r="D124" t="s">
-        <v>832</v>
+        <v>830</v>
       </c>
       <c r="E124" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
     </row>
     <row r="125" spans="1:5">
@@ -14481,16 +14475,16 @@
         <v>124</v>
       </c>
       <c r="B125" s="3" t="s">
-        <v>1309</v>
+        <v>1307</v>
       </c>
       <c r="C125" t="s">
-        <v>962</v>
+        <v>960</v>
       </c>
       <c r="D125" t="s">
-        <v>892</v>
+        <v>890</v>
       </c>
       <c r="E125" t="s">
-        <v>837</v>
+        <v>835</v>
       </c>
     </row>
     <row r="126" spans="1:5">
@@ -14498,16 +14492,16 @@
         <v>125</v>
       </c>
       <c r="B126" s="3" t="s">
-        <v>1310</v>
+        <v>1308</v>
       </c>
       <c r="C126" t="s">
-        <v>962</v>
+        <v>960</v>
       </c>
       <c r="D126" t="s">
-        <v>838</v>
+        <v>836</v>
       </c>
       <c r="E126" t="s">
-        <v>966</v>
+        <v>964</v>
       </c>
     </row>
     <row r="127" spans="1:5">
@@ -14515,16 +14509,16 @@
         <v>126</v>
       </c>
       <c r="B127" s="3" t="s">
-        <v>1311</v>
+        <v>1309</v>
       </c>
       <c r="C127" t="s">
-        <v>962</v>
+        <v>960</v>
       </c>
       <c r="D127" t="s">
-        <v>967</v>
+        <v>965</v>
       </c>
       <c r="E127" t="s">
-        <v>968</v>
+        <v>966</v>
       </c>
     </row>
     <row r="128" spans="1:5">
@@ -14532,16 +14526,16 @@
         <v>127</v>
       </c>
       <c r="B128" s="3" t="s">
-        <v>1312</v>
+        <v>1310</v>
       </c>
       <c r="C128" t="s">
-        <v>962</v>
+        <v>960</v>
       </c>
       <c r="D128" t="s">
-        <v>830</v>
+        <v>828</v>
       </c>
       <c r="E128" t="s">
-        <v>969</v>
+        <v>967</v>
       </c>
     </row>
     <row r="129" spans="1:5">
@@ -14549,16 +14543,16 @@
         <v>128</v>
       </c>
       <c r="B129" s="3" t="s">
-        <v>1313</v>
+        <v>1311</v>
       </c>
       <c r="C129" t="s">
-        <v>962</v>
+        <v>960</v>
       </c>
       <c r="D129" t="s">
-        <v>970</v>
+        <v>968</v>
       </c>
       <c r="E129" t="s">
-        <v>971</v>
+        <v>969</v>
       </c>
     </row>
     <row r="130" spans="1:5">
@@ -14566,16 +14560,16 @@
         <v>129</v>
       </c>
       <c r="B130" s="3" t="s">
-        <v>1314</v>
+        <v>1312</v>
       </c>
       <c r="C130" t="s">
-        <v>962</v>
+        <v>960</v>
       </c>
       <c r="D130" t="s">
-        <v>972</v>
+        <v>970</v>
       </c>
       <c r="E130" t="s">
-        <v>894</v>
+        <v>892</v>
       </c>
     </row>
     <row r="131" spans="1:5">
@@ -14583,16 +14577,16 @@
         <v>130</v>
       </c>
       <c r="B131" s="3" t="s">
-        <v>1315</v>
+        <v>1313</v>
       </c>
       <c r="C131" t="s">
-        <v>962</v>
+        <v>960</v>
       </c>
       <c r="D131" t="s">
-        <v>973</v>
+        <v>971</v>
       </c>
       <c r="E131" t="s">
-        <v>974</v>
+        <v>972</v>
       </c>
     </row>
     <row r="132" spans="1:5">
@@ -14600,16 +14594,16 @@
         <v>131</v>
       </c>
       <c r="B132" s="3" t="s">
-        <v>1316</v>
+        <v>1314</v>
       </c>
       <c r="C132" t="s">
-        <v>962</v>
+        <v>960</v>
       </c>
       <c r="D132" t="s">
-        <v>796</v>
+        <v>794</v>
       </c>
       <c r="E132" t="s">
-        <v>975</v>
+        <v>973</v>
       </c>
     </row>
     <row r="133" spans="1:5">
@@ -14617,16 +14611,16 @@
         <v>132</v>
       </c>
       <c r="B133" s="3" t="s">
-        <v>1317</v>
+        <v>1315</v>
       </c>
       <c r="C133" t="s">
-        <v>962</v>
+        <v>960</v>
       </c>
       <c r="D133" t="s">
-        <v>844</v>
+        <v>842</v>
       </c>
       <c r="E133" t="s">
-        <v>976</v>
+        <v>974</v>
       </c>
     </row>
     <row r="134" spans="1:5">
@@ -14634,16 +14628,16 @@
         <v>133</v>
       </c>
       <c r="B134" s="3" t="s">
-        <v>1318</v>
+        <v>1316</v>
       </c>
       <c r="C134" t="s">
-        <v>962</v>
+        <v>960</v>
       </c>
       <c r="D134" t="s">
-        <v>977</v>
+        <v>975</v>
       </c>
       <c r="E134" t="s">
-        <v>978</v>
+        <v>976</v>
       </c>
     </row>
     <row r="135" spans="1:5">
@@ -14651,16 +14645,16 @@
         <v>134</v>
       </c>
       <c r="B135" s="3" t="s">
-        <v>1319</v>
+        <v>1317</v>
       </c>
       <c r="C135" t="s">
-        <v>962</v>
+        <v>960</v>
       </c>
       <c r="D135" t="s">
-        <v>979</v>
+        <v>977</v>
       </c>
       <c r="E135" t="s">
-        <v>980</v>
+        <v>978</v>
       </c>
     </row>
     <row r="136" spans="1:5">
@@ -14668,16 +14662,16 @@
         <v>135</v>
       </c>
       <c r="B136" s="3" t="s">
-        <v>1320</v>
+        <v>1318</v>
       </c>
       <c r="C136" t="s">
-        <v>962</v>
+        <v>960</v>
       </c>
       <c r="D136" t="s">
-        <v>981</v>
+        <v>979</v>
       </c>
       <c r="E136" t="s">
-        <v>982</v>
+        <v>980</v>
       </c>
     </row>
     <row r="137" spans="1:5">
@@ -14685,16 +14679,16 @@
         <v>136</v>
       </c>
       <c r="B137" s="3" t="s">
-        <v>1320</v>
+        <v>1318</v>
       </c>
       <c r="C137" t="s">
-        <v>962</v>
+        <v>960</v>
       </c>
       <c r="D137" t="s">
-        <v>983</v>
+        <v>981</v>
       </c>
       <c r="E137" t="s">
-        <v>984</v>
+        <v>982</v>
       </c>
     </row>
     <row r="138" spans="1:5">
@@ -14702,16 +14696,16 @@
         <v>137</v>
       </c>
       <c r="B138" s="3" t="s">
-        <v>1321</v>
+        <v>1319</v>
       </c>
       <c r="C138" t="s">
-        <v>962</v>
+        <v>960</v>
       </c>
       <c r="D138" t="s">
-        <v>985</v>
+        <v>983</v>
       </c>
       <c r="E138" t="s">
-        <v>986</v>
+        <v>984</v>
       </c>
     </row>
     <row r="139" spans="1:5">
@@ -14719,16 +14713,16 @@
         <v>138</v>
       </c>
       <c r="B139" s="3" t="s">
-        <v>1322</v>
+        <v>1320</v>
       </c>
       <c r="C139" t="s">
-        <v>962</v>
+        <v>960</v>
       </c>
       <c r="D139" t="s">
-        <v>987</v>
+        <v>985</v>
       </c>
       <c r="E139" t="s">
-        <v>988</v>
+        <v>986</v>
       </c>
     </row>
     <row r="140" spans="1:5">
@@ -14736,16 +14730,16 @@
         <v>139</v>
       </c>
       <c r="B140" s="3" t="s">
-        <v>1323</v>
+        <v>1321</v>
       </c>
       <c r="C140" t="s">
-        <v>962</v>
+        <v>960</v>
       </c>
       <c r="D140" t="s">
-        <v>989</v>
+        <v>987</v>
       </c>
       <c r="E140" t="s">
-        <v>990</v>
+        <v>988</v>
       </c>
     </row>
     <row r="141" spans="1:5">
@@ -14753,16 +14747,16 @@
         <v>140</v>
       </c>
       <c r="B141" s="3" t="s">
-        <v>1324</v>
+        <v>1322</v>
       </c>
       <c r="C141" t="s">
-        <v>962</v>
+        <v>960</v>
       </c>
       <c r="D141" t="s">
-        <v>991</v>
+        <v>989</v>
       </c>
       <c r="E141" t="s">
-        <v>992</v>
+        <v>990</v>
       </c>
     </row>
     <row r="142" spans="1:5">
@@ -14770,16 +14764,16 @@
         <v>141</v>
       </c>
       <c r="B142" s="3" t="s">
-        <v>1325</v>
+        <v>1323</v>
       </c>
       <c r="C142" t="s">
-        <v>962</v>
+        <v>960</v>
       </c>
       <c r="D142" t="s">
-        <v>993</v>
+        <v>991</v>
       </c>
       <c r="E142" t="s">
-        <v>994</v>
+        <v>992</v>
       </c>
     </row>
     <row r="143" spans="1:5">
@@ -14787,16 +14781,16 @@
         <v>142</v>
       </c>
       <c r="B143" s="3" t="s">
-        <v>1326</v>
+        <v>1324</v>
       </c>
       <c r="C143" t="s">
-        <v>962</v>
+        <v>960</v>
       </c>
       <c r="D143" t="s">
-        <v>995</v>
+        <v>993</v>
       </c>
       <c r="E143" t="s">
-        <v>996</v>
+        <v>994</v>
       </c>
     </row>
     <row r="144" spans="1:5">
@@ -14804,16 +14798,16 @@
         <v>143</v>
       </c>
       <c r="B144" s="3" t="s">
-        <v>1327</v>
+        <v>1325</v>
       </c>
       <c r="C144" t="s">
-        <v>962</v>
+        <v>960</v>
       </c>
       <c r="D144" t="s">
-        <v>997</v>
+        <v>995</v>
       </c>
       <c r="E144" t="s">
-        <v>998</v>
+        <v>996</v>
       </c>
     </row>
     <row r="145" spans="1:5">
@@ -14821,16 +14815,16 @@
         <v>144</v>
       </c>
       <c r="B145" s="3" t="s">
-        <v>1328</v>
+        <v>1326</v>
       </c>
       <c r="C145" t="s">
-        <v>962</v>
+        <v>960</v>
       </c>
       <c r="D145" t="s">
-        <v>999</v>
+        <v>997</v>
       </c>
       <c r="E145" t="s">
-        <v>1000</v>
+        <v>998</v>
       </c>
     </row>
     <row r="146" spans="1:5">
@@ -14838,16 +14832,16 @@
         <v>145</v>
       </c>
       <c r="B146" s="3" t="s">
-        <v>1329</v>
+        <v>1327</v>
       </c>
       <c r="C146" t="s">
-        <v>962</v>
+        <v>960</v>
       </c>
       <c r="D146" t="s">
-        <v>1001</v>
+        <v>999</v>
       </c>
       <c r="E146" t="s">
-        <v>1002</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="147" spans="1:5">
@@ -14855,16 +14849,16 @@
         <v>146</v>
       </c>
       <c r="B147" s="3" t="s">
-        <v>1330</v>
+        <v>1328</v>
       </c>
       <c r="C147" t="s">
-        <v>962</v>
+        <v>960</v>
       </c>
       <c r="D147" t="s">
-        <v>1003</v>
+        <v>1001</v>
       </c>
       <c r="E147" t="s">
-        <v>1004</v>
+        <v>1002</v>
       </c>
     </row>
     <row r="148" spans="1:5">
@@ -14872,16 +14866,16 @@
         <v>147</v>
       </c>
       <c r="B148" s="3" t="s">
-        <v>1331</v>
+        <v>1329</v>
       </c>
       <c r="C148" t="s">
-        <v>962</v>
+        <v>960</v>
       </c>
       <c r="D148" t="s">
-        <v>1005</v>
+        <v>1003</v>
       </c>
       <c r="E148" t="s">
-        <v>1006</v>
+        <v>1004</v>
       </c>
     </row>
     <row r="149" spans="1:5">
@@ -14889,16 +14883,16 @@
         <v>148</v>
       </c>
       <c r="B149" s="3" t="s">
-        <v>1332</v>
+        <v>1330</v>
       </c>
       <c r="C149" t="s">
-        <v>962</v>
+        <v>960</v>
       </c>
       <c r="D149" t="s">
-        <v>1007</v>
+        <v>1005</v>
       </c>
       <c r="E149" t="s">
-        <v>1008</v>
+        <v>1006</v>
       </c>
     </row>
     <row r="150" spans="1:5">
@@ -14906,16 +14900,16 @@
         <v>149</v>
       </c>
       <c r="B150" s="3" t="s">
-        <v>1333</v>
+        <v>1331</v>
       </c>
       <c r="C150" t="s">
-        <v>962</v>
+        <v>960</v>
       </c>
       <c r="D150" t="s">
-        <v>1009</v>
+        <v>1007</v>
       </c>
       <c r="E150" t="s">
-        <v>1010</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="151" spans="1:5">
@@ -14923,16 +14917,16 @@
         <v>150</v>
       </c>
       <c r="B151" s="3" t="s">
-        <v>1334</v>
+        <v>1332</v>
       </c>
       <c r="C151" t="s">
-        <v>962</v>
+        <v>960</v>
       </c>
       <c r="D151" t="s">
-        <v>1011</v>
+        <v>1009</v>
       </c>
       <c r="E151" t="s">
-        <v>1012</v>
+        <v>1010</v>
       </c>
     </row>
     <row r="152" spans="1:5">
@@ -14940,16 +14934,16 @@
         <v>151</v>
       </c>
       <c r="B152" s="3" t="s">
-        <v>1335</v>
+        <v>1333</v>
       </c>
       <c r="C152" t="s">
-        <v>962</v>
+        <v>960</v>
       </c>
       <c r="D152" t="s">
-        <v>1013</v>
+        <v>1011</v>
       </c>
       <c r="E152" t="s">
-        <v>1014</v>
+        <v>1012</v>
       </c>
     </row>
     <row r="153" spans="1:5">
@@ -14957,16 +14951,16 @@
         <v>152</v>
       </c>
       <c r="B153" s="3" t="s">
-        <v>1336</v>
+        <v>1334</v>
       </c>
       <c r="C153" t="s">
-        <v>962</v>
+        <v>960</v>
       </c>
       <c r="D153" t="s">
-        <v>1015</v>
+        <v>1013</v>
       </c>
       <c r="E153" t="s">
-        <v>1016</v>
+        <v>1014</v>
       </c>
     </row>
     <row r="154" spans="1:5">
@@ -14974,16 +14968,16 @@
         <v>153</v>
       </c>
       <c r="B154" s="3" t="s">
-        <v>1337</v>
+        <v>1335</v>
       </c>
       <c r="C154" t="s">
-        <v>962</v>
+        <v>960</v>
       </c>
       <c r="D154" t="s">
-        <v>1017</v>
+        <v>1015</v>
       </c>
       <c r="E154" t="s">
-        <v>1018</v>
+        <v>1016</v>
       </c>
     </row>
     <row r="155" spans="1:5">
@@ -14991,16 +14985,16 @@
         <v>154</v>
       </c>
       <c r="B155" s="3" t="s">
-        <v>1338</v>
+        <v>1336</v>
       </c>
       <c r="C155" t="s">
-        <v>962</v>
+        <v>960</v>
       </c>
       <c r="D155" t="s">
-        <v>1019</v>
+        <v>1017</v>
       </c>
       <c r="E155" t="s">
-        <v>1020</v>
+        <v>1018</v>
       </c>
     </row>
     <row r="156" spans="1:5">
@@ -15008,16 +15002,16 @@
         <v>155</v>
       </c>
       <c r="B156" s="3" t="s">
-        <v>1339</v>
+        <v>1337</v>
       </c>
       <c r="C156" t="s">
-        <v>962</v>
+        <v>960</v>
       </c>
       <c r="D156" t="s">
-        <v>1021</v>
+        <v>1019</v>
       </c>
       <c r="E156" t="s">
-        <v>1022</v>
+        <v>1020</v>
       </c>
     </row>
     <row r="157" spans="1:5">
@@ -15025,16 +15019,16 @@
         <v>156</v>
       </c>
       <c r="B157" s="3" t="s">
-        <v>1340</v>
+        <v>1338</v>
       </c>
       <c r="C157" t="s">
-        <v>962</v>
+        <v>960</v>
       </c>
       <c r="D157" t="s">
-        <v>1023</v>
+        <v>1021</v>
       </c>
       <c r="E157" t="s">
-        <v>1024</v>
+        <v>1022</v>
       </c>
     </row>
     <row r="158" spans="1:5">
@@ -15042,16 +15036,16 @@
         <v>157</v>
       </c>
       <c r="B158" s="3" t="s">
-        <v>1341</v>
+        <v>1339</v>
       </c>
       <c r="C158" t="s">
-        <v>962</v>
+        <v>960</v>
       </c>
       <c r="D158" t="s">
-        <v>1025</v>
+        <v>1023</v>
       </c>
       <c r="E158" t="s">
-        <v>1026</v>
+        <v>1024</v>
       </c>
     </row>
     <row r="159" spans="1:5">
@@ -15059,16 +15053,16 @@
         <v>158</v>
       </c>
       <c r="B159" s="3" t="s">
-        <v>1342</v>
+        <v>1340</v>
       </c>
       <c r="C159" t="s">
-        <v>962</v>
+        <v>960</v>
       </c>
       <c r="D159" t="s">
-        <v>1027</v>
+        <v>1025</v>
       </c>
       <c r="E159" t="s">
-        <v>1028</v>
+        <v>1026</v>
       </c>
     </row>
     <row r="160" spans="1:5">
@@ -15076,16 +15070,16 @@
         <v>159</v>
       </c>
       <c r="B160" s="3" t="s">
-        <v>1343</v>
+        <v>1341</v>
       </c>
       <c r="C160" t="s">
-        <v>962</v>
+        <v>960</v>
       </c>
       <c r="D160" t="s">
-        <v>1029</v>
+        <v>1027</v>
       </c>
       <c r="E160" t="s">
-        <v>1030</v>
+        <v>1028</v>
       </c>
     </row>
     <row r="161" spans="1:5">
@@ -15093,16 +15087,16 @@
         <v>160</v>
       </c>
       <c r="B161" s="3" t="s">
-        <v>1344</v>
+        <v>1342</v>
       </c>
       <c r="C161" t="s">
-        <v>962</v>
+        <v>960</v>
       </c>
       <c r="D161" t="s">
-        <v>1031</v>
+        <v>1029</v>
       </c>
       <c r="E161" t="s">
-        <v>1032</v>
+        <v>1030</v>
       </c>
     </row>
     <row r="162" spans="1:5">
@@ -15110,16 +15104,16 @@
         <v>161</v>
       </c>
       <c r="B162" s="3" t="s">
-        <v>1345</v>
+        <v>1343</v>
       </c>
       <c r="C162" t="s">
-        <v>962</v>
+        <v>960</v>
       </c>
       <c r="D162" t="s">
-        <v>1033</v>
+        <v>1031</v>
       </c>
       <c r="E162" t="s">
-        <v>1034</v>
+        <v>1032</v>
       </c>
     </row>
     <row r="163" spans="1:5">
@@ -15127,16 +15121,16 @@
         <v>162</v>
       </c>
       <c r="B163" s="3" t="s">
-        <v>1346</v>
+        <v>1344</v>
       </c>
       <c r="C163" t="s">
-        <v>962</v>
+        <v>960</v>
       </c>
       <c r="D163" t="s">
-        <v>1035</v>
+        <v>1033</v>
       </c>
       <c r="E163" t="s">
-        <v>1036</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="164" spans="1:5">
@@ -15144,16 +15138,16 @@
         <v>163</v>
       </c>
       <c r="B164" s="3" t="s">
-        <v>1347</v>
+        <v>1345</v>
       </c>
       <c r="C164" t="s">
-        <v>962</v>
+        <v>960</v>
       </c>
       <c r="D164" t="s">
-        <v>1037</v>
+        <v>1035</v>
       </c>
       <c r="E164" t="s">
-        <v>1038</v>
+        <v>1036</v>
       </c>
     </row>
     <row r="165" spans="1:5">
@@ -15161,16 +15155,16 @@
         <v>164</v>
       </c>
       <c r="B165" s="3" t="s">
-        <v>1348</v>
+        <v>1346</v>
       </c>
       <c r="C165" t="s">
-        <v>962</v>
+        <v>960</v>
       </c>
       <c r="D165" t="s">
-        <v>1039</v>
+        <v>1037</v>
       </c>
       <c r="E165" t="s">
-        <v>1040</v>
+        <v>1038</v>
       </c>
     </row>
     <row r="166" spans="1:5">
@@ -15178,16 +15172,16 @@
         <v>165</v>
       </c>
       <c r="B166" s="3" t="s">
-        <v>1349</v>
+        <v>1347</v>
       </c>
       <c r="C166" t="s">
-        <v>962</v>
+        <v>960</v>
       </c>
       <c r="D166" t="s">
-        <v>1041</v>
+        <v>1039</v>
       </c>
       <c r="E166" t="s">
-        <v>1042</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="167" spans="1:5">
@@ -15195,16 +15189,16 @@
         <v>166</v>
       </c>
       <c r="B167" s="3" t="s">
-        <v>1350</v>
+        <v>1348</v>
       </c>
       <c r="C167" t="s">
-        <v>962</v>
+        <v>960</v>
       </c>
       <c r="D167" t="s">
-        <v>1043</v>
+        <v>1041</v>
       </c>
       <c r="E167" t="s">
-        <v>1044</v>
+        <v>1042</v>
       </c>
     </row>
     <row r="168" spans="1:5">
@@ -15212,16 +15206,16 @@
         <v>167</v>
       </c>
       <c r="B168" s="3" t="s">
-        <v>1351</v>
+        <v>1349</v>
       </c>
       <c r="C168" t="s">
-        <v>962</v>
+        <v>960</v>
       </c>
       <c r="D168" t="s">
-        <v>1045</v>
+        <v>1043</v>
       </c>
       <c r="E168" t="s">
-        <v>1046</v>
+        <v>1044</v>
       </c>
     </row>
     <row r="169" spans="1:5">
@@ -15229,16 +15223,16 @@
         <v>168</v>
       </c>
       <c r="B169" s="3" t="s">
-        <v>1352</v>
+        <v>1350</v>
       </c>
       <c r="C169" t="s">
-        <v>962</v>
+        <v>960</v>
       </c>
       <c r="D169" t="s">
-        <v>1047</v>
+        <v>1045</v>
       </c>
       <c r="E169" t="s">
-        <v>1048</v>
+        <v>1046</v>
       </c>
     </row>
     <row r="170" spans="1:5">
@@ -15246,16 +15240,16 @@
         <v>169</v>
       </c>
       <c r="B170" s="3" t="s">
-        <v>1353</v>
+        <v>1351</v>
       </c>
       <c r="C170" t="s">
-        <v>962</v>
+        <v>960</v>
       </c>
       <c r="D170" t="s">
-        <v>1049</v>
+        <v>1047</v>
       </c>
       <c r="E170" t="s">
-        <v>1050</v>
+        <v>1048</v>
       </c>
     </row>
     <row r="171" spans="1:5">
@@ -15263,16 +15257,16 @@
         <v>170</v>
       </c>
       <c r="B171" s="3" t="s">
-        <v>1354</v>
+        <v>1352</v>
       </c>
       <c r="C171" t="s">
-        <v>1051</v>
+        <v>1049</v>
       </c>
       <c r="D171" t="s">
-        <v>784</v>
+        <v>782</v>
       </c>
       <c r="E171" t="s">
-        <v>887</v>
+        <v>885</v>
       </c>
     </row>
     <row r="172" spans="1:5">
@@ -15280,16 +15274,16 @@
         <v>171</v>
       </c>
       <c r="B172" s="3" t="s">
-        <v>1355</v>
+        <v>1353</v>
       </c>
       <c r="C172" t="s">
-        <v>1051</v>
+        <v>1049</v>
       </c>
       <c r="D172" t="s">
-        <v>830</v>
+        <v>828</v>
       </c>
       <c r="E172" t="s">
-        <v>1052</v>
+        <v>1050</v>
       </c>
     </row>
     <row r="173" spans="1:5">
@@ -15297,16 +15291,16 @@
         <v>172</v>
       </c>
       <c r="B173" s="3" t="s">
-        <v>1356</v>
+        <v>1354</v>
       </c>
       <c r="C173" t="s">
-        <v>1051</v>
+        <v>1049</v>
       </c>
       <c r="D173" t="s">
-        <v>832</v>
+        <v>830</v>
       </c>
       <c r="E173" t="s">
-        <v>887</v>
+        <v>885</v>
       </c>
     </row>
     <row r="174" spans="1:5">
@@ -15314,16 +15308,16 @@
         <v>173</v>
       </c>
       <c r="B174" s="3" t="s">
-        <v>1357</v>
+        <v>1355</v>
       </c>
       <c r="C174" t="s">
+        <v>1049</v>
+      </c>
+      <c r="D174" t="s">
+        <v>965</v>
+      </c>
+      <c r="E174" t="s">
         <v>1051</v>
-      </c>
-      <c r="D174" t="s">
-        <v>967</v>
-      </c>
-      <c r="E174" t="s">
-        <v>1053</v>
       </c>
     </row>
     <row r="175" spans="1:5">
@@ -15331,16 +15325,16 @@
         <v>174</v>
       </c>
       <c r="B175" s="3" t="s">
-        <v>1358</v>
+        <v>1356</v>
       </c>
       <c r="C175" t="s">
-        <v>1051</v>
+        <v>1049</v>
       </c>
       <c r="D175" t="s">
-        <v>830</v>
+        <v>828</v>
       </c>
       <c r="E175" t="s">
-        <v>1054</v>
+        <v>1052</v>
       </c>
     </row>
     <row r="176" spans="1:5">
@@ -15348,16 +15342,16 @@
         <v>175</v>
       </c>
       <c r="B176" s="3" t="s">
-        <v>1359</v>
+        <v>1357</v>
       </c>
       <c r="C176" t="s">
-        <v>1051</v>
+        <v>1049</v>
       </c>
       <c r="D176" t="s">
-        <v>970</v>
+        <v>968</v>
       </c>
       <c r="E176" t="s">
-        <v>1055</v>
+        <v>1053</v>
       </c>
     </row>
     <row r="177" spans="1:5">
@@ -15365,16 +15359,16 @@
         <v>176</v>
       </c>
       <c r="B177" s="3" t="s">
-        <v>1360</v>
+        <v>1358</v>
       </c>
       <c r="C177" t="s">
-        <v>1051</v>
+        <v>1049</v>
       </c>
       <c r="D177" t="s">
-        <v>792</v>
+        <v>790</v>
       </c>
       <c r="E177" t="s">
-        <v>841</v>
+        <v>839</v>
       </c>
     </row>
     <row r="178" spans="1:5">
@@ -15382,16 +15376,16 @@
         <v>177</v>
       </c>
       <c r="B178" s="3" t="s">
-        <v>1361</v>
+        <v>1359</v>
       </c>
       <c r="C178" t="s">
-        <v>1051</v>
+        <v>1049</v>
       </c>
       <c r="D178" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
       <c r="E178" t="s">
-        <v>842</v>
+        <v>840</v>
       </c>
     </row>
     <row r="179" spans="1:5">
@@ -15399,16 +15393,16 @@
         <v>178</v>
       </c>
       <c r="B179" s="3" t="s">
-        <v>1362</v>
+        <v>1360</v>
       </c>
       <c r="C179" t="s">
-        <v>1051</v>
+        <v>1049</v>
       </c>
       <c r="D179" t="s">
-        <v>796</v>
+        <v>794</v>
       </c>
       <c r="E179" t="s">
-        <v>843</v>
+        <v>841</v>
       </c>
     </row>
     <row r="180" spans="1:5">
@@ -15416,16 +15410,16 @@
         <v>179</v>
       </c>
       <c r="B180" s="3" t="s">
-        <v>1363</v>
+        <v>1361</v>
       </c>
       <c r="C180" t="s">
-        <v>1051</v>
+        <v>1049</v>
       </c>
       <c r="D180" t="s">
-        <v>977</v>
+        <v>975</v>
       </c>
       <c r="E180" t="s">
-        <v>1056</v>
+        <v>1054</v>
       </c>
     </row>
     <row r="181" spans="1:5">
@@ -15433,16 +15427,16 @@
         <v>180</v>
       </c>
       <c r="B181" s="3" t="s">
-        <v>1364</v>
+        <v>1362</v>
       </c>
       <c r="C181" t="s">
-        <v>1051</v>
+        <v>1049</v>
       </c>
       <c r="D181" t="s">
-        <v>1057</v>
+        <v>1055</v>
       </c>
       <c r="E181" t="s">
-        <v>1058</v>
+        <v>1056</v>
       </c>
     </row>
     <row r="182" spans="1:5">
@@ -15450,16 +15444,16 @@
         <v>181</v>
       </c>
       <c r="B182" s="3" t="s">
-        <v>1365</v>
+        <v>1363</v>
       </c>
       <c r="C182" t="s">
-        <v>1051</v>
+        <v>1049</v>
       </c>
       <c r="D182" t="s">
-        <v>1059</v>
+        <v>1057</v>
       </c>
       <c r="E182" t="s">
-        <v>1060</v>
+        <v>1058</v>
       </c>
     </row>
     <row r="183" spans="1:5">
@@ -15467,16 +15461,16 @@
         <v>182</v>
       </c>
       <c r="B183" s="3" t="s">
-        <v>1365</v>
+        <v>1363</v>
       </c>
       <c r="C183" t="s">
-        <v>1051</v>
+        <v>1049</v>
       </c>
       <c r="D183" t="s">
-        <v>1061</v>
+        <v>1059</v>
       </c>
       <c r="E183" t="s">
-        <v>1060</v>
+        <v>1058</v>
       </c>
     </row>
     <row r="184" spans="1:5">
@@ -15484,16 +15478,16 @@
         <v>183</v>
       </c>
       <c r="B184" s="3" t="s">
-        <v>1366</v>
+        <v>1364</v>
       </c>
       <c r="C184" t="s">
-        <v>1051</v>
+        <v>1049</v>
       </c>
       <c r="D184" t="s">
-        <v>1062</v>
+        <v>1060</v>
       </c>
       <c r="E184" t="s">
-        <v>1063</v>
+        <v>1061</v>
       </c>
     </row>
     <row r="185" spans="1:5">
@@ -15501,16 +15495,16 @@
         <v>184</v>
       </c>
       <c r="B185" s="3" t="s">
-        <v>1367</v>
+        <v>1365</v>
       </c>
       <c r="C185" t="s">
-        <v>1051</v>
+        <v>1049</v>
       </c>
       <c r="D185" t="s">
-        <v>1064</v>
+        <v>1062</v>
       </c>
       <c r="E185" t="s">
-        <v>1065</v>
+        <v>1063</v>
       </c>
     </row>
     <row r="186" spans="1:5">
@@ -15518,16 +15512,16 @@
         <v>185</v>
       </c>
       <c r="B186" s="3" t="s">
-        <v>1368</v>
+        <v>1366</v>
       </c>
       <c r="C186" t="s">
-        <v>1051</v>
+        <v>1049</v>
       </c>
       <c r="D186" t="s">
-        <v>1066</v>
+        <v>1064</v>
       </c>
       <c r="E186" t="s">
-        <v>1067</v>
+        <v>1065</v>
       </c>
     </row>
     <row r="187" spans="1:5">
@@ -15535,16 +15529,16 @@
         <v>186</v>
       </c>
       <c r="B187" s="3" t="s">
-        <v>1369</v>
+        <v>1367</v>
       </c>
       <c r="C187" t="s">
-        <v>1051</v>
+        <v>1049</v>
       </c>
       <c r="D187" t="s">
-        <v>1068</v>
+        <v>1066</v>
       </c>
       <c r="E187" t="s">
-        <v>1069</v>
+        <v>1067</v>
       </c>
     </row>
     <row r="188" spans="1:5">
@@ -15552,16 +15546,16 @@
         <v>187</v>
       </c>
       <c r="B188" s="3" t="s">
-        <v>1370</v>
+        <v>1368</v>
       </c>
       <c r="C188" t="s">
-        <v>1051</v>
+        <v>1049</v>
       </c>
       <c r="D188" t="s">
-        <v>1070</v>
+        <v>1068</v>
       </c>
       <c r="E188" t="s">
-        <v>1071</v>
+        <v>1069</v>
       </c>
     </row>
     <row r="189" spans="1:5">
@@ -15569,16 +15563,16 @@
         <v>188</v>
       </c>
       <c r="B189" s="3" t="s">
-        <v>1371</v>
+        <v>1369</v>
       </c>
       <c r="C189" t="s">
-        <v>1051</v>
+        <v>1049</v>
       </c>
       <c r="D189" t="s">
-        <v>1072</v>
+        <v>1070</v>
       </c>
       <c r="E189" t="s">
-        <v>1073</v>
+        <v>1071</v>
       </c>
     </row>
     <row r="190" spans="1:5">
@@ -15586,16 +15580,16 @@
         <v>189</v>
       </c>
       <c r="B190" s="3" t="s">
-        <v>1372</v>
+        <v>1370</v>
       </c>
       <c r="C190" t="s">
-        <v>1051</v>
+        <v>1049</v>
       </c>
       <c r="D190" t="s">
-        <v>1074</v>
+        <v>1072</v>
       </c>
       <c r="E190" t="s">
-        <v>1075</v>
+        <v>1073</v>
       </c>
     </row>
     <row r="191" spans="1:5">
@@ -15603,16 +15597,16 @@
         <v>190</v>
       </c>
       <c r="B191" s="3" t="s">
-        <v>1373</v>
+        <v>1371</v>
       </c>
       <c r="C191" t="s">
-        <v>1051</v>
+        <v>1049</v>
       </c>
       <c r="D191" t="s">
-        <v>1076</v>
+        <v>1074</v>
       </c>
       <c r="E191" t="s">
-        <v>1077</v>
+        <v>1075</v>
       </c>
     </row>
     <row r="192" spans="1:5">
@@ -15620,16 +15614,16 @@
         <v>191</v>
       </c>
       <c r="B192" s="3" t="s">
-        <v>1374</v>
+        <v>1372</v>
       </c>
       <c r="C192" t="s">
-        <v>1051</v>
+        <v>1049</v>
       </c>
       <c r="D192" t="s">
-        <v>1078</v>
+        <v>1076</v>
       </c>
       <c r="E192" t="s">
-        <v>1079</v>
+        <v>1077</v>
       </c>
     </row>
     <row r="193" spans="1:5">
@@ -15637,16 +15631,16 @@
         <v>192</v>
       </c>
       <c r="B193" s="3" t="s">
-        <v>1375</v>
+        <v>1373</v>
       </c>
       <c r="C193" t="s">
-        <v>1051</v>
+        <v>1049</v>
       </c>
       <c r="D193" t="s">
-        <v>1080</v>
+        <v>1078</v>
       </c>
       <c r="E193" t="s">
-        <v>1081</v>
+        <v>1079</v>
       </c>
     </row>
     <row r="194" spans="1:5">
@@ -15654,16 +15648,16 @@
         <v>193</v>
       </c>
       <c r="B194" s="3" t="s">
-        <v>1376</v>
+        <v>1374</v>
       </c>
       <c r="C194" t="s">
-        <v>1051</v>
+        <v>1049</v>
       </c>
       <c r="D194" t="s">
-        <v>1082</v>
+        <v>1080</v>
       </c>
       <c r="E194" t="s">
-        <v>1083</v>
+        <v>1081</v>
       </c>
     </row>
     <row r="195" spans="1:5">
@@ -15671,16 +15665,16 @@
         <v>194</v>
       </c>
       <c r="B195" s="3" t="s">
-        <v>1377</v>
+        <v>1375</v>
       </c>
       <c r="C195" t="s">
-        <v>1051</v>
+        <v>1049</v>
       </c>
       <c r="D195" t="s">
-        <v>1084</v>
+        <v>1082</v>
       </c>
       <c r="E195" t="s">
-        <v>1085</v>
+        <v>1083</v>
       </c>
     </row>
     <row r="196" spans="1:5">
@@ -15688,16 +15682,16 @@
         <v>195</v>
       </c>
       <c r="B196" s="3" t="s">
-        <v>1378</v>
+        <v>1376</v>
       </c>
       <c r="C196" t="s">
-        <v>1086</v>
+        <v>1084</v>
       </c>
       <c r="D196" t="s">
-        <v>784</v>
+        <v>782</v>
       </c>
       <c r="E196" t="s">
-        <v>887</v>
+        <v>885</v>
       </c>
     </row>
     <row r="197" spans="1:5">
@@ -15705,16 +15699,16 @@
         <v>196</v>
       </c>
       <c r="B197" s="3" t="s">
-        <v>1379</v>
+        <v>1377</v>
       </c>
       <c r="C197" t="s">
-        <v>1086</v>
+        <v>1084</v>
       </c>
       <c r="D197" t="s">
-        <v>830</v>
+        <v>828</v>
       </c>
       <c r="E197" t="s">
-        <v>1087</v>
+        <v>1085</v>
       </c>
     </row>
     <row r="198" spans="1:5">
@@ -15722,16 +15716,16 @@
         <v>197</v>
       </c>
       <c r="B198" s="3" t="s">
-        <v>1380</v>
+        <v>1378</v>
       </c>
       <c r="C198" t="s">
+        <v>1084</v>
+      </c>
+      <c r="D198" t="s">
         <v>1086</v>
       </c>
-      <c r="D198" t="s">
-        <v>1088</v>
-      </c>
       <c r="E198" t="s">
-        <v>887</v>
+        <v>885</v>
       </c>
     </row>
     <row r="199" spans="1:5">
@@ -15739,16 +15733,16 @@
         <v>198</v>
       </c>
       <c r="B199" s="3" t="s">
-        <v>1381</v>
+        <v>1379</v>
       </c>
       <c r="C199" t="s">
-        <v>1086</v>
+        <v>1084</v>
       </c>
       <c r="D199" t="s">
-        <v>1089</v>
+        <v>1087</v>
       </c>
       <c r="E199" t="s">
-        <v>1090</v>
+        <v>1088</v>
       </c>
     </row>
     <row r="200" spans="1:5">
@@ -15756,16 +15750,16 @@
         <v>199</v>
       </c>
       <c r="B200" s="3" t="s">
-        <v>1382</v>
+        <v>1380</v>
       </c>
       <c r="C200" t="s">
-        <v>1086</v>
+        <v>1084</v>
       </c>
       <c r="D200" t="s">
-        <v>836</v>
+        <v>834</v>
       </c>
       <c r="E200" t="s">
-        <v>1091</v>
+        <v>1089</v>
       </c>
     </row>
     <row r="201" spans="1:5">
@@ -15773,16 +15767,16 @@
         <v>200</v>
       </c>
       <c r="B201" s="3" t="s">
-        <v>1383</v>
+        <v>1381</v>
       </c>
       <c r="C201" t="s">
-        <v>1086</v>
+        <v>1084</v>
       </c>
       <c r="D201" t="s">
-        <v>838</v>
+        <v>836</v>
       </c>
       <c r="E201" t="s">
-        <v>1092</v>
+        <v>1090</v>
       </c>
     </row>
     <row r="202" spans="1:5">
@@ -15790,16 +15784,16 @@
         <v>201</v>
       </c>
       <c r="B202" s="3" t="s">
-        <v>1384</v>
+        <v>1382</v>
       </c>
       <c r="C202" t="s">
-        <v>1086</v>
+        <v>1084</v>
       </c>
       <c r="D202" t="s">
-        <v>967</v>
+        <v>965</v>
       </c>
       <c r="E202" t="s">
-        <v>1093</v>
+        <v>1091</v>
       </c>
     </row>
     <row r="203" spans="1:5">
@@ -15807,16 +15801,16 @@
         <v>202</v>
       </c>
       <c r="B203" s="3" t="s">
-        <v>1385</v>
+        <v>1383</v>
       </c>
       <c r="C203" t="s">
-        <v>1086</v>
+        <v>1084</v>
       </c>
       <c r="D203" t="s">
-        <v>830</v>
+        <v>828</v>
       </c>
       <c r="E203" t="s">
-        <v>1094</v>
+        <v>1092</v>
       </c>
     </row>
     <row r="204" spans="1:5">
@@ -15824,16 +15818,16 @@
         <v>203</v>
       </c>
       <c r="B204" s="3" t="s">
-        <v>1386</v>
+        <v>1384</v>
       </c>
       <c r="C204" t="s">
-        <v>1086</v>
+        <v>1084</v>
       </c>
       <c r="D204" t="s">
-        <v>970</v>
+        <v>968</v>
       </c>
       <c r="E204" t="s">
-        <v>1095</v>
+        <v>1093</v>
       </c>
     </row>
     <row r="205" spans="1:5">
@@ -15841,16 +15835,16 @@
         <v>204</v>
       </c>
       <c r="B205" s="3" t="s">
-        <v>1387</v>
+        <v>1385</v>
       </c>
       <c r="C205" t="s">
-        <v>1086</v>
+        <v>1084</v>
       </c>
       <c r="D205" t="s">
-        <v>792</v>
+        <v>790</v>
       </c>
       <c r="E205" t="s">
-        <v>841</v>
+        <v>839</v>
       </c>
     </row>
     <row r="206" spans="1:5">
@@ -15858,16 +15852,16 @@
         <v>205</v>
       </c>
       <c r="B206" s="3" t="s">
-        <v>1388</v>
+        <v>1386</v>
       </c>
       <c r="C206" t="s">
-        <v>1086</v>
+        <v>1084</v>
       </c>
       <c r="D206" t="s">
-        <v>1096</v>
+        <v>1094</v>
       </c>
       <c r="E206" t="s">
-        <v>1097</v>
+        <v>1095</v>
       </c>
     </row>
     <row r="207" spans="1:5">
@@ -15875,16 +15869,16 @@
         <v>206</v>
       </c>
       <c r="B207" s="3" t="s">
-        <v>1389</v>
+        <v>1387</v>
       </c>
       <c r="C207" t="s">
-        <v>1086</v>
+        <v>1084</v>
       </c>
       <c r="D207" t="s">
-        <v>731</v>
+        <v>729</v>
       </c>
       <c r="E207" t="s">
-        <v>1098</v>
+        <v>1096</v>
       </c>
     </row>
     <row r="208" spans="1:5">
@@ -15892,16 +15886,16 @@
         <v>207</v>
       </c>
       <c r="B208" s="3" t="s">
-        <v>1390</v>
+        <v>1388</v>
       </c>
       <c r="C208" t="s">
-        <v>1086</v>
+        <v>1084</v>
       </c>
       <c r="D208" t="s">
-        <v>1099</v>
+        <v>1097</v>
       </c>
       <c r="E208" t="s">
-        <v>1100</v>
+        <v>1098</v>
       </c>
     </row>
     <row r="209" spans="1:5">
@@ -15909,16 +15903,16 @@
         <v>208</v>
       </c>
       <c r="B209" s="3" t="s">
-        <v>1391</v>
+        <v>1389</v>
       </c>
       <c r="C209" t="s">
-        <v>1086</v>
+        <v>1084</v>
       </c>
       <c r="D209" t="s">
-        <v>977</v>
+        <v>975</v>
       </c>
       <c r="E209" t="s">
-        <v>1101</v>
+        <v>1099</v>
       </c>
     </row>
     <row r="210" spans="1:5">
@@ -15926,16 +15920,16 @@
         <v>209</v>
       </c>
       <c r="B210" s="3" t="s">
-        <v>1392</v>
+        <v>1390</v>
       </c>
       <c r="C210" t="s">
-        <v>1086</v>
+        <v>1084</v>
       </c>
       <c r="D210" t="s">
-        <v>1102</v>
+        <v>1100</v>
       </c>
       <c r="E210" t="s">
-        <v>1103</v>
+        <v>1101</v>
       </c>
     </row>
     <row r="211" spans="1:5">
@@ -15943,16 +15937,16 @@
         <v>210</v>
       </c>
       <c r="B211" s="3" t="s">
-        <v>1393</v>
+        <v>1391</v>
       </c>
       <c r="C211" t="s">
-        <v>1086</v>
+        <v>1084</v>
       </c>
       <c r="D211" t="s">
-        <v>1104</v>
+        <v>1102</v>
       </c>
       <c r="E211" t="s">
-        <v>1105</v>
+        <v>1103</v>
       </c>
     </row>
     <row r="212" spans="1:5">
@@ -15960,16 +15954,16 @@
         <v>211</v>
       </c>
       <c r="B212" s="3" t="s">
-        <v>1394</v>
+        <v>1392</v>
       </c>
       <c r="C212" t="s">
-        <v>1086</v>
+        <v>1084</v>
       </c>
       <c r="D212" t="s">
-        <v>1106</v>
+        <v>1104</v>
       </c>
       <c r="E212" t="s">
-        <v>1107</v>
+        <v>1105</v>
       </c>
     </row>
     <row r="213" spans="1:5">
@@ -15977,16 +15971,16 @@
         <v>212</v>
       </c>
       <c r="B213" s="3" t="s">
-        <v>1395</v>
+        <v>1393</v>
       </c>
       <c r="C213" t="s">
-        <v>1086</v>
+        <v>1084</v>
       </c>
       <c r="D213" t="s">
-        <v>1108</v>
+        <v>1106</v>
       </c>
       <c r="E213" t="s">
-        <v>1109</v>
+        <v>1107</v>
       </c>
     </row>
     <row r="214" spans="1:5">
@@ -15994,16 +15988,16 @@
         <v>213</v>
       </c>
       <c r="B214" s="3" t="s">
-        <v>1396</v>
+        <v>1394</v>
       </c>
       <c r="C214" t="s">
-        <v>1086</v>
+        <v>1084</v>
       </c>
       <c r="D214" t="s">
-        <v>1110</v>
+        <v>1108</v>
       </c>
       <c r="E214" t="s">
-        <v>1111</v>
+        <v>1109</v>
       </c>
     </row>
     <row r="215" spans="1:5">
@@ -16011,16 +16005,16 @@
         <v>214</v>
       </c>
       <c r="B215" s="3" t="s">
-        <v>1397</v>
+        <v>1395</v>
       </c>
       <c r="C215" t="s">
-        <v>1086</v>
+        <v>1084</v>
       </c>
       <c r="D215" t="s">
-        <v>858</v>
+        <v>856</v>
       </c>
       <c r="E215" t="s">
-        <v>1112</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="216" spans="1:5">
@@ -16028,16 +16022,16 @@
         <v>215</v>
       </c>
       <c r="B216" s="3" t="s">
-        <v>1398</v>
+        <v>1396</v>
       </c>
       <c r="C216" t="s">
-        <v>1086</v>
+        <v>1084</v>
       </c>
       <c r="D216" t="s">
-        <v>864</v>
+        <v>862</v>
       </c>
       <c r="E216" t="s">
-        <v>1113</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="217" spans="1:5">
@@ -16045,16 +16039,16 @@
         <v>216</v>
       </c>
       <c r="B217" s="3" t="s">
-        <v>1399</v>
+        <v>1397</v>
       </c>
       <c r="C217" t="s">
-        <v>1086</v>
+        <v>1084</v>
       </c>
       <c r="D217" t="s">
-        <v>1114</v>
+        <v>1112</v>
       </c>
       <c r="E217" t="s">
-        <v>1115</v>
+        <v>1113</v>
       </c>
     </row>
     <row r="218" spans="1:5">
@@ -16062,16 +16056,16 @@
         <v>217</v>
       </c>
       <c r="B218" s="3" t="s">
-        <v>1400</v>
+        <v>1398</v>
       </c>
       <c r="C218" t="s">
-        <v>1086</v>
+        <v>1084</v>
       </c>
       <c r="D218" t="s">
-        <v>1116</v>
+        <v>1114</v>
       </c>
       <c r="E218" t="s">
-        <v>1117</v>
+        <v>1115</v>
       </c>
     </row>
     <row r="219" spans="1:5">
@@ -16079,16 +16073,16 @@
         <v>218</v>
       </c>
       <c r="B219" s="3" t="s">
-        <v>1401</v>
+        <v>1399</v>
       </c>
       <c r="C219" t="s">
-        <v>1086</v>
+        <v>1084</v>
       </c>
       <c r="D219" t="s">
-        <v>1118</v>
+        <v>1116</v>
       </c>
       <c r="E219" t="s">
-        <v>1119</v>
+        <v>1117</v>
       </c>
     </row>
     <row r="220" spans="1:5">
@@ -16096,16 +16090,16 @@
         <v>219</v>
       </c>
       <c r="B220" s="3" t="s">
-        <v>1402</v>
+        <v>1400</v>
       </c>
       <c r="C220" t="s">
-        <v>1086</v>
+        <v>1084</v>
       </c>
       <c r="D220" t="s">
-        <v>1120</v>
+        <v>1118</v>
       </c>
       <c r="E220" t="s">
-        <v>1121</v>
+        <v>1119</v>
       </c>
     </row>
     <row r="221" spans="1:5">
@@ -16113,16 +16107,16 @@
         <v>220</v>
       </c>
       <c r="B221" s="3" t="s">
-        <v>1403</v>
+        <v>1401</v>
       </c>
       <c r="C221" t="s">
-        <v>1086</v>
+        <v>1084</v>
       </c>
       <c r="D221" t="s">
-        <v>1122</v>
+        <v>1120</v>
       </c>
       <c r="E221" t="s">
-        <v>1123</v>
+        <v>1121</v>
       </c>
     </row>
     <row r="222" spans="1:5">
@@ -16130,16 +16124,16 @@
         <v>221</v>
       </c>
       <c r="B222" s="3" t="s">
-        <v>1404</v>
+        <v>1402</v>
       </c>
       <c r="C222" t="s">
-        <v>1086</v>
+        <v>1084</v>
       </c>
       <c r="D222" t="s">
-        <v>1124</v>
+        <v>1122</v>
       </c>
       <c r="E222" t="s">
-        <v>1125</v>
+        <v>1123</v>
       </c>
     </row>
     <row r="223" spans="1:5">
@@ -16147,16 +16141,16 @@
         <v>222</v>
       </c>
       <c r="B223" s="3" t="s">
-        <v>1405</v>
+        <v>1403</v>
       </c>
       <c r="C223" t="s">
-        <v>1086</v>
+        <v>1084</v>
       </c>
       <c r="D223" t="s">
-        <v>1126</v>
+        <v>1124</v>
       </c>
       <c r="E223" t="s">
-        <v>1127</v>
+        <v>1125</v>
       </c>
     </row>
     <row r="224" spans="1:5">
@@ -16164,16 +16158,16 @@
         <v>223</v>
       </c>
       <c r="B224" s="3" t="s">
-        <v>1406</v>
+        <v>1404</v>
       </c>
       <c r="C224" t="s">
+        <v>1126</v>
+      </c>
+      <c r="D224" t="s">
+        <v>1127</v>
+      </c>
+      <c r="E224" t="s">
         <v>1128</v>
-      </c>
-      <c r="D224" t="s">
-        <v>1129</v>
-      </c>
-      <c r="E224" t="s">
-        <v>1130</v>
       </c>
     </row>
     <row r="225" spans="1:5">
@@ -16181,16 +16175,16 @@
         <v>224</v>
       </c>
       <c r="B225" s="3" t="s">
-        <v>1407</v>
+        <v>1405</v>
       </c>
       <c r="C225" t="s">
-        <v>1128</v>
+        <v>1126</v>
       </c>
       <c r="D225" t="s">
-        <v>830</v>
+        <v>828</v>
       </c>
       <c r="E225" t="s">
-        <v>1087</v>
+        <v>1085</v>
       </c>
     </row>
     <row r="226" spans="1:5">
@@ -16198,16 +16192,16 @@
         <v>225</v>
       </c>
       <c r="B226" s="3" t="s">
-        <v>1408</v>
+        <v>1406</v>
       </c>
       <c r="C226" t="s">
-        <v>1128</v>
+        <v>1126</v>
       </c>
       <c r="D226" t="s">
-        <v>832</v>
+        <v>830</v>
       </c>
       <c r="E226" t="s">
-        <v>887</v>
+        <v>885</v>
       </c>
     </row>
     <row r="227" spans="1:5">
@@ -16215,16 +16209,16 @@
         <v>226</v>
       </c>
       <c r="B227" s="3" t="s">
-        <v>1409</v>
+        <v>1407</v>
       </c>
       <c r="C227" t="s">
-        <v>1128</v>
+        <v>1126</v>
       </c>
       <c r="D227" t="s">
-        <v>1089</v>
+        <v>1087</v>
       </c>
       <c r="E227" t="s">
-        <v>1090</v>
+        <v>1088</v>
       </c>
     </row>
     <row r="228" spans="1:5">
@@ -16232,16 +16226,16 @@
         <v>227</v>
       </c>
       <c r="B228" s="3" t="s">
-        <v>1410</v>
+        <v>1408</v>
       </c>
       <c r="C228" t="s">
-        <v>1128</v>
+        <v>1126</v>
       </c>
       <c r="D228" t="s">
-        <v>836</v>
+        <v>834</v>
       </c>
       <c r="E228" t="s">
-        <v>1131</v>
+        <v>1129</v>
       </c>
     </row>
     <row r="229" spans="1:5">
@@ -16249,16 +16243,16 @@
         <v>228</v>
       </c>
       <c r="B229" s="3" t="s">
-        <v>1411</v>
+        <v>1409</v>
       </c>
       <c r="C229" t="s">
-        <v>1128</v>
+        <v>1126</v>
       </c>
       <c r="D229" t="s">
-        <v>838</v>
+        <v>836</v>
       </c>
       <c r="E229" t="s">
-        <v>1092</v>
+        <v>1090</v>
       </c>
     </row>
     <row r="230" spans="1:5">
@@ -16266,16 +16260,16 @@
         <v>229</v>
       </c>
       <c r="B230" s="3" t="s">
-        <v>1412</v>
+        <v>1410</v>
       </c>
       <c r="C230" t="s">
-        <v>1128</v>
+        <v>1126</v>
       </c>
       <c r="D230" t="s">
-        <v>967</v>
+        <v>965</v>
       </c>
       <c r="E230" t="s">
-        <v>1093</v>
+        <v>1091</v>
       </c>
     </row>
     <row r="231" spans="1:5">
@@ -16283,16 +16277,16 @@
         <v>230</v>
       </c>
       <c r="B231" s="3" t="s">
-        <v>1413</v>
+        <v>1411</v>
       </c>
       <c r="C231" t="s">
-        <v>1128</v>
+        <v>1126</v>
       </c>
       <c r="D231" t="s">
-        <v>830</v>
+        <v>828</v>
       </c>
       <c r="E231" t="s">
-        <v>1132</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="232" spans="1:5">
@@ -16300,16 +16294,16 @@
         <v>231</v>
       </c>
       <c r="B232" s="3" t="s">
-        <v>1414</v>
+        <v>1412</v>
       </c>
       <c r="C232" t="s">
-        <v>1128</v>
+        <v>1126</v>
       </c>
       <c r="D232" t="s">
-        <v>970</v>
+        <v>968</v>
       </c>
       <c r="E232" t="s">
-        <v>1095</v>
+        <v>1093</v>
       </c>
     </row>
     <row r="233" spans="1:5">
@@ -16317,16 +16311,16 @@
         <v>232</v>
       </c>
       <c r="B233" s="3" t="s">
-        <v>1415</v>
+        <v>1413</v>
       </c>
       <c r="C233" t="s">
-        <v>1128</v>
+        <v>1126</v>
       </c>
       <c r="D233" t="s">
-        <v>792</v>
+        <v>790</v>
       </c>
       <c r="E233" t="s">
-        <v>841</v>
+        <v>839</v>
       </c>
     </row>
     <row r="234" spans="1:5">
@@ -16334,16 +16328,16 @@
         <v>233</v>
       </c>
       <c r="B234" s="3" t="s">
-        <v>1416</v>
+        <v>1414</v>
       </c>
       <c r="C234" t="s">
-        <v>1128</v>
+        <v>1126</v>
       </c>
       <c r="D234" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
       <c r="E234" t="s">
-        <v>842</v>
+        <v>840</v>
       </c>
     </row>
     <row r="235" spans="1:5">
@@ -16351,16 +16345,16 @@
         <v>234</v>
       </c>
       <c r="B235" s="3" t="s">
-        <v>1417</v>
+        <v>1415</v>
       </c>
       <c r="C235" t="s">
-        <v>1128</v>
+        <v>1126</v>
       </c>
       <c r="D235" t="s">
-        <v>1133</v>
+        <v>1131</v>
       </c>
       <c r="E235" t="s">
-        <v>843</v>
+        <v>841</v>
       </c>
     </row>
     <row r="236" spans="1:5">
@@ -16368,16 +16362,16 @@
         <v>235</v>
       </c>
       <c r="B236" s="3" t="s">
-        <v>1418</v>
+        <v>1416</v>
       </c>
       <c r="C236" t="s">
-        <v>1128</v>
+        <v>1126</v>
       </c>
       <c r="D236" t="s">
-        <v>1099</v>
+        <v>1097</v>
       </c>
       <c r="E236" t="s">
-        <v>1100</v>
+        <v>1098</v>
       </c>
     </row>
     <row r="237" spans="1:5">
@@ -16385,16 +16379,16 @@
         <v>236</v>
       </c>
       <c r="B237" s="3" t="s">
-        <v>1419</v>
+        <v>1417</v>
       </c>
       <c r="C237" t="s">
-        <v>1128</v>
+        <v>1126</v>
       </c>
       <c r="D237" t="s">
-        <v>1134</v>
+        <v>1132</v>
       </c>
       <c r="E237" t="s">
-        <v>1135</v>
+        <v>1133</v>
       </c>
     </row>
     <row r="238" spans="1:5">
@@ -16402,16 +16396,16 @@
         <v>237</v>
       </c>
       <c r="B238" s="3" t="s">
-        <v>1420</v>
+        <v>1418</v>
       </c>
       <c r="C238" t="s">
-        <v>1128</v>
+        <v>1126</v>
       </c>
       <c r="D238" t="s">
-        <v>977</v>
+        <v>975</v>
       </c>
       <c r="E238" t="s">
-        <v>1101</v>
+        <v>1099</v>
       </c>
     </row>
     <row r="239" spans="1:5">
@@ -16419,16 +16413,16 @@
         <v>238</v>
       </c>
       <c r="B239" s="3" t="s">
-        <v>1421</v>
+        <v>1419</v>
       </c>
       <c r="C239" t="s">
-        <v>1128</v>
+        <v>1126</v>
       </c>
       <c r="D239" t="s">
-        <v>1104</v>
+        <v>1102</v>
       </c>
       <c r="E239" t="s">
-        <v>1136</v>
+        <v>1134</v>
       </c>
     </row>
     <row r="240" spans="1:5">
@@ -16436,16 +16430,16 @@
         <v>239</v>
       </c>
       <c r="B240" s="3" t="s">
-        <v>1422</v>
+        <v>1420</v>
       </c>
       <c r="C240" t="s">
-        <v>1128</v>
+        <v>1126</v>
       </c>
       <c r="D240" t="s">
-        <v>1137</v>
+        <v>1135</v>
       </c>
       <c r="E240" t="s">
-        <v>1138</v>
+        <v>1136</v>
       </c>
     </row>
     <row r="241" spans="1:5">
@@ -16453,16 +16447,16 @@
         <v>240</v>
       </c>
       <c r="B241" s="3" t="s">
-        <v>1423</v>
+        <v>1421</v>
       </c>
       <c r="C241" t="s">
-        <v>1128</v>
+        <v>1126</v>
       </c>
       <c r="D241" t="s">
-        <v>1116</v>
+        <v>1114</v>
       </c>
       <c r="E241" t="s">
-        <v>1139</v>
+        <v>1137</v>
       </c>
     </row>
     <row r="242" spans="1:5">
@@ -16470,16 +16464,16 @@
         <v>241</v>
       </c>
       <c r="B242" s="3" t="s">
-        <v>1424</v>
+        <v>1422</v>
       </c>
       <c r="C242" t="s">
-        <v>1128</v>
+        <v>1126</v>
       </c>
       <c r="D242" t="s">
-        <v>1108</v>
+        <v>1106</v>
       </c>
       <c r="E242" t="s">
-        <v>1109</v>
+        <v>1107</v>
       </c>
     </row>
     <row r="243" spans="1:5">
@@ -16487,16 +16481,16 @@
         <v>242</v>
       </c>
       <c r="B243" s="3" t="s">
-        <v>1425</v>
+        <v>1423</v>
       </c>
       <c r="C243" t="s">
-        <v>1128</v>
+        <v>1126</v>
       </c>
       <c r="D243" t="s">
-        <v>1110</v>
+        <v>1108</v>
       </c>
       <c r="E243" t="s">
-        <v>1111</v>
+        <v>1109</v>
       </c>
     </row>
     <row r="244" spans="1:5">
@@ -16504,16 +16498,16 @@
         <v>243</v>
       </c>
       <c r="B244" s="3" t="s">
-        <v>1426</v>
+        <v>1424</v>
       </c>
       <c r="C244" t="s">
-        <v>1128</v>
+        <v>1126</v>
       </c>
       <c r="D244" t="s">
-        <v>858</v>
+        <v>856</v>
       </c>
       <c r="E244" t="s">
-        <v>1112</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="245" spans="1:5">
@@ -16521,16 +16515,16 @@
         <v>244</v>
       </c>
       <c r="B245" s="3" t="s">
-        <v>1427</v>
+        <v>1425</v>
       </c>
       <c r="C245" t="s">
-        <v>1128</v>
+        <v>1126</v>
       </c>
       <c r="D245" t="s">
-        <v>864</v>
+        <v>862</v>
       </c>
       <c r="E245" t="s">
-        <v>1140</v>
+        <v>1138</v>
       </c>
     </row>
     <row r="246" spans="1:5">
@@ -16538,16 +16532,16 @@
         <v>245</v>
       </c>
       <c r="B246" s="3" t="s">
-        <v>1428</v>
+        <v>1426</v>
       </c>
       <c r="C246" t="s">
-        <v>1128</v>
+        <v>1126</v>
       </c>
       <c r="D246" t="s">
-        <v>1118</v>
+        <v>1116</v>
       </c>
       <c r="E246" t="s">
-        <v>1119</v>
+        <v>1117</v>
       </c>
     </row>
     <row r="247" spans="1:5">
@@ -16555,16 +16549,16 @@
         <v>246</v>
       </c>
       <c r="B247" s="3" t="s">
-        <v>1429</v>
+        <v>1427</v>
       </c>
       <c r="C247" t="s">
-        <v>1128</v>
+        <v>1126</v>
       </c>
       <c r="D247" t="s">
-        <v>1122</v>
+        <v>1120</v>
       </c>
       <c r="E247" t="s">
-        <v>1141</v>
+        <v>1139</v>
       </c>
     </row>
     <row r="248" spans="1:5">
@@ -16572,16 +16566,16 @@
         <v>247</v>
       </c>
       <c r="B248" s="3" t="s">
-        <v>1430</v>
+        <v>1428</v>
       </c>
       <c r="C248" t="s">
-        <v>1128</v>
+        <v>1126</v>
       </c>
       <c r="D248" t="s">
-        <v>1142</v>
+        <v>1140</v>
       </c>
       <c r="E248" t="s">
-        <v>1143</v>
+        <v>1141</v>
       </c>
     </row>
     <row r="249" spans="1:5">
@@ -16589,16 +16583,16 @@
         <v>248</v>
       </c>
       <c r="B249" s="3" t="s">
-        <v>1431</v>
+        <v>1429</v>
       </c>
       <c r="C249" t="s">
-        <v>1128</v>
+        <v>1126</v>
       </c>
       <c r="D249" t="s">
-        <v>1144</v>
+        <v>1142</v>
       </c>
       <c r="E249" t="s">
-        <v>1145</v>
+        <v>1143</v>
       </c>
     </row>
     <row r="250" spans="1:5">
@@ -16606,16 +16600,16 @@
         <v>249</v>
       </c>
       <c r="B250" s="3" t="s">
-        <v>1432</v>
+        <v>1430</v>
       </c>
       <c r="C250" t="s">
-        <v>1128</v>
+        <v>1126</v>
       </c>
       <c r="D250" t="s">
-        <v>1146</v>
+        <v>1144</v>
       </c>
       <c r="E250" t="s">
-        <v>1147</v>
+        <v>1145</v>
       </c>
     </row>
     <row r="251" spans="1:5">
@@ -16623,16 +16617,16 @@
         <v>250</v>
       </c>
       <c r="B251" s="3" t="s">
-        <v>1433</v>
+        <v>1431</v>
       </c>
       <c r="C251" t="s">
-        <v>1128</v>
+        <v>1126</v>
       </c>
       <c r="D251" t="s">
-        <v>1148</v>
+        <v>1146</v>
       </c>
       <c r="E251" t="s">
-        <v>1149</v>
+        <v>1147</v>
       </c>
     </row>
     <row r="252" spans="1:5">
@@ -16640,16 +16634,16 @@
         <v>251</v>
       </c>
       <c r="B252" s="3" t="s">
-        <v>1434</v>
+        <v>1432</v>
       </c>
       <c r="C252" t="s">
-        <v>1128</v>
+        <v>1126</v>
       </c>
       <c r="D252" t="s">
-        <v>1150</v>
+        <v>1148</v>
       </c>
       <c r="E252" t="s">
-        <v>1151</v>
+        <v>1149</v>
       </c>
     </row>
     <row r="253" spans="1:5">
@@ -16657,16 +16651,16 @@
         <v>252</v>
       </c>
       <c r="B253" s="3" t="s">
-        <v>1435</v>
+        <v>1433</v>
       </c>
       <c r="C253" t="s">
-        <v>1128</v>
+        <v>1126</v>
       </c>
       <c r="D253" t="s">
-        <v>1152</v>
+        <v>1150</v>
       </c>
       <c r="E253" t="s">
-        <v>1153</v>
+        <v>1151</v>
       </c>
     </row>
     <row r="254" spans="1:5">
@@ -16677,13 +16671,13 @@
         <v>488</v>
       </c>
       <c r="C254" t="s">
-        <v>1154</v>
+        <v>1152</v>
       </c>
       <c r="D254" t="s">
-        <v>1129</v>
+        <v>1127</v>
       </c>
       <c r="E254" t="s">
-        <v>1155</v>
+        <v>1153</v>
       </c>
     </row>
     <row r="255" spans="1:5">
@@ -16691,16 +16685,16 @@
         <v>254</v>
       </c>
       <c r="B255" s="3" t="s">
-        <v>1436</v>
+        <v>1434</v>
       </c>
       <c r="C255" t="s">
-        <v>730</v>
+        <v>728</v>
       </c>
       <c r="D255" t="s">
-        <v>1156</v>
+        <v>1154</v>
       </c>
       <c r="E255" t="s">
-        <v>1157</v>
+        <v>1155</v>
       </c>
     </row>
     <row r="256" spans="1:5">
@@ -16708,16 +16702,16 @@
         <v>255</v>
       </c>
       <c r="B256" s="3" t="s">
-        <v>1437</v>
+        <v>1435</v>
       </c>
       <c r="C256" t="s">
-        <v>730</v>
+        <v>728</v>
       </c>
       <c r="D256" t="s">
-        <v>1158</v>
+        <v>1156</v>
       </c>
       <c r="E256" t="s">
-        <v>1159</v>
+        <v>1157</v>
       </c>
     </row>
     <row r="257" spans="1:5">
@@ -16725,16 +16719,16 @@
         <v>256</v>
       </c>
       <c r="B257" s="3" t="s">
-        <v>1438</v>
+        <v>1436</v>
       </c>
       <c r="C257" t="s">
-        <v>730</v>
+        <v>728</v>
       </c>
       <c r="D257" t="s">
-        <v>1160</v>
+        <v>1158</v>
       </c>
       <c r="E257" t="s">
-        <v>1161</v>
+        <v>1159</v>
       </c>
     </row>
     <row r="258" spans="1:5">
@@ -16742,16 +16736,16 @@
         <v>257</v>
       </c>
       <c r="B258" s="3" t="s">
-        <v>1439</v>
+        <v>1437</v>
       </c>
       <c r="C258" t="s">
-        <v>730</v>
+        <v>728</v>
       </c>
       <c r="D258" t="s">
-        <v>1162</v>
+        <v>1160</v>
       </c>
       <c r="E258" t="s">
-        <v>1163</v>
+        <v>1161</v>
       </c>
     </row>
     <row r="259" spans="1:5">
@@ -16759,16 +16753,16 @@
         <v>258</v>
       </c>
       <c r="B259" s="3" t="s">
-        <v>1436</v>
+        <v>1434</v>
       </c>
       <c r="C259" t="s">
-        <v>1154</v>
+        <v>1152</v>
       </c>
       <c r="D259" t="s">
-        <v>1164</v>
+        <v>1162</v>
       </c>
       <c r="E259" t="s">
-        <v>1165</v>
+        <v>1163</v>
       </c>
     </row>
     <row r="260" spans="1:5">
@@ -16776,16 +16770,16 @@
         <v>259</v>
       </c>
       <c r="B260" s="3" t="s">
-        <v>1437</v>
+        <v>1435</v>
       </c>
       <c r="C260" t="s">
-        <v>1154</v>
+        <v>1152</v>
       </c>
       <c r="D260" t="s">
-        <v>1166</v>
+        <v>1164</v>
       </c>
       <c r="E260" t="s">
-        <v>1167</v>
+        <v>1165</v>
       </c>
     </row>
     <row r="261" spans="1:5">
@@ -16793,16 +16787,16 @@
         <v>260</v>
       </c>
       <c r="B261" s="3" t="s">
-        <v>1438</v>
+        <v>1436</v>
       </c>
       <c r="C261" t="s">
-        <v>1154</v>
+        <v>1152</v>
       </c>
       <c r="D261" t="s">
-        <v>1168</v>
+        <v>1166</v>
       </c>
       <c r="E261" t="s">
-        <v>1169</v>
+        <v>1167</v>
       </c>
     </row>
     <row r="262" spans="1:5">
@@ -16810,16 +16804,16 @@
         <v>261</v>
       </c>
       <c r="B262" s="3" t="s">
-        <v>1439</v>
+        <v>1437</v>
       </c>
       <c r="C262" t="s">
-        <v>1154</v>
+        <v>1152</v>
       </c>
       <c r="D262" t="s">
-        <v>1170</v>
+        <v>1168</v>
       </c>
       <c r="E262" t="s">
-        <v>1171</v>
+        <v>1169</v>
       </c>
     </row>
     <row r="263" spans="1:5">
@@ -16827,16 +16821,16 @@
         <v>262</v>
       </c>
       <c r="B263" s="3" t="s">
+        <v>1170</v>
+      </c>
+      <c r="C263" t="s">
+        <v>728</v>
+      </c>
+      <c r="D263" s="14" t="s">
+        <v>1171</v>
+      </c>
+      <c r="E263" s="14" t="s">
         <v>1172</v>
-      </c>
-      <c r="C263" t="s">
-        <v>730</v>
-      </c>
-      <c r="D263" s="14" t="s">
-        <v>1173</v>
-      </c>
-      <c r="E263" s="14" t="s">
-        <v>1174</v>
       </c>
     </row>
     <row r="264" spans="1:5">
@@ -16844,16 +16838,16 @@
         <v>263</v>
       </c>
       <c r="B264" s="3" t="s">
-        <v>1175</v>
+        <v>1173</v>
       </c>
       <c r="C264" t="s">
-        <v>730</v>
+        <v>728</v>
       </c>
       <c r="D264" s="14" t="s">
-        <v>1173</v>
+        <v>1171</v>
       </c>
       <c r="E264" s="14" t="s">
-        <v>1176</v>
+        <v>1174</v>
       </c>
     </row>
     <row r="265" spans="1:5">
@@ -16861,16 +16855,16 @@
         <v>264</v>
       </c>
       <c r="B265" s="3" t="s">
+        <v>1175</v>
+      </c>
+      <c r="C265" t="s">
+        <v>728</v>
+      </c>
+      <c r="D265" s="14" t="s">
+        <v>1176</v>
+      </c>
+      <c r="E265" s="14" t="s">
         <v>1177</v>
-      </c>
-      <c r="C265" t="s">
-        <v>730</v>
-      </c>
-      <c r="D265" s="14" t="s">
-        <v>1178</v>
-      </c>
-      <c r="E265" s="14" t="s">
-        <v>1179</v>
       </c>
     </row>
     <row r="266" spans="1:5">
@@ -16878,16 +16872,16 @@
         <v>265</v>
       </c>
       <c r="B266" s="3" t="s">
+        <v>1178</v>
+      </c>
+      <c r="C266" t="s">
+        <v>728</v>
+      </c>
+      <c r="D266" s="14" t="s">
+        <v>1179</v>
+      </c>
+      <c r="E266" s="14" t="s">
         <v>1180</v>
-      </c>
-      <c r="C266" t="s">
-        <v>730</v>
-      </c>
-      <c r="D266" s="14" t="s">
-        <v>1181</v>
-      </c>
-      <c r="E266" s="14" t="s">
-        <v>1182</v>
       </c>
     </row>
     <row r="267" spans="1:5">
@@ -16895,16 +16889,16 @@
         <v>266</v>
       </c>
       <c r="B267" s="3" t="s">
+        <v>1181</v>
+      </c>
+      <c r="C267" t="s">
+        <v>728</v>
+      </c>
+      <c r="D267" s="14" t="s">
+        <v>1182</v>
+      </c>
+      <c r="E267" s="14" t="s">
         <v>1183</v>
-      </c>
-      <c r="C267" t="s">
-        <v>730</v>
-      </c>
-      <c r="D267" s="14" t="s">
-        <v>1184</v>
-      </c>
-      <c r="E267" s="14" t="s">
-        <v>1185</v>
       </c>
     </row>
     <row r="268" spans="1:5">
@@ -16912,7 +16906,7 @@
         <v>99999</v>
       </c>
       <c r="B268" s="3" t="s">
-        <v>657</v>
+        <v>655</v>
       </c>
       <c r="C268" t="s">
         <v>169</v>
@@ -16953,10 +16947,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:I67"/>
+  <dimension ref="A1:I66"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+    <sheetView tabSelected="1" topLeftCell="A41" workbookViewId="0">
+      <selection activeCell="A62" sqref="A62:XFD62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16"/>
@@ -16981,13 +16975,13 @@
         <v>523</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>674</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>675</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>676</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>677</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>678</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>528</v>
@@ -17764,13 +17758,13 @@
         <v>646</v>
       </c>
       <c r="C28" s="12" t="s">
-        <v>709</v>
+        <v>707</v>
       </c>
       <c r="D28" s="13" t="s">
         <v>646</v>
       </c>
       <c r="E28" s="12" t="s">
-        <v>709</v>
+        <v>707</v>
       </c>
       <c r="F28" s="12" t="s">
         <v>534</v>
@@ -17790,16 +17784,16 @@
         <v>267</v>
       </c>
       <c r="B29" s="13" t="s">
-        <v>707</v>
+        <v>705</v>
       </c>
       <c r="C29" s="12" t="s">
-        <v>708</v>
+        <v>706</v>
       </c>
       <c r="D29" s="13" t="s">
-        <v>707</v>
+        <v>705</v>
       </c>
       <c r="E29" s="12" t="s">
-        <v>708</v>
+        <v>706</v>
       </c>
       <c r="F29" s="12" t="s">
         <v>534</v>
@@ -18170,13 +18164,13 @@
         <v>611</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>701</v>
+        <v>699</v>
       </c>
       <c r="D42" s="2" t="s">
         <v>611</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>701</v>
+        <v>699</v>
       </c>
       <c r="F42" s="1" t="s">
         <v>534</v>
@@ -18199,13 +18193,13 @@
         <v>613</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>702</v>
+        <v>700</v>
       </c>
       <c r="D43" s="2" t="s">
         <v>613</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>702</v>
+        <v>700</v>
       </c>
       <c r="F43" s="1" t="s">
         <v>534</v>
@@ -18228,13 +18222,13 @@
         <v>614</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>704</v>
+        <v>702</v>
       </c>
       <c r="D44" s="2" t="s">
         <v>614</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>704</v>
+        <v>702</v>
       </c>
       <c r="F44" s="1" t="s">
         <v>534</v>
@@ -18257,13 +18251,13 @@
         <v>615</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>703</v>
+        <v>701</v>
       </c>
       <c r="D45" s="2" t="s">
         <v>615</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>703</v>
+        <v>701</v>
       </c>
       <c r="F45" s="1" t="s">
         <v>534</v>
@@ -18315,13 +18309,13 @@
         <v>617</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>705</v>
+        <v>703</v>
       </c>
       <c r="D47" s="2" t="s">
         <v>617</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>705</v>
+        <v>703</v>
       </c>
       <c r="F47" s="1" t="s">
         <v>534</v>
@@ -18344,13 +18338,13 @@
         <v>619</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>706</v>
+        <v>704</v>
       </c>
       <c r="D48" s="2" t="s">
         <v>619</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>706</v>
+        <v>704</v>
       </c>
       <c r="F48" s="1" t="s">
         <v>534</v>
@@ -18631,16 +18625,16 @@
         <v>909</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>722</v>
+        <v>720</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>723</v>
+        <v>721</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>722</v>
+        <v>720</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>723</v>
+        <v>721</v>
       </c>
       <c r="F58" s="1" t="s">
         <v>623</v>
@@ -18744,48 +18738,48 @@
     </row>
     <row r="62" spans="1:9">
       <c r="A62" s="1">
-        <v>702</v>
+        <v>403</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>646</v>
+        <v>647</v>
       </c>
       <c r="C62" s="1" t="s">
+        <v>648</v>
+      </c>
+      <c r="D62" s="2" t="s">
         <v>647</v>
       </c>
-      <c r="D62" s="2" t="s">
-        <v>646</v>
-      </c>
       <c r="E62" s="1" t="s">
-        <v>647</v>
+        <v>648</v>
       </c>
       <c r="F62" s="1" t="s">
-        <v>623</v>
+        <v>534</v>
       </c>
       <c r="G62" s="1" t="s">
         <v>168</v>
       </c>
       <c r="H62" s="1" t="s">
-        <v>648</v>
+        <v>649</v>
       </c>
       <c r="I62" s="1" t="s">
-        <v>536</v>
+        <v>592</v>
       </c>
     </row>
     <row r="63" spans="1:9">
       <c r="A63" s="1">
-        <v>403</v>
+        <v>641</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>649</v>
+        <v>650</v>
       </c>
       <c r="C63" s="1" t="s">
+        <v>651</v>
+      </c>
+      <c r="D63" s="2" t="s">
         <v>650</v>
       </c>
-      <c r="D63" s="2" t="s">
-        <v>649</v>
-      </c>
       <c r="E63" s="1" t="s">
-        <v>650</v>
+        <v>651</v>
       </c>
       <c r="F63" s="1" t="s">
         <v>534</v>
@@ -18794,27 +18788,27 @@
         <v>168</v>
       </c>
       <c r="H63" s="1" t="s">
-        <v>651</v>
+        <v>652</v>
       </c>
       <c r="I63" s="1" t="s">
-        <v>592</v>
+        <v>536</v>
       </c>
     </row>
     <row r="64" spans="1:9">
       <c r="A64" s="1">
-        <v>641</v>
+        <v>642</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>652</v>
+        <v>653</v>
       </c>
       <c r="C64" s="1" t="s">
+        <v>654</v>
+      </c>
+      <c r="D64" s="2" t="s">
         <v>653</v>
       </c>
-      <c r="D64" s="2" t="s">
-        <v>652</v>
-      </c>
       <c r="E64" s="1" t="s">
-        <v>653</v>
+        <v>654</v>
       </c>
       <c r="F64" s="1" t="s">
         <v>534</v>
@@ -18823,7 +18817,7 @@
         <v>168</v>
       </c>
       <c r="H64" s="1" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
       <c r="I64" s="1" t="s">
         <v>536</v>
@@ -18831,94 +18825,65 @@
     </row>
     <row r="65" spans="1:9">
       <c r="A65" s="1">
-        <v>642</v>
-      </c>
-      <c r="B65" s="2" t="s">
+        <v>99999</v>
+      </c>
+      <c r="B65" s="3" t="s">
         <v>655</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>656</v>
-      </c>
-      <c r="D65" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="D65" s="3" t="s">
         <v>655</v>
       </c>
       <c r="E65" s="1" t="s">
-        <v>656</v>
+        <v>169</v>
       </c>
       <c r="F65" s="1" t="s">
-        <v>534</v>
+        <v>169</v>
       </c>
       <c r="G65" s="1" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="H65" s="1" t="s">
-        <v>654</v>
+        <v>169</v>
       </c>
       <c r="I65" s="1" t="s">
-        <v>536</v>
+        <v>169</v>
       </c>
     </row>
     <row r="66" spans="1:9">
       <c r="A66" s="1">
-        <v>99999</v>
+        <v>99998</v>
       </c>
       <c r="B66" s="3" t="s">
-        <v>657</v>
+        <v>496</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>169</v>
+        <v>497</v>
       </c>
       <c r="D66" s="3" t="s">
-        <v>657</v>
+        <v>496</v>
       </c>
       <c r="E66" s="1" t="s">
-        <v>169</v>
+        <v>497</v>
       </c>
       <c r="F66" s="1" t="s">
-        <v>169</v>
+        <v>497</v>
       </c>
       <c r="G66" s="1" t="s">
-        <v>169</v>
+        <v>497</v>
       </c>
       <c r="H66" s="1" t="s">
-        <v>169</v>
+        <v>497</v>
       </c>
       <c r="I66" s="1" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="67" spans="1:9">
-      <c r="A67" s="1">
-        <v>99998</v>
-      </c>
-      <c r="B67" s="3" t="s">
-        <v>496</v>
-      </c>
-      <c r="C67" s="1" t="s">
         <v>497</v>
       </c>
-      <c r="D67" s="3" t="s">
-        <v>496</v>
-      </c>
-      <c r="E67" s="1" t="s">
-        <v>497</v>
-      </c>
-      <c r="F67" s="1" t="s">
-        <v>497</v>
-      </c>
-      <c r="G67" s="1" t="s">
-        <v>497</v>
-      </c>
-      <c r="H67" s="1" t="s">
-        <v>497</v>
-      </c>
-      <c r="I67" s="1" t="s">
-        <v>497</v>
-      </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C63">
-    <sortCondition ref="A2:A63"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C62">
+    <sortCondition ref="A2:A62"/>
   </sortState>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
@@ -18952,13 +18917,13 @@
         <v>523</v>
       </c>
       <c r="C1" t="s">
+        <v>674</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>675</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>676</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>677</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>678</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="15" customHeight="1">
@@ -18986,13 +18951,13 @@
         <v>45</v>
       </c>
       <c r="C3" t="s">
-        <v>710</v>
+        <v>708</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>45</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>710</v>
+        <v>708</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="15" customHeight="1">
@@ -19097,13 +19062,13 @@
         <v>523</v>
       </c>
       <c r="C1" t="s">
+        <v>674</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>675</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>676</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>677</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>678</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="15" customHeight="1">
@@ -19403,13 +19368,13 @@
         <v>85</v>
       </c>
       <c r="C19" t="s">
-        <v>711</v>
+        <v>709</v>
       </c>
       <c r="D19" s="2" t="s">
         <v>85</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>711</v>
+        <v>709</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="15" customHeight="1">
@@ -19876,16 +19841,16 @@
         <v>58</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>688</v>
+        <v>686</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>689</v>
+        <v>687</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>688</v>
+        <v>686</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>689</v>
+        <v>687</v>
       </c>
     </row>
     <row r="48" spans="1:5">
@@ -19955,13 +19920,13 @@
         <v>523</v>
       </c>
       <c r="C1" t="s">
+        <v>674</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>675</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>676</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>677</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>678</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="15" customHeight="1">
@@ -20065,13 +20030,13 @@
         <v>523</v>
       </c>
       <c r="C1" s="4" t="s">
+        <v>674</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>675</v>
+      </c>
+      <c r="E1" s="4" t="s">
         <v>676</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>677</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>678</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="15" customHeight="1">
@@ -20082,13 +20047,13 @@
         <v>37</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>37</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="15" customHeight="1">
@@ -20167,13 +20132,13 @@
         <v>140</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>691</v>
+        <v>689</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>140</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>691</v>
+        <v>689</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="15" customHeight="1">
@@ -20201,13 +20166,13 @@
         <v>35</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>692</v>
+        <v>690</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>35</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>692</v>
+        <v>690</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="15" customHeight="1">
@@ -20286,13 +20251,13 @@
         <v>274</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>693</v>
+        <v>691</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>274</v>
       </c>
       <c r="E14" s="10" t="s">
-        <v>693</v>
+        <v>691</v>
       </c>
     </row>
     <row r="15" spans="1:5" s="1" customFormat="1" ht="15" customHeight="1">
@@ -20397,13 +20362,13 @@
         <v>523</v>
       </c>
       <c r="C1" s="4" t="s">
+        <v>674</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>675</v>
+      </c>
+      <c r="E1" s="4" t="s">
         <v>676</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>677</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>678</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="15" customHeight="1">
@@ -20414,13 +20379,13 @@
         <v>11</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>1444</v>
+        <v>1442</v>
       </c>
       <c r="D2" s="2">
         <v>11</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>1444</v>
+        <v>1442</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="15" customHeight="1">
@@ -20533,13 +20498,13 @@
         <v>35</v>
       </c>
       <c r="C9" t="s">
-        <v>712</v>
+        <v>710</v>
       </c>
       <c r="D9" s="2">
         <v>35</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>712</v>
+        <v>710</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="15" customHeight="1">

--- a/tools/nibrs-staging-data/src/test/resources/codeSpreadSheets/NIBRSCodeTablesHawaii.xlsx
+++ b/tools/nibrs-staging-data/src/test/resources/codeSpreadSheets/NIBRSCodeTablesHawaii.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/haiqiwei/git/nibrsSpringBoot2/tools/nibrs-staging-data/src/test/resources/codeSpreadSheets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E42901F-0039-E048-8111-3AB284B590F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0EE6AA9E-400D-B242-92A7-7C5D4F3E07A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="29940" yWindow="1000" windowWidth="23960" windowHeight="14200" tabRatio="705" firstSheet="3" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -57,7 +57,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3412" uniqueCount="1443">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3412" uniqueCount="1442">
   <si>
     <t>Table</t>
   </si>
@@ -2004,9 +2004,6 @@
   </si>
   <si>
     <t>Purchasing Prostitution</t>
-  </si>
-  <si>
-    <t>Prostitution Offenses (Society)</t>
   </si>
   <si>
     <t>64A</t>
@@ -5358,13 +5355,13 @@
         <v>523</v>
       </c>
       <c r="C1" s="4" t="s">
+        <v>673</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>674</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="4" t="s">
         <v>675</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>676</v>
       </c>
       <c r="F1" t="s">
         <v>386</v>
@@ -5387,7 +5384,7 @@
         <v>171</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>1439</v>
+        <v>1438</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="15" customHeight="1">
@@ -5407,7 +5404,7 @@
         <v>172</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>1439</v>
+        <v>1438</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="15" customHeight="1">
@@ -5427,7 +5424,7 @@
         <v>173</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>1439</v>
+        <v>1438</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="15" customHeight="1">
@@ -5447,7 +5444,7 @@
         <v>174</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>1439</v>
+        <v>1438</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="15" customHeight="1">
@@ -5467,7 +5464,7 @@
         <v>175</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>1439</v>
+        <v>1438</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="15" customHeight="1">
@@ -5487,7 +5484,7 @@
         <v>176</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>1439</v>
+        <v>1438</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="15" customHeight="1">
@@ -5507,7 +5504,7 @@
         <v>177</v>
       </c>
       <c r="F8" t="s">
-        <v>1438</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="15" customHeight="1">
@@ -5527,7 +5524,7 @@
         <v>178</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>1438</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="15" customHeight="1">
@@ -5547,7 +5544,7 @@
         <v>179</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>1438</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="15" customHeight="1">
@@ -5567,7 +5564,7 @@
         <v>180</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>1438</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="15" customHeight="1">
@@ -5587,7 +5584,7 @@
         <v>181</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>1438</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="15" customHeight="1">
@@ -5607,7 +5604,7 @@
         <v>182</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>1438</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="15" customHeight="1">
@@ -5627,7 +5624,7 @@
         <v>183</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>1438</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="15" spans="1:6" s="1" customFormat="1" ht="15" customHeight="1">
@@ -5638,16 +5635,16 @@
         <v>28</v>
       </c>
       <c r="C15" s="11" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="D15" s="1">
         <v>28</v>
       </c>
       <c r="E15" s="11" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>1438</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="16" spans="1:6" s="1" customFormat="1" ht="15" customHeight="1">
@@ -5658,16 +5655,16 @@
         <v>29</v>
       </c>
       <c r="C16" s="11" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="D16" s="1">
         <v>29</v>
       </c>
       <c r="E16" s="11" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>1438</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="17" spans="1:6" s="1" customFormat="1" ht="15" customHeight="1">
@@ -5678,16 +5675,16 @@
         <v>31</v>
       </c>
       <c r="C17" s="11" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="D17" s="1">
         <v>31</v>
       </c>
       <c r="E17" s="11" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>1439</v>
+        <v>1438</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="15" customHeight="1">
@@ -5707,7 +5704,7 @@
         <v>184</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>1439</v>
+        <v>1438</v>
       </c>
     </row>
     <row r="19" spans="1:6" ht="15" customHeight="1">
@@ -5718,16 +5715,16 @@
         <v>33</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="D19" s="1">
         <v>33</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>1439</v>
+        <v>1438</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="15" customHeight="1">
@@ -5847,7 +5844,7 @@
         <v>190</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>1441</v>
+        <v>1440</v>
       </c>
     </row>
     <row r="26" spans="1:6" ht="15" customHeight="1">
@@ -5867,7 +5864,7 @@
         <v>191</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>1441</v>
+        <v>1440</v>
       </c>
     </row>
     <row r="27" spans="1:6" ht="15" customHeight="1">
@@ -5927,7 +5924,7 @@
         <v>194</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>1440</v>
+        <v>1439</v>
       </c>
     </row>
     <row r="30" spans="1:6" ht="16" customHeight="1">
@@ -5947,7 +5944,7 @@
         <v>195</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>1440</v>
+        <v>1439</v>
       </c>
     </row>
     <row r="31" spans="1:6" s="1" customFormat="1" ht="16" customHeight="1">
@@ -5958,16 +5955,16 @@
         <v>81</v>
       </c>
       <c r="C31" s="11" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="D31" s="1">
         <v>81</v>
       </c>
       <c r="E31" s="11" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>1438</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="32" spans="1:6" s="1" customFormat="1" ht="16" customHeight="1">
@@ -5978,16 +5975,16 @@
         <v>82</v>
       </c>
       <c r="C32" s="11" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="D32" s="1">
         <v>82</v>
       </c>
       <c r="E32" s="11" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>1438</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="33" spans="1:6" s="1" customFormat="1" ht="15" customHeight="1">
@@ -5998,16 +5995,16 @@
         <v>83</v>
       </c>
       <c r="C33" s="11" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="D33" s="1">
         <v>83</v>
       </c>
       <c r="E33" s="11" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>1438</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="34" spans="1:6" s="1" customFormat="1" ht="15" customHeight="1">
@@ -6018,16 +6015,16 @@
         <v>84</v>
       </c>
       <c r="C34" s="11" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="D34" s="1">
         <v>84</v>
       </c>
       <c r="E34" s="11" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>1438</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="35" spans="1:6" s="1" customFormat="1" ht="15" customHeight="1">
@@ -6038,16 +6035,16 @@
         <v>85</v>
       </c>
       <c r="C35" s="11" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="D35" s="1">
         <v>85</v>
       </c>
       <c r="E35" s="11" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>1438</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="36" spans="1:6" ht="15" customHeight="1">
@@ -6145,13 +6142,13 @@
         <v>523</v>
       </c>
       <c r="C1" s="4" t="s">
+        <v>673</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>674</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="4" t="s">
         <v>675</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>676</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="15" customHeight="1">
@@ -6342,13 +6339,13 @@
         <v>523</v>
       </c>
       <c r="C1" s="4" t="s">
+        <v>673</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>674</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="4" t="s">
         <v>675</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>676</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="15" customHeight="1">
@@ -7558,13 +7555,13 @@
         <v>523</v>
       </c>
       <c r="C1" s="4" t="s">
+        <v>673</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>674</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="4" t="s">
         <v>675</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>676</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="15" customHeight="1">
@@ -7923,13 +7920,13 @@
         <v>523</v>
       </c>
       <c r="C1" t="s">
+        <v>673</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>674</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>675</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>676</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="15" customHeight="1">
@@ -8186,13 +8183,13 @@
         <v>523</v>
       </c>
       <c r="C1" t="s">
+        <v>673</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>674</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>675</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>676</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="15" customHeight="1">
@@ -8398,13 +8395,13 @@
         <v>523</v>
       </c>
       <c r="C1" s="4" t="s">
+        <v>673</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>674</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="4" t="s">
         <v>675</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>676</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="15" customHeight="1">
@@ -8415,13 +8412,13 @@
         <v>51</v>
       </c>
       <c r="C2" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>51</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="15" customHeight="1">
@@ -8551,13 +8548,13 @@
         <v>67</v>
       </c>
       <c r="C10" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>67</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="15" customHeight="1">
@@ -8661,13 +8658,13 @@
         <v>523</v>
       </c>
       <c r="C1" t="s">
+        <v>673</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>674</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>675</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>676</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="15" customHeight="1">
@@ -8856,13 +8853,13 @@
         <v>523</v>
       </c>
       <c r="C1" t="s">
+        <v>673</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>674</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>675</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>676</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="15" customHeight="1">
@@ -8966,13 +8963,13 @@
         <v>523</v>
       </c>
       <c r="C1" t="s">
+        <v>673</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>674</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>675</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>676</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="15" customHeight="1">
@@ -9017,7 +9014,7 @@
         <v>35</v>
       </c>
       <c r="C4" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>35</v>
@@ -9034,7 +9031,7 @@
         <v>45</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>37</v>
@@ -9051,7 +9048,7 @@
         <v>154</v>
       </c>
       <c r="C6" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>37</v>
@@ -9068,7 +9065,7 @@
         <v>140</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>37</v>
@@ -9085,7 +9082,7 @@
         <v>243</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>37</v>
@@ -9102,7 +9099,7 @@
         <v>37</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>37</v>
@@ -9119,7 +9116,7 @@
         <v>240</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>148</v>
@@ -9136,7 +9133,7 @@
         <v>274</v>
       </c>
       <c r="C11" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>148</v>
@@ -9153,7 +9150,7 @@
         <v>148</v>
       </c>
       <c r="C12" s="9" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>148</v>
@@ -9229,16 +9226,16 @@
         <v>34</v>
       </c>
       <c r="B1" t="s">
+        <v>672</v>
+      </c>
+      <c r="C1" t="s">
         <v>673</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" s="1" t="s">
         <v>674</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>675</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>676</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="15" customHeight="1">
@@ -9300,13 +9297,13 @@
         <v>245</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>245</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -9376,13 +9373,13 @@
         <v>523</v>
       </c>
       <c r="C1" t="s">
+        <v>673</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>674</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>675</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>676</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="15" customHeight="1">
@@ -9486,13 +9483,13 @@
         <v>523</v>
       </c>
       <c r="C1" t="s">
+        <v>673</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>674</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>675</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>676</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="15" customHeight="1">
@@ -9596,13 +9593,13 @@
         <v>523</v>
       </c>
       <c r="C1" t="s">
+        <v>673</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>674</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>675</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>676</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="15" customHeight="1">
@@ -9698,13 +9695,13 @@
         <v>61</v>
       </c>
       <c r="C7" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>61</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="15" customHeight="1">
@@ -9961,13 +9958,13 @@
         <v>523</v>
       </c>
       <c r="C1" t="s">
+        <v>673</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>674</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>675</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>676</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="15" customHeight="1">
@@ -10156,13 +10153,13 @@
         <v>523</v>
       </c>
       <c r="C1" t="s">
+        <v>673</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>674</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>675</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>676</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="15" customHeight="1">
@@ -10368,13 +10365,13 @@
         <v>523</v>
       </c>
       <c r="C1" t="s">
+        <v>673</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>674</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>675</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>676</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="15" customHeight="1">
@@ -10705,16 +10702,16 @@
         <v>20</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
     </row>
     <row r="22" spans="1:5" s="1" customFormat="1" ht="15" customHeight="1">
@@ -10722,16 +10719,16 @@
         <v>21</v>
       </c>
       <c r="B22" s="1" t="s">
+        <v>717</v>
+      </c>
+      <c r="C22" s="1" t="s">
         <v>718</v>
       </c>
-      <c r="C22" s="1" t="s">
-        <v>719</v>
-      </c>
       <c r="D22" s="1" t="s">
+        <v>717</v>
+      </c>
+      <c r="E22" s="1" t="s">
         <v>718</v>
-      </c>
-      <c r="E22" s="1" t="s">
-        <v>719</v>
       </c>
     </row>
     <row r="23" spans="1:5" ht="15" customHeight="1">
@@ -10855,13 +10852,13 @@
         <v>523</v>
       </c>
       <c r="C1" t="s">
+        <v>673</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>674</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>675</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>676</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="15" customHeight="1">
@@ -10982,13 +10979,13 @@
         <v>523</v>
       </c>
       <c r="C1" t="s">
+        <v>673</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>674</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>675</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>676</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="15" customHeight="1">
@@ -11092,13 +11089,13 @@
         <v>523</v>
       </c>
       <c r="C1" t="s">
+        <v>673</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>674</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>675</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>676</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="15" customHeight="1">
@@ -11304,13 +11301,13 @@
         <v>523</v>
       </c>
       <c r="C1" t="s">
+        <v>673</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>674</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>675</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>676</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="15" customHeight="1">
@@ -11414,13 +11411,13 @@
         <v>523</v>
       </c>
       <c r="C1" t="s">
+        <v>673</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>674</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>675</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>676</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="15" customHeight="1">
@@ -11593,13 +11590,13 @@
         <v>523</v>
       </c>
       <c r="C1" t="s">
+        <v>673</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>674</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>675</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>676</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -11822,13 +11819,13 @@
         <v>523</v>
       </c>
       <c r="C1" t="s">
+        <v>673</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>674</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>675</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>676</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -11873,13 +11870,13 @@
         <v>496</v>
       </c>
       <c r="C4" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>496</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -11953,7 +11950,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="C2" t="s">
         <v>505</v>
@@ -11968,7 +11965,7 @@
         <v>526</v>
       </c>
       <c r="G2" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -11976,7 +11973,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="C3" t="s">
         <v>506</v>
@@ -11991,7 +11988,7 @@
         <v>526</v>
       </c>
       <c r="G3" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -11999,7 +11996,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="C4" t="s">
         <v>507</v>
@@ -12014,7 +12011,7 @@
         <v>526</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -12022,7 +12019,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="C5" t="s">
         <v>508</v>
@@ -12037,7 +12034,7 @@
         <v>526</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -12045,7 +12042,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="C6" t="s">
         <v>509</v>
@@ -12060,7 +12057,7 @@
         <v>526</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -12068,7 +12065,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="C7" t="s">
         <v>510</v>
@@ -12083,7 +12080,7 @@
         <v>526</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -12091,7 +12088,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="C8" t="s">
         <v>511</v>
@@ -12106,7 +12103,7 @@
         <v>526</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -12114,7 +12111,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="C9" t="s">
         <v>512</v>
@@ -12129,7 +12126,7 @@
         <v>526</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -12137,7 +12134,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="C10" t="s">
         <v>513</v>
@@ -12152,7 +12149,7 @@
         <v>526</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -12160,7 +12157,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="C11" t="s">
         <v>514</v>
@@ -12175,7 +12172,7 @@
         <v>526</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -12183,7 +12180,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="C12" t="s">
         <v>515</v>
@@ -12198,7 +12195,7 @@
         <v>526</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -12206,7 +12203,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="C13" t="s">
         <v>516</v>
@@ -12221,7 +12218,7 @@
         <v>526</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -12229,7 +12226,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="C14" t="s">
         <v>517</v>
@@ -12244,7 +12241,7 @@
         <v>526</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -12252,7 +12249,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="C15" t="s">
         <v>518</v>
@@ -12267,7 +12264,7 @@
         <v>526</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -12275,7 +12272,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="C16" t="s">
         <v>519</v>
@@ -12290,7 +12287,7 @@
         <v>526</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -12307,13 +12304,13 @@
         <v>99998</v>
       </c>
       <c r="E17" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="F17" t="s">
         <v>169</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -12330,13 +12327,13 @@
         <v>99998</v>
       </c>
       <c r="E18" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="F18" t="s">
         <v>497</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
     </row>
   </sheetData>
@@ -12367,16 +12364,16 @@
         <v>34</v>
       </c>
       <c r="B1" s="3" t="s">
+        <v>723</v>
+      </c>
+      <c r="C1" t="s">
         <v>724</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>725</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>726</v>
-      </c>
-      <c r="E1" t="s">
-        <v>727</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -12384,16 +12381,16 @@
         <v>1</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>1184</v>
+        <v>1183</v>
       </c>
       <c r="C2" t="s">
+        <v>727</v>
+      </c>
+      <c r="D2" t="s">
         <v>728</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>729</v>
-      </c>
-      <c r="E2" t="s">
-        <v>730</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -12401,16 +12398,16 @@
         <v>2</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>1185</v>
+        <v>1184</v>
       </c>
       <c r="C3" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="D3" t="s">
+        <v>730</v>
+      </c>
+      <c r="E3" t="s">
         <v>731</v>
-      </c>
-      <c r="E3" t="s">
-        <v>732</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -12418,16 +12415,16 @@
         <v>3</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>1186</v>
+        <v>1185</v>
       </c>
       <c r="C4" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="D4" t="s">
+        <v>732</v>
+      </c>
+      <c r="E4" t="s">
         <v>733</v>
-      </c>
-      <c r="E4" t="s">
-        <v>734</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -12435,16 +12432,16 @@
         <v>4</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>1187</v>
+        <v>1186</v>
       </c>
       <c r="C5" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="D5" t="s">
+        <v>734</v>
+      </c>
+      <c r="E5" t="s">
         <v>735</v>
-      </c>
-      <c r="E5" t="s">
-        <v>736</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -12452,16 +12449,16 @@
         <v>5</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>1188</v>
+        <v>1187</v>
       </c>
       <c r="C6" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="D6" t="s">
+        <v>736</v>
+      </c>
+      <c r="E6" t="s">
         <v>737</v>
-      </c>
-      <c r="E6" t="s">
-        <v>738</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -12469,16 +12466,16 @@
         <v>6</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>1189</v>
+        <v>1188</v>
       </c>
       <c r="C7" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="D7" t="s">
+        <v>738</v>
+      </c>
+      <c r="E7" t="s">
         <v>739</v>
-      </c>
-      <c r="E7" t="s">
-        <v>740</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -12486,16 +12483,16 @@
         <v>7</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>1190</v>
+        <v>1189</v>
       </c>
       <c r="C8" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="D8" t="s">
+        <v>740</v>
+      </c>
+      <c r="E8" t="s">
         <v>741</v>
-      </c>
-      <c r="E8" t="s">
-        <v>742</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -12503,16 +12500,16 @@
         <v>8</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>1191</v>
+        <v>1190</v>
       </c>
       <c r="C9" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="D9" t="s">
+        <v>742</v>
+      </c>
+      <c r="E9" t="s">
         <v>743</v>
-      </c>
-      <c r="E9" t="s">
-        <v>744</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -12520,16 +12517,16 @@
         <v>9</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>1192</v>
+        <v>1191</v>
       </c>
       <c r="C10" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="D10" t="s">
+        <v>744</v>
+      </c>
+      <c r="E10" t="s">
         <v>745</v>
-      </c>
-      <c r="E10" t="s">
-        <v>746</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -12537,16 +12534,16 @@
         <v>10</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>1193</v>
+        <v>1192</v>
       </c>
       <c r="C11" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="D11" t="s">
+        <v>746</v>
+      </c>
+      <c r="E11" t="s">
         <v>747</v>
-      </c>
-      <c r="E11" t="s">
-        <v>748</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -12554,16 +12551,16 @@
         <v>11</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>1194</v>
+        <v>1193</v>
       </c>
       <c r="C12" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="D12" t="s">
+        <v>748</v>
+      </c>
+      <c r="E12" t="s">
         <v>749</v>
-      </c>
-      <c r="E12" t="s">
-        <v>750</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -12571,16 +12568,16 @@
         <v>12</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>1195</v>
+        <v>1194</v>
       </c>
       <c r="C13" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="D13" t="s">
+        <v>750</v>
+      </c>
+      <c r="E13" t="s">
         <v>751</v>
-      </c>
-      <c r="E13" t="s">
-        <v>752</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -12588,16 +12585,16 @@
         <v>13</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>1196</v>
+        <v>1195</v>
       </c>
       <c r="C14" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="D14" t="s">
+        <v>752</v>
+      </c>
+      <c r="E14" t="s">
         <v>753</v>
-      </c>
-      <c r="E14" t="s">
-        <v>754</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -12605,16 +12602,16 @@
         <v>14</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>1197</v>
+        <v>1196</v>
       </c>
       <c r="C15" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="D15" t="s">
+        <v>754</v>
+      </c>
+      <c r="E15" t="s">
         <v>755</v>
-      </c>
-      <c r="E15" t="s">
-        <v>756</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -12622,16 +12619,16 @@
         <v>15</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>1198</v>
+        <v>1197</v>
       </c>
       <c r="C16" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="D16" t="s">
+        <v>756</v>
+      </c>
+      <c r="E16" t="s">
         <v>757</v>
-      </c>
-      <c r="E16" t="s">
-        <v>758</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -12639,16 +12636,16 @@
         <v>16</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>1199</v>
+        <v>1198</v>
       </c>
       <c r="C17" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="D17" t="s">
+        <v>758</v>
+      </c>
+      <c r="E17" t="s">
         <v>759</v>
-      </c>
-      <c r="E17" t="s">
-        <v>760</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -12656,16 +12653,16 @@
         <v>17</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>1200</v>
+        <v>1199</v>
       </c>
       <c r="C18" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="D18" t="s">
+        <v>760</v>
+      </c>
+      <c r="E18" t="s">
         <v>761</v>
-      </c>
-      <c r="E18" t="s">
-        <v>762</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -12673,16 +12670,16 @@
         <v>18</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>1201</v>
+        <v>1200</v>
       </c>
       <c r="C19" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="D19" t="s">
+        <v>762</v>
+      </c>
+      <c r="E19" t="s">
         <v>763</v>
-      </c>
-      <c r="E19" t="s">
-        <v>764</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -12690,16 +12687,16 @@
         <v>19</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>1202</v>
+        <v>1201</v>
       </c>
       <c r="C20" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="D20" t="s">
+        <v>764</v>
+      </c>
+      <c r="E20" t="s">
         <v>765</v>
-      </c>
-      <c r="E20" t="s">
-        <v>766</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -12707,16 +12704,16 @@
         <v>20</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>1203</v>
+        <v>1202</v>
       </c>
       <c r="C21" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="D21" t="s">
+        <v>766</v>
+      </c>
+      <c r="E21" t="s">
         <v>767</v>
-      </c>
-      <c r="E21" t="s">
-        <v>768</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -12724,16 +12721,16 @@
         <v>21</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>1204</v>
+        <v>1203</v>
       </c>
       <c r="C22" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="D22" t="s">
+        <v>768</v>
+      </c>
+      <c r="E22" t="s">
         <v>769</v>
-      </c>
-      <c r="E22" t="s">
-        <v>770</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -12741,16 +12738,16 @@
         <v>22</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>1205</v>
+        <v>1204</v>
       </c>
       <c r="C23" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="D23" t="s">
+        <v>770</v>
+      </c>
+      <c r="E23" t="s">
         <v>771</v>
-      </c>
-      <c r="E23" t="s">
-        <v>772</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -12758,16 +12755,16 @@
         <v>23</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>1206</v>
+        <v>1205</v>
       </c>
       <c r="C24" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="D24" t="s">
+        <v>772</v>
+      </c>
+      <c r="E24" t="s">
         <v>773</v>
-      </c>
-      <c r="E24" t="s">
-        <v>774</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -12775,16 +12772,16 @@
         <v>24</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>1207</v>
+        <v>1206</v>
       </c>
       <c r="C25" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="D25" t="s">
+        <v>774</v>
+      </c>
+      <c r="E25" t="s">
         <v>775</v>
-      </c>
-      <c r="E25" t="s">
-        <v>776</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -12792,16 +12789,16 @@
         <v>25</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>1208</v>
+        <v>1207</v>
       </c>
       <c r="C26" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="D26" t="s">
+        <v>776</v>
+      </c>
+      <c r="E26" t="s">
         <v>777</v>
-      </c>
-      <c r="E26" t="s">
-        <v>778</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -12809,16 +12806,16 @@
         <v>26</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>1209</v>
+        <v>1208</v>
       </c>
       <c r="C27" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="D27" t="s">
+        <v>778</v>
+      </c>
+      <c r="E27" t="s">
         <v>779</v>
-      </c>
-      <c r="E27" t="s">
-        <v>780</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -12826,16 +12823,16 @@
         <v>27</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>1210</v>
+        <v>1209</v>
       </c>
       <c r="C28" t="s">
+        <v>780</v>
+      </c>
+      <c r="D28" t="s">
         <v>781</v>
       </c>
-      <c r="D28" t="s">
+      <c r="E28" t="s">
         <v>782</v>
-      </c>
-      <c r="E28" t="s">
-        <v>783</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -12843,16 +12840,16 @@
         <v>28</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>1211</v>
+        <v>1210</v>
       </c>
       <c r="C29" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="D29" t="s">
+        <v>783</v>
+      </c>
+      <c r="E29" t="s">
         <v>784</v>
-      </c>
-      <c r="E29" t="s">
-        <v>785</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -12860,16 +12857,16 @@
         <v>29</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>1212</v>
+        <v>1211</v>
       </c>
       <c r="C30" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="D30" t="s">
+        <v>785</v>
+      </c>
+      <c r="E30" t="s">
         <v>786</v>
-      </c>
-      <c r="E30" t="s">
-        <v>787</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -12877,16 +12874,16 @@
         <v>30</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>1213</v>
+        <v>1212</v>
       </c>
       <c r="C31" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="D31" t="s">
+        <v>787</v>
+      </c>
+      <c r="E31" t="s">
         <v>788</v>
-      </c>
-      <c r="E31" t="s">
-        <v>789</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -12894,16 +12891,16 @@
         <v>31</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>1214</v>
+        <v>1213</v>
       </c>
       <c r="C32" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="D32" t="s">
+        <v>789</v>
+      </c>
+      <c r="E32" t="s">
         <v>790</v>
-      </c>
-      <c r="E32" t="s">
-        <v>791</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -12911,16 +12908,16 @@
         <v>32</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>1215</v>
+        <v>1214</v>
       </c>
       <c r="C33" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="D33" t="s">
+        <v>791</v>
+      </c>
+      <c r="E33" t="s">
         <v>792</v>
-      </c>
-      <c r="E33" t="s">
-        <v>793</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -12928,16 +12925,16 @@
         <v>33</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>1216</v>
+        <v>1215</v>
       </c>
       <c r="C34" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="D34" t="s">
+        <v>793</v>
+      </c>
+      <c r="E34" t="s">
         <v>794</v>
-      </c>
-      <c r="E34" t="s">
-        <v>795</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -12945,16 +12942,16 @@
         <v>34</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>1217</v>
+        <v>1216</v>
       </c>
       <c r="C35" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="D35" t="s">
+        <v>795</v>
+      </c>
+      <c r="E35" t="s">
         <v>796</v>
-      </c>
-      <c r="E35" t="s">
-        <v>797</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -12962,16 +12959,16 @@
         <v>35</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>1218</v>
+        <v>1217</v>
       </c>
       <c r="C36" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="D36" t="s">
+        <v>797</v>
+      </c>
+      <c r="E36" t="s">
         <v>798</v>
-      </c>
-      <c r="E36" t="s">
-        <v>799</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -12979,16 +12976,16 @@
         <v>36</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>1219</v>
+        <v>1218</v>
       </c>
       <c r="C37" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="D37" t="s">
+        <v>799</v>
+      </c>
+      <c r="E37" t="s">
         <v>800</v>
-      </c>
-      <c r="E37" t="s">
-        <v>801</v>
       </c>
     </row>
     <row r="38" spans="1:5">
@@ -12996,16 +12993,16 @@
         <v>37</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
       <c r="C38" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="D38" t="s">
+        <v>801</v>
+      </c>
+      <c r="E38" t="s">
         <v>802</v>
-      </c>
-      <c r="E38" t="s">
-        <v>803</v>
       </c>
     </row>
     <row r="39" spans="1:5">
@@ -13013,16 +13010,16 @@
         <v>38</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>1221</v>
+        <v>1220</v>
       </c>
       <c r="C39" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="D39" t="s">
+        <v>803</v>
+      </c>
+      <c r="E39" t="s">
         <v>804</v>
-      </c>
-      <c r="E39" t="s">
-        <v>805</v>
       </c>
     </row>
     <row r="40" spans="1:5">
@@ -13030,16 +13027,16 @@
         <v>39</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>1222</v>
+        <v>1221</v>
       </c>
       <c r="C40" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="D40" t="s">
+        <v>805</v>
+      </c>
+      <c r="E40" t="s">
         <v>806</v>
-      </c>
-      <c r="E40" t="s">
-        <v>807</v>
       </c>
     </row>
     <row r="41" spans="1:5">
@@ -13047,16 +13044,16 @@
         <v>40</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>1223</v>
+        <v>1222</v>
       </c>
       <c r="C41" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="D41" t="s">
+        <v>807</v>
+      </c>
+      <c r="E41" t="s">
         <v>808</v>
-      </c>
-      <c r="E41" t="s">
-        <v>809</v>
       </c>
     </row>
     <row r="42" spans="1:5">
@@ -13064,16 +13061,16 @@
         <v>41</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>1224</v>
+        <v>1223</v>
       </c>
       <c r="C42" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="D42" t="s">
+        <v>809</v>
+      </c>
+      <c r="E42" t="s">
         <v>810</v>
-      </c>
-      <c r="E42" t="s">
-        <v>811</v>
       </c>
     </row>
     <row r="43" spans="1:5">
@@ -13081,16 +13078,16 @@
         <v>42</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>1225</v>
+        <v>1224</v>
       </c>
       <c r="C43" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="D43" t="s">
+        <v>811</v>
+      </c>
+      <c r="E43" t="s">
         <v>812</v>
-      </c>
-      <c r="E43" t="s">
-        <v>813</v>
       </c>
     </row>
     <row r="44" spans="1:5">
@@ -13098,16 +13095,16 @@
         <v>43</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>1226</v>
+        <v>1225</v>
       </c>
       <c r="C44" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="D44" t="s">
+        <v>813</v>
+      </c>
+      <c r="E44" t="s">
         <v>814</v>
-      </c>
-      <c r="E44" t="s">
-        <v>815</v>
       </c>
     </row>
     <row r="45" spans="1:5">
@@ -13115,16 +13112,16 @@
         <v>44</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>1227</v>
+        <v>1226</v>
       </c>
       <c r="C45" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="D45" t="s">
+        <v>815</v>
+      </c>
+      <c r="E45" t="s">
         <v>816</v>
-      </c>
-      <c r="E45" t="s">
-        <v>817</v>
       </c>
     </row>
     <row r="46" spans="1:5">
@@ -13132,16 +13129,16 @@
         <v>45</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>1228</v>
+        <v>1227</v>
       </c>
       <c r="C46" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="D46" t="s">
+        <v>817</v>
+      </c>
+      <c r="E46" t="s">
         <v>818</v>
-      </c>
-      <c r="E46" t="s">
-        <v>819</v>
       </c>
     </row>
     <row r="47" spans="1:5">
@@ -13149,16 +13146,16 @@
         <v>46</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>1229</v>
+        <v>1228</v>
       </c>
       <c r="C47" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="D47" t="s">
+        <v>819</v>
+      </c>
+      <c r="E47" t="s">
         <v>820</v>
-      </c>
-      <c r="E47" t="s">
-        <v>821</v>
       </c>
     </row>
     <row r="48" spans="1:5">
@@ -13166,16 +13163,16 @@
         <v>47</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>1230</v>
+        <v>1229</v>
       </c>
       <c r="C48" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="D48" t="s">
+        <v>821</v>
+      </c>
+      <c r="E48" t="s">
         <v>822</v>
-      </c>
-      <c r="E48" t="s">
-        <v>823</v>
       </c>
     </row>
     <row r="49" spans="1:5">
@@ -13183,16 +13180,16 @@
         <v>48</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>1231</v>
+        <v>1230</v>
       </c>
       <c r="C49" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="D49" t="s">
+        <v>823</v>
+      </c>
+      <c r="E49" t="s">
         <v>824</v>
-      </c>
-      <c r="E49" t="s">
-        <v>825</v>
       </c>
     </row>
     <row r="50" spans="1:5">
@@ -13200,16 +13197,16 @@
         <v>49</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>1232</v>
+        <v>1231</v>
       </c>
       <c r="C50" t="s">
+        <v>825</v>
+      </c>
+      <c r="D50" t="s">
+        <v>781</v>
+      </c>
+      <c r="E50" t="s">
         <v>826</v>
-      </c>
-      <c r="D50" t="s">
-        <v>782</v>
-      </c>
-      <c r="E50" t="s">
-        <v>827</v>
       </c>
     </row>
     <row r="51" spans="1:5">
@@ -13217,16 +13214,16 @@
         <v>50</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>1233</v>
+        <v>1232</v>
       </c>
       <c r="C51" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
       <c r="D51" t="s">
+        <v>827</v>
+      </c>
+      <c r="E51" t="s">
         <v>828</v>
-      </c>
-      <c r="E51" t="s">
-        <v>829</v>
       </c>
     </row>
     <row r="52" spans="1:5">
@@ -13234,16 +13231,16 @@
         <v>51</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>1234</v>
+        <v>1233</v>
       </c>
       <c r="C52" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
       <c r="D52" t="s">
+        <v>829</v>
+      </c>
+      <c r="E52" t="s">
         <v>830</v>
-      </c>
-      <c r="E52" t="s">
-        <v>831</v>
       </c>
     </row>
     <row r="53" spans="1:5">
@@ -13251,16 +13248,16 @@
         <v>52</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>1235</v>
+        <v>1234</v>
       </c>
       <c r="C53" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
       <c r="D53" t="s">
+        <v>831</v>
+      </c>
+      <c r="E53" t="s">
         <v>832</v>
-      </c>
-      <c r="E53" t="s">
-        <v>833</v>
       </c>
     </row>
     <row r="54" spans="1:5">
@@ -13268,16 +13265,16 @@
         <v>53</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>1236</v>
+        <v>1235</v>
       </c>
       <c r="C54" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
       <c r="D54" t="s">
+        <v>833</v>
+      </c>
+      <c r="E54" t="s">
         <v>834</v>
-      </c>
-      <c r="E54" t="s">
-        <v>835</v>
       </c>
     </row>
     <row r="55" spans="1:5">
@@ -13285,16 +13282,16 @@
         <v>54</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>1237</v>
+        <v>1236</v>
       </c>
       <c r="C55" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
       <c r="D55" t="s">
+        <v>835</v>
+      </c>
+      <c r="E55" t="s">
         <v>836</v>
-      </c>
-      <c r="E55" t="s">
-        <v>837</v>
       </c>
     </row>
     <row r="56" spans="1:5">
@@ -13302,16 +13299,16 @@
         <v>55</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>1238</v>
+        <v>1237</v>
       </c>
       <c r="C56" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
       <c r="D56" t="s">
+        <v>837</v>
+      </c>
+      <c r="E56" t="s">
         <v>838</v>
-      </c>
-      <c r="E56" t="s">
-        <v>839</v>
       </c>
     </row>
     <row r="57" spans="1:5">
@@ -13319,16 +13316,16 @@
         <v>56</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>1239</v>
+        <v>1238</v>
       </c>
       <c r="C57" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
       <c r="D57" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="E57" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
     </row>
     <row r="58" spans="1:5">
@@ -13336,16 +13333,16 @@
         <v>57</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>1240</v>
+        <v>1239</v>
       </c>
       <c r="C58" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
       <c r="D58" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="E58" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
     </row>
     <row r="59" spans="1:5">
@@ -13353,16 +13350,16 @@
         <v>58</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>1241</v>
+        <v>1240</v>
       </c>
       <c r="C59" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
       <c r="D59" t="s">
+        <v>841</v>
+      </c>
+      <c r="E59" t="s">
         <v>842</v>
-      </c>
-      <c r="E59" t="s">
-        <v>843</v>
       </c>
     </row>
     <row r="60" spans="1:5">
@@ -13370,16 +13367,16 @@
         <v>59</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>1242</v>
+        <v>1241</v>
       </c>
       <c r="C60" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
       <c r="D60" t="s">
+        <v>843</v>
+      </c>
+      <c r="E60" t="s">
         <v>844</v>
-      </c>
-      <c r="E60" t="s">
-        <v>845</v>
       </c>
     </row>
     <row r="61" spans="1:5">
@@ -13387,16 +13384,16 @@
         <v>60</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>1243</v>
+        <v>1242</v>
       </c>
       <c r="C61" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
       <c r="D61" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="E61" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
     </row>
     <row r="62" spans="1:5">
@@ -13404,16 +13401,16 @@
         <v>61</v>
       </c>
       <c r="B62" s="3" t="s">
-        <v>1244</v>
+        <v>1243</v>
       </c>
       <c r="C62" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
       <c r="D62" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
       <c r="E62" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
     </row>
     <row r="63" spans="1:5">
@@ -13421,16 +13418,16 @@
         <v>62</v>
       </c>
       <c r="B63" s="3" t="s">
-        <v>1245</v>
+        <v>1244</v>
       </c>
       <c r="C63" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
       <c r="D63" t="s">
+        <v>847</v>
+      </c>
+      <c r="E63" t="s">
         <v>848</v>
-      </c>
-      <c r="E63" t="s">
-        <v>849</v>
       </c>
     </row>
     <row r="64" spans="1:5">
@@ -13438,16 +13435,16 @@
         <v>63</v>
       </c>
       <c r="B64" s="3" t="s">
-        <v>1246</v>
+        <v>1245</v>
       </c>
       <c r="C64" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
       <c r="D64" t="s">
+        <v>849</v>
+      </c>
+      <c r="E64" t="s">
         <v>850</v>
-      </c>
-      <c r="E64" t="s">
-        <v>851</v>
       </c>
     </row>
     <row r="65" spans="1:5">
@@ -13455,16 +13452,16 @@
         <v>64</v>
       </c>
       <c r="B65" s="3" t="s">
-        <v>1247</v>
+        <v>1246</v>
       </c>
       <c r="C65" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
       <c r="D65" t="s">
+        <v>851</v>
+      </c>
+      <c r="E65" t="s">
         <v>852</v>
-      </c>
-      <c r="E65" t="s">
-        <v>853</v>
       </c>
     </row>
     <row r="66" spans="1:5">
@@ -13472,16 +13469,16 @@
         <v>65</v>
       </c>
       <c r="B66" s="3" t="s">
-        <v>1248</v>
+        <v>1247</v>
       </c>
       <c r="C66" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
       <c r="D66" t="s">
+        <v>853</v>
+      </c>
+      <c r="E66" t="s">
         <v>854</v>
-      </c>
-      <c r="E66" t="s">
-        <v>855</v>
       </c>
     </row>
     <row r="67" spans="1:5">
@@ -13489,16 +13486,16 @@
         <v>66</v>
       </c>
       <c r="B67" s="3" t="s">
-        <v>1249</v>
+        <v>1248</v>
       </c>
       <c r="C67" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
       <c r="D67" t="s">
+        <v>855</v>
+      </c>
+      <c r="E67" t="s">
         <v>856</v>
-      </c>
-      <c r="E67" t="s">
-        <v>857</v>
       </c>
     </row>
     <row r="68" spans="1:5">
@@ -13506,16 +13503,16 @@
         <v>67</v>
       </c>
       <c r="B68" s="3" t="s">
-        <v>1250</v>
+        <v>1249</v>
       </c>
       <c r="C68" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
       <c r="D68" t="s">
+        <v>857</v>
+      </c>
+      <c r="E68" t="s">
         <v>858</v>
-      </c>
-      <c r="E68" t="s">
-        <v>859</v>
       </c>
     </row>
     <row r="69" spans="1:5">
@@ -13523,16 +13520,16 @@
         <v>68</v>
       </c>
       <c r="B69" s="3" t="s">
-        <v>1251</v>
+        <v>1250</v>
       </c>
       <c r="C69" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
       <c r="D69" t="s">
+        <v>859</v>
+      </c>
+      <c r="E69" t="s">
         <v>860</v>
-      </c>
-      <c r="E69" t="s">
-        <v>861</v>
       </c>
     </row>
     <row r="70" spans="1:5">
@@ -13540,16 +13537,16 @@
         <v>69</v>
       </c>
       <c r="B70" s="3" t="s">
-        <v>1252</v>
+        <v>1251</v>
       </c>
       <c r="C70" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
       <c r="D70" t="s">
+        <v>861</v>
+      </c>
+      <c r="E70" t="s">
         <v>862</v>
-      </c>
-      <c r="E70" t="s">
-        <v>863</v>
       </c>
     </row>
     <row r="71" spans="1:5">
@@ -13557,16 +13554,16 @@
         <v>70</v>
       </c>
       <c r="B71" s="3" t="s">
-        <v>1253</v>
+        <v>1252</v>
       </c>
       <c r="C71" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
       <c r="D71" t="s">
+        <v>863</v>
+      </c>
+      <c r="E71" t="s">
         <v>864</v>
-      </c>
-      <c r="E71" t="s">
-        <v>865</v>
       </c>
     </row>
     <row r="72" spans="1:5">
@@ -13574,16 +13571,16 @@
         <v>71</v>
       </c>
       <c r="B72" s="3" t="s">
-        <v>1254</v>
+        <v>1253</v>
       </c>
       <c r="C72" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
       <c r="D72" t="s">
+        <v>865</v>
+      </c>
+      <c r="E72" t="s">
         <v>866</v>
-      </c>
-      <c r="E72" t="s">
-        <v>867</v>
       </c>
     </row>
     <row r="73" spans="1:5">
@@ -13591,16 +13588,16 @@
         <v>72</v>
       </c>
       <c r="B73" s="3" t="s">
-        <v>1255</v>
+        <v>1254</v>
       </c>
       <c r="C73" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
       <c r="D73" t="s">
+        <v>867</v>
+      </c>
+      <c r="E73" t="s">
         <v>868</v>
-      </c>
-      <c r="E73" t="s">
-        <v>869</v>
       </c>
     </row>
     <row r="74" spans="1:5">
@@ -13608,16 +13605,16 @@
         <v>73</v>
       </c>
       <c r="B74" s="3" t="s">
-        <v>1256</v>
+        <v>1255</v>
       </c>
       <c r="C74" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
       <c r="D74" t="s">
+        <v>869</v>
+      </c>
+      <c r="E74" t="s">
         <v>870</v>
-      </c>
-      <c r="E74" t="s">
-        <v>871</v>
       </c>
     </row>
     <row r="75" spans="1:5">
@@ -13625,16 +13622,16 @@
         <v>74</v>
       </c>
       <c r="B75" s="3" t="s">
-        <v>1257</v>
+        <v>1256</v>
       </c>
       <c r="C75" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
       <c r="D75" t="s">
+        <v>871</v>
+      </c>
+      <c r="E75" t="s">
         <v>872</v>
-      </c>
-      <c r="E75" t="s">
-        <v>873</v>
       </c>
     </row>
     <row r="76" spans="1:5">
@@ -13642,16 +13639,16 @@
         <v>75</v>
       </c>
       <c r="B76" s="3" t="s">
-        <v>1258</v>
+        <v>1257</v>
       </c>
       <c r="C76" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
       <c r="D76" t="s">
+        <v>873</v>
+      </c>
+      <c r="E76" t="s">
         <v>874</v>
-      </c>
-      <c r="E76" t="s">
-        <v>875</v>
       </c>
     </row>
     <row r="77" spans="1:5">
@@ -13659,16 +13656,16 @@
         <v>76</v>
       </c>
       <c r="B77" s="3" t="s">
-        <v>1259</v>
+        <v>1258</v>
       </c>
       <c r="C77" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
       <c r="D77" t="s">
+        <v>875</v>
+      </c>
+      <c r="E77" t="s">
         <v>876</v>
-      </c>
-      <c r="E77" t="s">
-        <v>877</v>
       </c>
     </row>
     <row r="78" spans="1:5">
@@ -13676,16 +13673,16 @@
         <v>77</v>
       </c>
       <c r="B78" s="3" t="s">
-        <v>1260</v>
+        <v>1259</v>
       </c>
       <c r="C78" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
       <c r="D78" t="s">
+        <v>877</v>
+      </c>
+      <c r="E78" t="s">
         <v>878</v>
-      </c>
-      <c r="E78" t="s">
-        <v>879</v>
       </c>
     </row>
     <row r="79" spans="1:5">
@@ -13693,16 +13690,16 @@
         <v>78</v>
       </c>
       <c r="B79" s="3" t="s">
-        <v>1261</v>
+        <v>1260</v>
       </c>
       <c r="C79" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
       <c r="D79" t="s">
+        <v>879</v>
+      </c>
+      <c r="E79" t="s">
         <v>880</v>
-      </c>
-      <c r="E79" t="s">
-        <v>881</v>
       </c>
     </row>
     <row r="80" spans="1:5">
@@ -13710,16 +13707,16 @@
         <v>79</v>
       </c>
       <c r="B80" s="3" t="s">
-        <v>1262</v>
+        <v>1261</v>
       </c>
       <c r="C80" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
       <c r="D80" t="s">
+        <v>881</v>
+      </c>
+      <c r="E80" t="s">
         <v>882</v>
-      </c>
-      <c r="E80" t="s">
-        <v>883</v>
       </c>
     </row>
     <row r="81" spans="1:5">
@@ -13727,16 +13724,16 @@
         <v>80</v>
       </c>
       <c r="B81" s="3" t="s">
-        <v>1263</v>
+        <v>1262</v>
       </c>
       <c r="C81" t="s">
+        <v>883</v>
+      </c>
+      <c r="D81" t="s">
+        <v>781</v>
+      </c>
+      <c r="E81" t="s">
         <v>884</v>
-      </c>
-      <c r="D81" t="s">
-        <v>782</v>
-      </c>
-      <c r="E81" t="s">
-        <v>885</v>
       </c>
     </row>
     <row r="82" spans="1:5">
@@ -13744,16 +13741,16 @@
         <v>81</v>
       </c>
       <c r="B82" s="3" t="s">
-        <v>1264</v>
+        <v>1263</v>
       </c>
       <c r="C82" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="D82" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="E82" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
     </row>
     <row r="83" spans="1:5">
@@ -13761,16 +13758,16 @@
         <v>82</v>
       </c>
       <c r="B83" s="3" t="s">
-        <v>1265</v>
+        <v>1264</v>
       </c>
       <c r="C83" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="D83" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="E83" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
     </row>
     <row r="84" spans="1:5">
@@ -13778,16 +13775,16 @@
         <v>83</v>
       </c>
       <c r="B84" s="3" t="s">
-        <v>1266</v>
+        <v>1265</v>
       </c>
       <c r="C84" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="D84" t="s">
+        <v>887</v>
+      </c>
+      <c r="E84" t="s">
         <v>888</v>
-      </c>
-      <c r="E84" t="s">
-        <v>889</v>
       </c>
     </row>
     <row r="85" spans="1:5">
@@ -13795,16 +13792,16 @@
         <v>84</v>
       </c>
       <c r="B85" s="3" t="s">
-        <v>1267</v>
+        <v>1266</v>
       </c>
       <c r="C85" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="D85" t="s">
+        <v>889</v>
+      </c>
+      <c r="E85" t="s">
         <v>890</v>
-      </c>
-      <c r="E85" t="s">
-        <v>891</v>
       </c>
     </row>
     <row r="86" spans="1:5">
@@ -13812,16 +13809,16 @@
         <v>85</v>
       </c>
       <c r="B86" s="3" t="s">
-        <v>1268</v>
+        <v>1267</v>
       </c>
       <c r="C86" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="D86" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="E86" t="s">
-        <v>892</v>
+        <v>891</v>
       </c>
     </row>
     <row r="87" spans="1:5">
@@ -13829,16 +13826,16 @@
         <v>86</v>
       </c>
       <c r="B87" s="3" t="s">
-        <v>1269</v>
+        <v>1268</v>
       </c>
       <c r="C87" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="D87" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="E87" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
     </row>
     <row r="88" spans="1:5">
@@ -13846,16 +13843,16 @@
         <v>87</v>
       </c>
       <c r="B88" s="3" t="s">
-        <v>1270</v>
+        <v>1269</v>
       </c>
       <c r="C88" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="D88" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="E88" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
     </row>
     <row r="89" spans="1:5">
@@ -13863,16 +13860,16 @@
         <v>88</v>
       </c>
       <c r="B89" s="3" t="s">
-        <v>1271</v>
+        <v>1270</v>
       </c>
       <c r="C89" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="D89" t="s">
+        <v>893</v>
+      </c>
+      <c r="E89" t="s">
         <v>894</v>
-      </c>
-      <c r="E89" t="s">
-        <v>895</v>
       </c>
     </row>
     <row r="90" spans="1:5">
@@ -13880,16 +13877,16 @@
         <v>89</v>
       </c>
       <c r="B90" s="3" t="s">
-        <v>1272</v>
+        <v>1271</v>
       </c>
       <c r="C90" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="D90" t="s">
+        <v>895</v>
+      </c>
+      <c r="E90" t="s">
         <v>896</v>
-      </c>
-      <c r="E90" t="s">
-        <v>897</v>
       </c>
     </row>
     <row r="91" spans="1:5">
@@ -13897,16 +13894,16 @@
         <v>90</v>
       </c>
       <c r="B91" s="3" t="s">
-        <v>1273</v>
+        <v>1272</v>
       </c>
       <c r="C91" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="D91" t="s">
+        <v>897</v>
+      </c>
+      <c r="E91" t="s">
         <v>898</v>
-      </c>
-      <c r="E91" t="s">
-        <v>899</v>
       </c>
     </row>
     <row r="92" spans="1:5">
@@ -13914,16 +13911,16 @@
         <v>91</v>
       </c>
       <c r="B92" s="3" t="s">
-        <v>1274</v>
+        <v>1273</v>
       </c>
       <c r="C92" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="D92" t="s">
+        <v>899</v>
+      </c>
+      <c r="E92" t="s">
         <v>900</v>
-      </c>
-      <c r="E92" t="s">
-        <v>901</v>
       </c>
     </row>
     <row r="93" spans="1:5">
@@ -13931,16 +13928,16 @@
         <v>92</v>
       </c>
       <c r="B93" s="3" t="s">
-        <v>1275</v>
+        <v>1274</v>
       </c>
       <c r="C93" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="D93" t="s">
+        <v>901</v>
+      </c>
+      <c r="E93" t="s">
         <v>902</v>
-      </c>
-      <c r="E93" t="s">
-        <v>903</v>
       </c>
     </row>
     <row r="94" spans="1:5">
@@ -13948,16 +13945,16 @@
         <v>93</v>
       </c>
       <c r="B94" s="3" t="s">
-        <v>1276</v>
+        <v>1275</v>
       </c>
       <c r="C94" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="D94" t="s">
+        <v>903</v>
+      </c>
+      <c r="E94" t="s">
         <v>904</v>
-      </c>
-      <c r="E94" t="s">
-        <v>905</v>
       </c>
     </row>
     <row r="95" spans="1:5">
@@ -13965,16 +13962,16 @@
         <v>94</v>
       </c>
       <c r="B95" s="3" t="s">
-        <v>1277</v>
+        <v>1276</v>
       </c>
       <c r="C95" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="D95" t="s">
+        <v>905</v>
+      </c>
+      <c r="E95" t="s">
         <v>906</v>
-      </c>
-      <c r="E95" t="s">
-        <v>907</v>
       </c>
     </row>
     <row r="96" spans="1:5">
@@ -13982,16 +13979,16 @@
         <v>95</v>
       </c>
       <c r="B96" s="3" t="s">
-        <v>1278</v>
+        <v>1277</v>
       </c>
       <c r="C96" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="D96" t="s">
+        <v>907</v>
+      </c>
+      <c r="E96" t="s">
         <v>908</v>
-      </c>
-      <c r="E96" t="s">
-        <v>909</v>
       </c>
     </row>
     <row r="97" spans="1:5">
@@ -13999,16 +13996,16 @@
         <v>96</v>
       </c>
       <c r="B97" s="3" t="s">
-        <v>1279</v>
+        <v>1278</v>
       </c>
       <c r="C97" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="D97" t="s">
+        <v>909</v>
+      </c>
+      <c r="E97" t="s">
         <v>910</v>
-      </c>
-      <c r="E97" t="s">
-        <v>911</v>
       </c>
     </row>
     <row r="98" spans="1:5">
@@ -14016,16 +14013,16 @@
         <v>97</v>
       </c>
       <c r="B98" s="3" t="s">
-        <v>1280</v>
+        <v>1279</v>
       </c>
       <c r="C98" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="D98" t="s">
+        <v>911</v>
+      </c>
+      <c r="E98" t="s">
         <v>912</v>
-      </c>
-      <c r="E98" t="s">
-        <v>913</v>
       </c>
     </row>
     <row r="99" spans="1:5">
@@ -14033,16 +14030,16 @@
         <v>98</v>
       </c>
       <c r="B99" s="3" t="s">
-        <v>1281</v>
+        <v>1280</v>
       </c>
       <c r="C99" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="D99" t="s">
+        <v>913</v>
+      </c>
+      <c r="E99" t="s">
         <v>914</v>
-      </c>
-      <c r="E99" t="s">
-        <v>915</v>
       </c>
     </row>
     <row r="100" spans="1:5">
@@ -14050,16 +14047,16 @@
         <v>99</v>
       </c>
       <c r="B100" s="3" t="s">
-        <v>1282</v>
+        <v>1281</v>
       </c>
       <c r="C100" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="D100" t="s">
+        <v>915</v>
+      </c>
+      <c r="E100" t="s">
         <v>916</v>
-      </c>
-      <c r="E100" t="s">
-        <v>917</v>
       </c>
     </row>
     <row r="101" spans="1:5">
@@ -14067,16 +14064,16 @@
         <v>100</v>
       </c>
       <c r="B101" s="3" t="s">
-        <v>1283</v>
+        <v>1282</v>
       </c>
       <c r="C101" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="D101" t="s">
+        <v>917</v>
+      </c>
+      <c r="E101" t="s">
         <v>918</v>
-      </c>
-      <c r="E101" t="s">
-        <v>919</v>
       </c>
     </row>
     <row r="102" spans="1:5">
@@ -14084,16 +14081,16 @@
         <v>101</v>
       </c>
       <c r="B102" s="3" t="s">
-        <v>1284</v>
+        <v>1283</v>
       </c>
       <c r="C102" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="D102" t="s">
+        <v>919</v>
+      </c>
+      <c r="E102" t="s">
         <v>920</v>
-      </c>
-      <c r="E102" t="s">
-        <v>921</v>
       </c>
     </row>
     <row r="103" spans="1:5">
@@ -14101,16 +14098,16 @@
         <v>102</v>
       </c>
       <c r="B103" s="3" t="s">
-        <v>1285</v>
+        <v>1284</v>
       </c>
       <c r="C103" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="D103" t="s">
+        <v>921</v>
+      </c>
+      <c r="E103" t="s">
         <v>922</v>
-      </c>
-      <c r="E103" t="s">
-        <v>923</v>
       </c>
     </row>
     <row r="104" spans="1:5">
@@ -14118,16 +14115,16 @@
         <v>103</v>
       </c>
       <c r="B104" s="3" t="s">
-        <v>1286</v>
+        <v>1285</v>
       </c>
       <c r="C104" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="D104" t="s">
+        <v>923</v>
+      </c>
+      <c r="E104" t="s">
         <v>924</v>
-      </c>
-      <c r="E104" t="s">
-        <v>925</v>
       </c>
     </row>
     <row r="105" spans="1:5">
@@ -14135,16 +14132,16 @@
         <v>104</v>
       </c>
       <c r="B105" s="3" t="s">
-        <v>1287</v>
+        <v>1286</v>
       </c>
       <c r="C105" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="D105" t="s">
+        <v>925</v>
+      </c>
+      <c r="E105" t="s">
         <v>926</v>
-      </c>
-      <c r="E105" t="s">
-        <v>927</v>
       </c>
     </row>
     <row r="106" spans="1:5">
@@ -14152,16 +14149,16 @@
         <v>105</v>
       </c>
       <c r="B106" s="3" t="s">
-        <v>1288</v>
+        <v>1287</v>
       </c>
       <c r="C106" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="D106" t="s">
+        <v>927</v>
+      </c>
+      <c r="E106" t="s">
         <v>928</v>
-      </c>
-      <c r="E106" t="s">
-        <v>929</v>
       </c>
     </row>
     <row r="107" spans="1:5">
@@ -14169,16 +14166,16 @@
         <v>106</v>
       </c>
       <c r="B107" s="3" t="s">
-        <v>1289</v>
+        <v>1288</v>
       </c>
       <c r="C107" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="D107" t="s">
+        <v>929</v>
+      </c>
+      <c r="E107" t="s">
         <v>930</v>
-      </c>
-      <c r="E107" t="s">
-        <v>931</v>
       </c>
     </row>
     <row r="108" spans="1:5">
@@ -14186,16 +14183,16 @@
         <v>107</v>
       </c>
       <c r="B108" s="3" t="s">
-        <v>1290</v>
+        <v>1289</v>
       </c>
       <c r="C108" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="D108" t="s">
+        <v>931</v>
+      </c>
+      <c r="E108" t="s">
         <v>932</v>
-      </c>
-      <c r="E108" t="s">
-        <v>933</v>
       </c>
     </row>
     <row r="109" spans="1:5">
@@ -14203,16 +14200,16 @@
         <v>108</v>
       </c>
       <c r="B109" s="3" t="s">
-        <v>1291</v>
+        <v>1290</v>
       </c>
       <c r="C109" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="D109" t="s">
+        <v>933</v>
+      </c>
+      <c r="E109" t="s">
         <v>934</v>
-      </c>
-      <c r="E109" t="s">
-        <v>935</v>
       </c>
     </row>
     <row r="110" spans="1:5">
@@ -14220,16 +14217,16 @@
         <v>109</v>
       </c>
       <c r="B110" s="3" t="s">
-        <v>1292</v>
+        <v>1291</v>
       </c>
       <c r="C110" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="D110" t="s">
+        <v>935</v>
+      </c>
+      <c r="E110" t="s">
         <v>936</v>
-      </c>
-      <c r="E110" t="s">
-        <v>937</v>
       </c>
     </row>
     <row r="111" spans="1:5">
@@ -14237,16 +14234,16 @@
         <v>110</v>
       </c>
       <c r="B111" s="3" t="s">
-        <v>1293</v>
+        <v>1292</v>
       </c>
       <c r="C111" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="D111" t="s">
+        <v>937</v>
+      </c>
+      <c r="E111" t="s">
         <v>938</v>
-      </c>
-      <c r="E111" t="s">
-        <v>939</v>
       </c>
     </row>
     <row r="112" spans="1:5">
@@ -14254,16 +14251,16 @@
         <v>111</v>
       </c>
       <c r="B112" s="3" t="s">
-        <v>1294</v>
+        <v>1293</v>
       </c>
       <c r="C112" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="D112" t="s">
+        <v>939</v>
+      </c>
+      <c r="E112" t="s">
         <v>940</v>
-      </c>
-      <c r="E112" t="s">
-        <v>941</v>
       </c>
     </row>
     <row r="113" spans="1:5">
@@ -14271,16 +14268,16 @@
         <v>112</v>
       </c>
       <c r="B113" s="3" t="s">
-        <v>1295</v>
+        <v>1294</v>
       </c>
       <c r="C113" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="D113" t="s">
+        <v>941</v>
+      </c>
+      <c r="E113" t="s">
         <v>942</v>
-      </c>
-      <c r="E113" t="s">
-        <v>943</v>
       </c>
     </row>
     <row r="114" spans="1:5">
@@ -14288,16 +14285,16 @@
         <v>113</v>
       </c>
       <c r="B114" s="3" t="s">
-        <v>1296</v>
+        <v>1295</v>
       </c>
       <c r="C114" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="D114" t="s">
+        <v>943</v>
+      </c>
+      <c r="E114" t="s">
         <v>944</v>
-      </c>
-      <c r="E114" t="s">
-        <v>945</v>
       </c>
     </row>
     <row r="115" spans="1:5">
@@ -14305,16 +14302,16 @@
         <v>114</v>
       </c>
       <c r="B115" s="3" t="s">
-        <v>1297</v>
+        <v>1296</v>
       </c>
       <c r="C115" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="D115" t="s">
+        <v>945</v>
+      </c>
+      <c r="E115" t="s">
         <v>946</v>
-      </c>
-      <c r="E115" t="s">
-        <v>947</v>
       </c>
     </row>
     <row r="116" spans="1:5">
@@ -14322,16 +14319,16 @@
         <v>115</v>
       </c>
       <c r="B116" s="3" t="s">
-        <v>1298</v>
+        <v>1297</v>
       </c>
       <c r="C116" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="D116" t="s">
+        <v>947</v>
+      </c>
+      <c r="E116" t="s">
         <v>948</v>
-      </c>
-      <c r="E116" t="s">
-        <v>949</v>
       </c>
     </row>
     <row r="117" spans="1:5">
@@ -14339,16 +14336,16 @@
         <v>116</v>
       </c>
       <c r="B117" s="3" t="s">
-        <v>1299</v>
+        <v>1298</v>
       </c>
       <c r="C117" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="D117" t="s">
+        <v>949</v>
+      </c>
+      <c r="E117" t="s">
         <v>950</v>
-      </c>
-      <c r="E117" t="s">
-        <v>951</v>
       </c>
     </row>
     <row r="118" spans="1:5">
@@ -14356,16 +14353,16 @@
         <v>117</v>
       </c>
       <c r="B118" s="3" t="s">
-        <v>1300</v>
+        <v>1299</v>
       </c>
       <c r="C118" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="D118" t="s">
+        <v>951</v>
+      </c>
+      <c r="E118" t="s">
         <v>952</v>
-      </c>
-      <c r="E118" t="s">
-        <v>953</v>
       </c>
     </row>
     <row r="119" spans="1:5">
@@ -14373,16 +14370,16 @@
         <v>118</v>
       </c>
       <c r="B119" s="3" t="s">
-        <v>1301</v>
+        <v>1300</v>
       </c>
       <c r="C119" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="D119" t="s">
+        <v>953</v>
+      </c>
+      <c r="E119" t="s">
         <v>954</v>
-      </c>
-      <c r="E119" t="s">
-        <v>955</v>
       </c>
     </row>
     <row r="120" spans="1:5">
@@ -14390,16 +14387,16 @@
         <v>119</v>
       </c>
       <c r="B120" s="3" t="s">
-        <v>1302</v>
+        <v>1301</v>
       </c>
       <c r="C120" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="D120" t="s">
+        <v>955</v>
+      </c>
+      <c r="E120" t="s">
         <v>956</v>
-      </c>
-      <c r="E120" t="s">
-        <v>957</v>
       </c>
     </row>
     <row r="121" spans="1:5">
@@ -14407,16 +14404,16 @@
         <v>120</v>
       </c>
       <c r="B121" s="3" t="s">
-        <v>1303</v>
+        <v>1302</v>
       </c>
       <c r="C121" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="D121" t="s">
+        <v>957</v>
+      </c>
+      <c r="E121" t="s">
         <v>958</v>
-      </c>
-      <c r="E121" t="s">
-        <v>959</v>
       </c>
     </row>
     <row r="122" spans="1:5">
@@ -14424,16 +14421,16 @@
         <v>121</v>
       </c>
       <c r="B122" s="3" t="s">
-        <v>1304</v>
+        <v>1303</v>
       </c>
       <c r="C122" t="s">
+        <v>959</v>
+      </c>
+      <c r="D122" t="s">
         <v>960</v>
       </c>
-      <c r="D122" t="s">
-        <v>961</v>
-      </c>
       <c r="E122" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
     </row>
     <row r="123" spans="1:5">
@@ -14441,16 +14438,16 @@
         <v>122</v>
       </c>
       <c r="B123" s="3" t="s">
-        <v>1305</v>
+        <v>1304</v>
       </c>
       <c r="C123" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
       <c r="D123" t="s">
+        <v>961</v>
+      </c>
+      <c r="E123" t="s">
         <v>962</v>
-      </c>
-      <c r="E123" t="s">
-        <v>963</v>
       </c>
     </row>
     <row r="124" spans="1:5">
@@ -14458,16 +14455,16 @@
         <v>123</v>
       </c>
       <c r="B124" s="3" t="s">
-        <v>1306</v>
+        <v>1305</v>
       </c>
       <c r="C124" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
       <c r="D124" t="s">
+        <v>829</v>
+      </c>
+      <c r="E124" t="s">
         <v>830</v>
-      </c>
-      <c r="E124" t="s">
-        <v>831</v>
       </c>
     </row>
     <row r="125" spans="1:5">
@@ -14475,16 +14472,16 @@
         <v>124</v>
       </c>
       <c r="B125" s="3" t="s">
-        <v>1307</v>
+        <v>1306</v>
       </c>
       <c r="C125" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
       <c r="D125" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
       <c r="E125" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
     </row>
     <row r="126" spans="1:5">
@@ -14492,16 +14489,16 @@
         <v>125</v>
       </c>
       <c r="B126" s="3" t="s">
-        <v>1308</v>
+        <v>1307</v>
       </c>
       <c r="C126" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
       <c r="D126" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="E126" t="s">
-        <v>964</v>
+        <v>963</v>
       </c>
     </row>
     <row r="127" spans="1:5">
@@ -14509,16 +14506,16 @@
         <v>126</v>
       </c>
       <c r="B127" s="3" t="s">
-        <v>1309</v>
+        <v>1308</v>
       </c>
       <c r="C127" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
       <c r="D127" t="s">
+        <v>964</v>
+      </c>
+      <c r="E127" t="s">
         <v>965</v>
-      </c>
-      <c r="E127" t="s">
-        <v>966</v>
       </c>
     </row>
     <row r="128" spans="1:5">
@@ -14526,16 +14523,16 @@
         <v>127</v>
       </c>
       <c r="B128" s="3" t="s">
-        <v>1310</v>
+        <v>1309</v>
       </c>
       <c r="C128" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
       <c r="D128" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="E128" t="s">
-        <v>967</v>
+        <v>966</v>
       </c>
     </row>
     <row r="129" spans="1:5">
@@ -14543,16 +14540,16 @@
         <v>128</v>
       </c>
       <c r="B129" s="3" t="s">
-        <v>1311</v>
+        <v>1310</v>
       </c>
       <c r="C129" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
       <c r="D129" t="s">
+        <v>967</v>
+      </c>
+      <c r="E129" t="s">
         <v>968</v>
-      </c>
-      <c r="E129" t="s">
-        <v>969</v>
       </c>
     </row>
     <row r="130" spans="1:5">
@@ -14560,16 +14557,16 @@
         <v>129</v>
       </c>
       <c r="B130" s="3" t="s">
-        <v>1312</v>
+        <v>1311</v>
       </c>
       <c r="C130" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
       <c r="D130" t="s">
-        <v>970</v>
+        <v>969</v>
       </c>
       <c r="E130" t="s">
-        <v>892</v>
+        <v>891</v>
       </c>
     </row>
     <row r="131" spans="1:5">
@@ -14577,16 +14574,16 @@
         <v>130</v>
       </c>
       <c r="B131" s="3" t="s">
-        <v>1313</v>
+        <v>1312</v>
       </c>
       <c r="C131" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
       <c r="D131" t="s">
+        <v>970</v>
+      </c>
+      <c r="E131" t="s">
         <v>971</v>
-      </c>
-      <c r="E131" t="s">
-        <v>972</v>
       </c>
     </row>
     <row r="132" spans="1:5">
@@ -14594,16 +14591,16 @@
         <v>131</v>
       </c>
       <c r="B132" s="3" t="s">
-        <v>1314</v>
+        <v>1313</v>
       </c>
       <c r="C132" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
       <c r="D132" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="E132" t="s">
-        <v>973</v>
+        <v>972</v>
       </c>
     </row>
     <row r="133" spans="1:5">
@@ -14611,16 +14608,16 @@
         <v>132</v>
       </c>
       <c r="B133" s="3" t="s">
-        <v>1315</v>
+        <v>1314</v>
       </c>
       <c r="C133" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
       <c r="D133" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
       <c r="E133" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
     </row>
     <row r="134" spans="1:5">
@@ -14628,16 +14625,16 @@
         <v>133</v>
       </c>
       <c r="B134" s="3" t="s">
-        <v>1316</v>
+        <v>1315</v>
       </c>
       <c r="C134" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
       <c r="D134" t="s">
+        <v>974</v>
+      </c>
+      <c r="E134" t="s">
         <v>975</v>
-      </c>
-      <c r="E134" t="s">
-        <v>976</v>
       </c>
     </row>
     <row r="135" spans="1:5">
@@ -14645,16 +14642,16 @@
         <v>134</v>
       </c>
       <c r="B135" s="3" t="s">
-        <v>1317</v>
+        <v>1316</v>
       </c>
       <c r="C135" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
       <c r="D135" t="s">
+        <v>976</v>
+      </c>
+      <c r="E135" t="s">
         <v>977</v>
-      </c>
-      <c r="E135" t="s">
-        <v>978</v>
       </c>
     </row>
     <row r="136" spans="1:5">
@@ -14662,16 +14659,16 @@
         <v>135</v>
       </c>
       <c r="B136" s="3" t="s">
-        <v>1318</v>
+        <v>1317</v>
       </c>
       <c r="C136" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
       <c r="D136" t="s">
+        <v>978</v>
+      </c>
+      <c r="E136" t="s">
         <v>979</v>
-      </c>
-      <c r="E136" t="s">
-        <v>980</v>
       </c>
     </row>
     <row r="137" spans="1:5">
@@ -14679,16 +14676,16 @@
         <v>136</v>
       </c>
       <c r="B137" s="3" t="s">
-        <v>1318</v>
+        <v>1317</v>
       </c>
       <c r="C137" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
       <c r="D137" t="s">
+        <v>980</v>
+      </c>
+      <c r="E137" t="s">
         <v>981</v>
-      </c>
-      <c r="E137" t="s">
-        <v>982</v>
       </c>
     </row>
     <row r="138" spans="1:5">
@@ -14696,16 +14693,16 @@
         <v>137</v>
       </c>
       <c r="B138" s="3" t="s">
-        <v>1319</v>
+        <v>1318</v>
       </c>
       <c r="C138" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
       <c r="D138" t="s">
+        <v>982</v>
+      </c>
+      <c r="E138" t="s">
         <v>983</v>
-      </c>
-      <c r="E138" t="s">
-        <v>984</v>
       </c>
     </row>
     <row r="139" spans="1:5">
@@ -14713,16 +14710,16 @@
         <v>138</v>
       </c>
       <c r="B139" s="3" t="s">
-        <v>1320</v>
+        <v>1319</v>
       </c>
       <c r="C139" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
       <c r="D139" t="s">
+        <v>984</v>
+      </c>
+      <c r="E139" t="s">
         <v>985</v>
-      </c>
-      <c r="E139" t="s">
-        <v>986</v>
       </c>
     </row>
     <row r="140" spans="1:5">
@@ -14730,16 +14727,16 @@
         <v>139</v>
       </c>
       <c r="B140" s="3" t="s">
-        <v>1321</v>
+        <v>1320</v>
       </c>
       <c r="C140" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
       <c r="D140" t="s">
+        <v>986</v>
+      </c>
+      <c r="E140" t="s">
         <v>987</v>
-      </c>
-      <c r="E140" t="s">
-        <v>988</v>
       </c>
     </row>
     <row r="141" spans="1:5">
@@ -14747,16 +14744,16 @@
         <v>140</v>
       </c>
       <c r="B141" s="3" t="s">
-        <v>1322</v>
+        <v>1321</v>
       </c>
       <c r="C141" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
       <c r="D141" t="s">
+        <v>988</v>
+      </c>
+      <c r="E141" t="s">
         <v>989</v>
-      </c>
-      <c r="E141" t="s">
-        <v>990</v>
       </c>
     </row>
     <row r="142" spans="1:5">
@@ -14764,16 +14761,16 @@
         <v>141</v>
       </c>
       <c r="B142" s="3" t="s">
-        <v>1323</v>
+        <v>1322</v>
       </c>
       <c r="C142" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
       <c r="D142" t="s">
+        <v>990</v>
+      </c>
+      <c r="E142" t="s">
         <v>991</v>
-      </c>
-      <c r="E142" t="s">
-        <v>992</v>
       </c>
     </row>
     <row r="143" spans="1:5">
@@ -14781,16 +14778,16 @@
         <v>142</v>
       </c>
       <c r="B143" s="3" t="s">
-        <v>1324</v>
+        <v>1323</v>
       </c>
       <c r="C143" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
       <c r="D143" t="s">
+        <v>992</v>
+      </c>
+      <c r="E143" t="s">
         <v>993</v>
-      </c>
-      <c r="E143" t="s">
-        <v>994</v>
       </c>
     </row>
     <row r="144" spans="1:5">
@@ -14798,16 +14795,16 @@
         <v>143</v>
       </c>
       <c r="B144" s="3" t="s">
-        <v>1325</v>
+        <v>1324</v>
       </c>
       <c r="C144" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
       <c r="D144" t="s">
+        <v>994</v>
+      </c>
+      <c r="E144" t="s">
         <v>995</v>
-      </c>
-      <c r="E144" t="s">
-        <v>996</v>
       </c>
     </row>
     <row r="145" spans="1:5">
@@ -14815,16 +14812,16 @@
         <v>144</v>
       </c>
       <c r="B145" s="3" t="s">
-        <v>1326</v>
+        <v>1325</v>
       </c>
       <c r="C145" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
       <c r="D145" t="s">
+        <v>996</v>
+      </c>
+      <c r="E145" t="s">
         <v>997</v>
-      </c>
-      <c r="E145" t="s">
-        <v>998</v>
       </c>
     </row>
     <row r="146" spans="1:5">
@@ -14832,16 +14829,16 @@
         <v>145</v>
       </c>
       <c r="B146" s="3" t="s">
-        <v>1327</v>
+        <v>1326</v>
       </c>
       <c r="C146" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
       <c r="D146" t="s">
+        <v>998</v>
+      </c>
+      <c r="E146" t="s">
         <v>999</v>
-      </c>
-      <c r="E146" t="s">
-        <v>1000</v>
       </c>
     </row>
     <row r="147" spans="1:5">
@@ -14849,16 +14846,16 @@
         <v>146</v>
       </c>
       <c r="B147" s="3" t="s">
-        <v>1328</v>
+        <v>1327</v>
       </c>
       <c r="C147" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
       <c r="D147" t="s">
+        <v>1000</v>
+      </c>
+      <c r="E147" t="s">
         <v>1001</v>
-      </c>
-      <c r="E147" t="s">
-        <v>1002</v>
       </c>
     </row>
     <row r="148" spans="1:5">
@@ -14866,16 +14863,16 @@
         <v>147</v>
       </c>
       <c r="B148" s="3" t="s">
-        <v>1329</v>
+        <v>1328</v>
       </c>
       <c r="C148" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
       <c r="D148" t="s">
+        <v>1002</v>
+      </c>
+      <c r="E148" t="s">
         <v>1003</v>
-      </c>
-      <c r="E148" t="s">
-        <v>1004</v>
       </c>
     </row>
     <row r="149" spans="1:5">
@@ -14883,16 +14880,16 @@
         <v>148</v>
       </c>
       <c r="B149" s="3" t="s">
-        <v>1330</v>
+        <v>1329</v>
       </c>
       <c r="C149" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
       <c r="D149" t="s">
+        <v>1004</v>
+      </c>
+      <c r="E149" t="s">
         <v>1005</v>
-      </c>
-      <c r="E149" t="s">
-        <v>1006</v>
       </c>
     </row>
     <row r="150" spans="1:5">
@@ -14900,16 +14897,16 @@
         <v>149</v>
       </c>
       <c r="B150" s="3" t="s">
-        <v>1331</v>
+        <v>1330</v>
       </c>
       <c r="C150" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
       <c r="D150" t="s">
+        <v>1006</v>
+      </c>
+      <c r="E150" t="s">
         <v>1007</v>
-      </c>
-      <c r="E150" t="s">
-        <v>1008</v>
       </c>
     </row>
     <row r="151" spans="1:5">
@@ -14917,16 +14914,16 @@
         <v>150</v>
       </c>
       <c r="B151" s="3" t="s">
-        <v>1332</v>
+        <v>1331</v>
       </c>
       <c r="C151" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
       <c r="D151" t="s">
+        <v>1008</v>
+      </c>
+      <c r="E151" t="s">
         <v>1009</v>
-      </c>
-      <c r="E151" t="s">
-        <v>1010</v>
       </c>
     </row>
     <row r="152" spans="1:5">
@@ -14934,16 +14931,16 @@
         <v>151</v>
       </c>
       <c r="B152" s="3" t="s">
-        <v>1333</v>
+        <v>1332</v>
       </c>
       <c r="C152" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
       <c r="D152" t="s">
+        <v>1010</v>
+      </c>
+      <c r="E152" t="s">
         <v>1011</v>
-      </c>
-      <c r="E152" t="s">
-        <v>1012</v>
       </c>
     </row>
     <row r="153" spans="1:5">
@@ -14951,16 +14948,16 @@
         <v>152</v>
       </c>
       <c r="B153" s="3" t="s">
-        <v>1334</v>
+        <v>1333</v>
       </c>
       <c r="C153" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
       <c r="D153" t="s">
+        <v>1012</v>
+      </c>
+      <c r="E153" t="s">
         <v>1013</v>
-      </c>
-      <c r="E153" t="s">
-        <v>1014</v>
       </c>
     </row>
     <row r="154" spans="1:5">
@@ -14968,16 +14965,16 @@
         <v>153</v>
       </c>
       <c r="B154" s="3" t="s">
-        <v>1335</v>
+        <v>1334</v>
       </c>
       <c r="C154" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
       <c r="D154" t="s">
+        <v>1014</v>
+      </c>
+      <c r="E154" t="s">
         <v>1015</v>
-      </c>
-      <c r="E154" t="s">
-        <v>1016</v>
       </c>
     </row>
     <row r="155" spans="1:5">
@@ -14985,16 +14982,16 @@
         <v>154</v>
       </c>
       <c r="B155" s="3" t="s">
-        <v>1336</v>
+        <v>1335</v>
       </c>
       <c r="C155" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
       <c r="D155" t="s">
+        <v>1016</v>
+      </c>
+      <c r="E155" t="s">
         <v>1017</v>
-      </c>
-      <c r="E155" t="s">
-        <v>1018</v>
       </c>
     </row>
     <row r="156" spans="1:5">
@@ -15002,16 +14999,16 @@
         <v>155</v>
       </c>
       <c r="B156" s="3" t="s">
-        <v>1337</v>
+        <v>1336</v>
       </c>
       <c r="C156" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
       <c r="D156" t="s">
+        <v>1018</v>
+      </c>
+      <c r="E156" t="s">
         <v>1019</v>
-      </c>
-      <c r="E156" t="s">
-        <v>1020</v>
       </c>
     </row>
     <row r="157" spans="1:5">
@@ -15019,16 +15016,16 @@
         <v>156</v>
       </c>
       <c r="B157" s="3" t="s">
-        <v>1338</v>
+        <v>1337</v>
       </c>
       <c r="C157" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
       <c r="D157" t="s">
+        <v>1020</v>
+      </c>
+      <c r="E157" t="s">
         <v>1021</v>
-      </c>
-      <c r="E157" t="s">
-        <v>1022</v>
       </c>
     </row>
     <row r="158" spans="1:5">
@@ -15036,16 +15033,16 @@
         <v>157</v>
       </c>
       <c r="B158" s="3" t="s">
-        <v>1339</v>
+        <v>1338</v>
       </c>
       <c r="C158" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
       <c r="D158" t="s">
+        <v>1022</v>
+      </c>
+      <c r="E158" t="s">
         <v>1023</v>
-      </c>
-      <c r="E158" t="s">
-        <v>1024</v>
       </c>
     </row>
     <row r="159" spans="1:5">
@@ -15053,16 +15050,16 @@
         <v>158</v>
       </c>
       <c r="B159" s="3" t="s">
-        <v>1340</v>
+        <v>1339</v>
       </c>
       <c r="C159" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
       <c r="D159" t="s">
+        <v>1024</v>
+      </c>
+      <c r="E159" t="s">
         <v>1025</v>
-      </c>
-      <c r="E159" t="s">
-        <v>1026</v>
       </c>
     </row>
     <row r="160" spans="1:5">
@@ -15070,16 +15067,16 @@
         <v>159</v>
       </c>
       <c r="B160" s="3" t="s">
-        <v>1341</v>
+        <v>1340</v>
       </c>
       <c r="C160" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
       <c r="D160" t="s">
+        <v>1026</v>
+      </c>
+      <c r="E160" t="s">
         <v>1027</v>
-      </c>
-      <c r="E160" t="s">
-        <v>1028</v>
       </c>
     </row>
     <row r="161" spans="1:5">
@@ -15087,16 +15084,16 @@
         <v>160</v>
       </c>
       <c r="B161" s="3" t="s">
-        <v>1342</v>
+        <v>1341</v>
       </c>
       <c r="C161" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
       <c r="D161" t="s">
+        <v>1028</v>
+      </c>
+      <c r="E161" t="s">
         <v>1029</v>
-      </c>
-      <c r="E161" t="s">
-        <v>1030</v>
       </c>
     </row>
     <row r="162" spans="1:5">
@@ -15104,16 +15101,16 @@
         <v>161</v>
       </c>
       <c r="B162" s="3" t="s">
-        <v>1343</v>
+        <v>1342</v>
       </c>
       <c r="C162" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
       <c r="D162" t="s">
+        <v>1030</v>
+      </c>
+      <c r="E162" t="s">
         <v>1031</v>
-      </c>
-      <c r="E162" t="s">
-        <v>1032</v>
       </c>
     </row>
     <row r="163" spans="1:5">
@@ -15121,16 +15118,16 @@
         <v>162</v>
       </c>
       <c r="B163" s="3" t="s">
-        <v>1344</v>
+        <v>1343</v>
       </c>
       <c r="C163" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
       <c r="D163" t="s">
+        <v>1032</v>
+      </c>
+      <c r="E163" t="s">
         <v>1033</v>
-      </c>
-      <c r="E163" t="s">
-        <v>1034</v>
       </c>
     </row>
     <row r="164" spans="1:5">
@@ -15138,16 +15135,16 @@
         <v>163</v>
       </c>
       <c r="B164" s="3" t="s">
-        <v>1345</v>
+        <v>1344</v>
       </c>
       <c r="C164" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
       <c r="D164" t="s">
+        <v>1034</v>
+      </c>
+      <c r="E164" t="s">
         <v>1035</v>
-      </c>
-      <c r="E164" t="s">
-        <v>1036</v>
       </c>
     </row>
     <row r="165" spans="1:5">
@@ -15155,16 +15152,16 @@
         <v>164</v>
       </c>
       <c r="B165" s="3" t="s">
-        <v>1346</v>
+        <v>1345</v>
       </c>
       <c r="C165" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
       <c r="D165" t="s">
+        <v>1036</v>
+      </c>
+      <c r="E165" t="s">
         <v>1037</v>
-      </c>
-      <c r="E165" t="s">
-        <v>1038</v>
       </c>
     </row>
     <row r="166" spans="1:5">
@@ -15172,16 +15169,16 @@
         <v>165</v>
       </c>
       <c r="B166" s="3" t="s">
-        <v>1347</v>
+        <v>1346</v>
       </c>
       <c r="C166" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
       <c r="D166" t="s">
+        <v>1038</v>
+      </c>
+      <c r="E166" t="s">
         <v>1039</v>
-      </c>
-      <c r="E166" t="s">
-        <v>1040</v>
       </c>
     </row>
     <row r="167" spans="1:5">
@@ -15189,16 +15186,16 @@
         <v>166</v>
       </c>
       <c r="B167" s="3" t="s">
-        <v>1348</v>
+        <v>1347</v>
       </c>
       <c r="C167" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
       <c r="D167" t="s">
+        <v>1040</v>
+      </c>
+      <c r="E167" t="s">
         <v>1041</v>
-      </c>
-      <c r="E167" t="s">
-        <v>1042</v>
       </c>
     </row>
     <row r="168" spans="1:5">
@@ -15206,16 +15203,16 @@
         <v>167</v>
       </c>
       <c r="B168" s="3" t="s">
-        <v>1349</v>
+        <v>1348</v>
       </c>
       <c r="C168" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
       <c r="D168" t="s">
+        <v>1042</v>
+      </c>
+      <c r="E168" t="s">
         <v>1043</v>
-      </c>
-      <c r="E168" t="s">
-        <v>1044</v>
       </c>
     </row>
     <row r="169" spans="1:5">
@@ -15223,16 +15220,16 @@
         <v>168</v>
       </c>
       <c r="B169" s="3" t="s">
-        <v>1350</v>
+        <v>1349</v>
       </c>
       <c r="C169" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
       <c r="D169" t="s">
+        <v>1044</v>
+      </c>
+      <c r="E169" t="s">
         <v>1045</v>
-      </c>
-      <c r="E169" t="s">
-        <v>1046</v>
       </c>
     </row>
     <row r="170" spans="1:5">
@@ -15240,16 +15237,16 @@
         <v>169</v>
       </c>
       <c r="B170" s="3" t="s">
-        <v>1351</v>
+        <v>1350</v>
       </c>
       <c r="C170" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
       <c r="D170" t="s">
+        <v>1046</v>
+      </c>
+      <c r="E170" t="s">
         <v>1047</v>
-      </c>
-      <c r="E170" t="s">
-        <v>1048</v>
       </c>
     </row>
     <row r="171" spans="1:5">
@@ -15257,16 +15254,16 @@
         <v>170</v>
       </c>
       <c r="B171" s="3" t="s">
-        <v>1352</v>
+        <v>1351</v>
       </c>
       <c r="C171" t="s">
-        <v>1049</v>
+        <v>1048</v>
       </c>
       <c r="D171" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="E171" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
     </row>
     <row r="172" spans="1:5">
@@ -15274,16 +15271,16 @@
         <v>171</v>
       </c>
       <c r="B172" s="3" t="s">
-        <v>1353</v>
+        <v>1352</v>
       </c>
       <c r="C172" t="s">
+        <v>1048</v>
+      </c>
+      <c r="D172" t="s">
+        <v>827</v>
+      </c>
+      <c r="E172" t="s">
         <v>1049</v>
-      </c>
-      <c r="D172" t="s">
-        <v>828</v>
-      </c>
-      <c r="E172" t="s">
-        <v>1050</v>
       </c>
     </row>
     <row r="173" spans="1:5">
@@ -15291,16 +15288,16 @@
         <v>172</v>
       </c>
       <c r="B173" s="3" t="s">
-        <v>1354</v>
+        <v>1353</v>
       </c>
       <c r="C173" t="s">
-        <v>1049</v>
+        <v>1048</v>
       </c>
       <c r="D173" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="E173" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
     </row>
     <row r="174" spans="1:5">
@@ -15308,16 +15305,16 @@
         <v>173</v>
       </c>
       <c r="B174" s="3" t="s">
-        <v>1355</v>
+        <v>1354</v>
       </c>
       <c r="C174" t="s">
-        <v>1049</v>
+        <v>1048</v>
       </c>
       <c r="D174" t="s">
-        <v>965</v>
+        <v>964</v>
       </c>
       <c r="E174" t="s">
-        <v>1051</v>
+        <v>1050</v>
       </c>
     </row>
     <row r="175" spans="1:5">
@@ -15325,16 +15322,16 @@
         <v>174</v>
       </c>
       <c r="B175" s="3" t="s">
-        <v>1356</v>
+        <v>1355</v>
       </c>
       <c r="C175" t="s">
-        <v>1049</v>
+        <v>1048</v>
       </c>
       <c r="D175" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="E175" t="s">
-        <v>1052</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="176" spans="1:5">
@@ -15342,16 +15339,16 @@
         <v>175</v>
       </c>
       <c r="B176" s="3" t="s">
-        <v>1357</v>
+        <v>1356</v>
       </c>
       <c r="C176" t="s">
-        <v>1049</v>
+        <v>1048</v>
       </c>
       <c r="D176" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
       <c r="E176" t="s">
-        <v>1053</v>
+        <v>1052</v>
       </c>
     </row>
     <row r="177" spans="1:5">
@@ -15359,16 +15356,16 @@
         <v>176</v>
       </c>
       <c r="B177" s="3" t="s">
-        <v>1358</v>
+        <v>1357</v>
       </c>
       <c r="C177" t="s">
-        <v>1049</v>
+        <v>1048</v>
       </c>
       <c r="D177" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="E177" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
     </row>
     <row r="178" spans="1:5">
@@ -15376,16 +15373,16 @@
         <v>177</v>
       </c>
       <c r="B178" s="3" t="s">
-        <v>1359</v>
+        <v>1358</v>
       </c>
       <c r="C178" t="s">
-        <v>1049</v>
+        <v>1048</v>
       </c>
       <c r="D178" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="E178" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
     </row>
     <row r="179" spans="1:5">
@@ -15393,16 +15390,16 @@
         <v>178</v>
       </c>
       <c r="B179" s="3" t="s">
-        <v>1360</v>
+        <v>1359</v>
       </c>
       <c r="C179" t="s">
-        <v>1049</v>
+        <v>1048</v>
       </c>
       <c r="D179" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="E179" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
     </row>
     <row r="180" spans="1:5">
@@ -15410,16 +15407,16 @@
         <v>179</v>
       </c>
       <c r="B180" s="3" t="s">
-        <v>1361</v>
+        <v>1360</v>
       </c>
       <c r="C180" t="s">
-        <v>1049</v>
+        <v>1048</v>
       </c>
       <c r="D180" t="s">
-        <v>975</v>
+        <v>974</v>
       </c>
       <c r="E180" t="s">
-        <v>1054</v>
+        <v>1053</v>
       </c>
     </row>
     <row r="181" spans="1:5">
@@ -15427,16 +15424,16 @@
         <v>180</v>
       </c>
       <c r="B181" s="3" t="s">
-        <v>1362</v>
+        <v>1361</v>
       </c>
       <c r="C181" t="s">
-        <v>1049</v>
+        <v>1048</v>
       </c>
       <c r="D181" t="s">
+        <v>1054</v>
+      </c>
+      <c r="E181" t="s">
         <v>1055</v>
-      </c>
-      <c r="E181" t="s">
-        <v>1056</v>
       </c>
     </row>
     <row r="182" spans="1:5">
@@ -15444,16 +15441,16 @@
         <v>181</v>
       </c>
       <c r="B182" s="3" t="s">
-        <v>1363</v>
+        <v>1362</v>
       </c>
       <c r="C182" t="s">
-        <v>1049</v>
+        <v>1048</v>
       </c>
       <c r="D182" t="s">
+        <v>1056</v>
+      </c>
+      <c r="E182" t="s">
         <v>1057</v>
-      </c>
-      <c r="E182" t="s">
-        <v>1058</v>
       </c>
     </row>
     <row r="183" spans="1:5">
@@ -15461,16 +15458,16 @@
         <v>182</v>
       </c>
       <c r="B183" s="3" t="s">
-        <v>1363</v>
+        <v>1362</v>
       </c>
       <c r="C183" t="s">
-        <v>1049</v>
+        <v>1048</v>
       </c>
       <c r="D183" t="s">
-        <v>1059</v>
+        <v>1058</v>
       </c>
       <c r="E183" t="s">
-        <v>1058</v>
+        <v>1057</v>
       </c>
     </row>
     <row r="184" spans="1:5">
@@ -15478,16 +15475,16 @@
         <v>183</v>
       </c>
       <c r="B184" s="3" t="s">
-        <v>1364</v>
+        <v>1363</v>
       </c>
       <c r="C184" t="s">
-        <v>1049</v>
+        <v>1048</v>
       </c>
       <c r="D184" t="s">
+        <v>1059</v>
+      </c>
+      <c r="E184" t="s">
         <v>1060</v>
-      </c>
-      <c r="E184" t="s">
-        <v>1061</v>
       </c>
     </row>
     <row r="185" spans="1:5">
@@ -15495,16 +15492,16 @@
         <v>184</v>
       </c>
       <c r="B185" s="3" t="s">
-        <v>1365</v>
+        <v>1364</v>
       </c>
       <c r="C185" t="s">
-        <v>1049</v>
+        <v>1048</v>
       </c>
       <c r="D185" t="s">
+        <v>1061</v>
+      </c>
+      <c r="E185" t="s">
         <v>1062</v>
-      </c>
-      <c r="E185" t="s">
-        <v>1063</v>
       </c>
     </row>
     <row r="186" spans="1:5">
@@ -15512,16 +15509,16 @@
         <v>185</v>
       </c>
       <c r="B186" s="3" t="s">
-        <v>1366</v>
+        <v>1365</v>
       </c>
       <c r="C186" t="s">
-        <v>1049</v>
+        <v>1048</v>
       </c>
       <c r="D186" t="s">
+        <v>1063</v>
+      </c>
+      <c r="E186" t="s">
         <v>1064</v>
-      </c>
-      <c r="E186" t="s">
-        <v>1065</v>
       </c>
     </row>
     <row r="187" spans="1:5">
@@ -15529,16 +15526,16 @@
         <v>186</v>
       </c>
       <c r="B187" s="3" t="s">
-        <v>1367</v>
+        <v>1366</v>
       </c>
       <c r="C187" t="s">
-        <v>1049</v>
+        <v>1048</v>
       </c>
       <c r="D187" t="s">
+        <v>1065</v>
+      </c>
+      <c r="E187" t="s">
         <v>1066</v>
-      </c>
-      <c r="E187" t="s">
-        <v>1067</v>
       </c>
     </row>
     <row r="188" spans="1:5">
@@ -15546,16 +15543,16 @@
         <v>187</v>
       </c>
       <c r="B188" s="3" t="s">
-        <v>1368</v>
+        <v>1367</v>
       </c>
       <c r="C188" t="s">
-        <v>1049</v>
+        <v>1048</v>
       </c>
       <c r="D188" t="s">
+        <v>1067</v>
+      </c>
+      <c r="E188" t="s">
         <v>1068</v>
-      </c>
-      <c r="E188" t="s">
-        <v>1069</v>
       </c>
     </row>
     <row r="189" spans="1:5">
@@ -15563,16 +15560,16 @@
         <v>188</v>
       </c>
       <c r="B189" s="3" t="s">
-        <v>1369</v>
+        <v>1368</v>
       </c>
       <c r="C189" t="s">
-        <v>1049</v>
+        <v>1048</v>
       </c>
       <c r="D189" t="s">
+        <v>1069</v>
+      </c>
+      <c r="E189" t="s">
         <v>1070</v>
-      </c>
-      <c r="E189" t="s">
-        <v>1071</v>
       </c>
     </row>
     <row r="190" spans="1:5">
@@ -15580,16 +15577,16 @@
         <v>189</v>
       </c>
       <c r="B190" s="3" t="s">
-        <v>1370</v>
+        <v>1369</v>
       </c>
       <c r="C190" t="s">
-        <v>1049</v>
+        <v>1048</v>
       </c>
       <c r="D190" t="s">
+        <v>1071</v>
+      </c>
+      <c r="E190" t="s">
         <v>1072</v>
-      </c>
-      <c r="E190" t="s">
-        <v>1073</v>
       </c>
     </row>
     <row r="191" spans="1:5">
@@ -15597,16 +15594,16 @@
         <v>190</v>
       </c>
       <c r="B191" s="3" t="s">
-        <v>1371</v>
+        <v>1370</v>
       </c>
       <c r="C191" t="s">
-        <v>1049</v>
+        <v>1048</v>
       </c>
       <c r="D191" t="s">
+        <v>1073</v>
+      </c>
+      <c r="E191" t="s">
         <v>1074</v>
-      </c>
-      <c r="E191" t="s">
-        <v>1075</v>
       </c>
     </row>
     <row r="192" spans="1:5">
@@ -15614,16 +15611,16 @@
         <v>191</v>
       </c>
       <c r="B192" s="3" t="s">
-        <v>1372</v>
+        <v>1371</v>
       </c>
       <c r="C192" t="s">
-        <v>1049</v>
+        <v>1048</v>
       </c>
       <c r="D192" t="s">
+        <v>1075</v>
+      </c>
+      <c r="E192" t="s">
         <v>1076</v>
-      </c>
-      <c r="E192" t="s">
-        <v>1077</v>
       </c>
     </row>
     <row r="193" spans="1:5">
@@ -15631,16 +15628,16 @@
         <v>192</v>
       </c>
       <c r="B193" s="3" t="s">
-        <v>1373</v>
+        <v>1372</v>
       </c>
       <c r="C193" t="s">
-        <v>1049</v>
+        <v>1048</v>
       </c>
       <c r="D193" t="s">
+        <v>1077</v>
+      </c>
+      <c r="E193" t="s">
         <v>1078</v>
-      </c>
-      <c r="E193" t="s">
-        <v>1079</v>
       </c>
     </row>
     <row r="194" spans="1:5">
@@ -15648,16 +15645,16 @@
         <v>193</v>
       </c>
       <c r="B194" s="3" t="s">
-        <v>1374</v>
+        <v>1373</v>
       </c>
       <c r="C194" t="s">
-        <v>1049</v>
+        <v>1048</v>
       </c>
       <c r="D194" t="s">
+        <v>1079</v>
+      </c>
+      <c r="E194" t="s">
         <v>1080</v>
-      </c>
-      <c r="E194" t="s">
-        <v>1081</v>
       </c>
     </row>
     <row r="195" spans="1:5">
@@ -15665,16 +15662,16 @@
         <v>194</v>
       </c>
       <c r="B195" s="3" t="s">
-        <v>1375</v>
+        <v>1374</v>
       </c>
       <c r="C195" t="s">
-        <v>1049</v>
+        <v>1048</v>
       </c>
       <c r="D195" t="s">
+        <v>1081</v>
+      </c>
+      <c r="E195" t="s">
         <v>1082</v>
-      </c>
-      <c r="E195" t="s">
-        <v>1083</v>
       </c>
     </row>
     <row r="196" spans="1:5">
@@ -15682,16 +15679,16 @@
         <v>195</v>
       </c>
       <c r="B196" s="3" t="s">
-        <v>1376</v>
+        <v>1375</v>
       </c>
       <c r="C196" t="s">
-        <v>1084</v>
+        <v>1083</v>
       </c>
       <c r="D196" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="E196" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
     </row>
     <row r="197" spans="1:5">
@@ -15699,16 +15696,16 @@
         <v>196</v>
       </c>
       <c r="B197" s="3" t="s">
-        <v>1377</v>
+        <v>1376</v>
       </c>
       <c r="C197" t="s">
+        <v>1083</v>
+      </c>
+      <c r="D197" t="s">
+        <v>827</v>
+      </c>
+      <c r="E197" t="s">
         <v>1084</v>
-      </c>
-      <c r="D197" t="s">
-        <v>828</v>
-      </c>
-      <c r="E197" t="s">
-        <v>1085</v>
       </c>
     </row>
     <row r="198" spans="1:5">
@@ -15716,16 +15713,16 @@
         <v>197</v>
       </c>
       <c r="B198" s="3" t="s">
-        <v>1378</v>
+        <v>1377</v>
       </c>
       <c r="C198" t="s">
-        <v>1084</v>
+        <v>1083</v>
       </c>
       <c r="D198" t="s">
-        <v>1086</v>
+        <v>1085</v>
       </c>
       <c r="E198" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
     </row>
     <row r="199" spans="1:5">
@@ -15733,16 +15730,16 @@
         <v>198</v>
       </c>
       <c r="B199" s="3" t="s">
-        <v>1379</v>
+        <v>1378</v>
       </c>
       <c r="C199" t="s">
-        <v>1084</v>
+        <v>1083</v>
       </c>
       <c r="D199" t="s">
+        <v>1086</v>
+      </c>
+      <c r="E199" t="s">
         <v>1087</v>
-      </c>
-      <c r="E199" t="s">
-        <v>1088</v>
       </c>
     </row>
     <row r="200" spans="1:5">
@@ -15750,16 +15747,16 @@
         <v>199</v>
       </c>
       <c r="B200" s="3" t="s">
-        <v>1380</v>
+        <v>1379</v>
       </c>
       <c r="C200" t="s">
-        <v>1084</v>
+        <v>1083</v>
       </c>
       <c r="D200" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
       <c r="E200" t="s">
-        <v>1089</v>
+        <v>1088</v>
       </c>
     </row>
     <row r="201" spans="1:5">
@@ -15767,16 +15764,16 @@
         <v>200</v>
       </c>
       <c r="B201" s="3" t="s">
-        <v>1381</v>
+        <v>1380</v>
       </c>
       <c r="C201" t="s">
-        <v>1084</v>
+        <v>1083</v>
       </c>
       <c r="D201" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="E201" t="s">
-        <v>1090</v>
+        <v>1089</v>
       </c>
     </row>
     <row r="202" spans="1:5">
@@ -15784,16 +15781,16 @@
         <v>201</v>
       </c>
       <c r="B202" s="3" t="s">
-        <v>1382</v>
+        <v>1381</v>
       </c>
       <c r="C202" t="s">
-        <v>1084</v>
+        <v>1083</v>
       </c>
       <c r="D202" t="s">
-        <v>965</v>
+        <v>964</v>
       </c>
       <c r="E202" t="s">
-        <v>1091</v>
+        <v>1090</v>
       </c>
     </row>
     <row r="203" spans="1:5">
@@ -15801,16 +15798,16 @@
         <v>202</v>
       </c>
       <c r="B203" s="3" t="s">
-        <v>1383</v>
+        <v>1382</v>
       </c>
       <c r="C203" t="s">
-        <v>1084</v>
+        <v>1083</v>
       </c>
       <c r="D203" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="E203" t="s">
-        <v>1092</v>
+        <v>1091</v>
       </c>
     </row>
     <row r="204" spans="1:5">
@@ -15818,16 +15815,16 @@
         <v>203</v>
       </c>
       <c r="B204" s="3" t="s">
-        <v>1384</v>
+        <v>1383</v>
       </c>
       <c r="C204" t="s">
-        <v>1084</v>
+        <v>1083</v>
       </c>
       <c r="D204" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
       <c r="E204" t="s">
-        <v>1093</v>
+        <v>1092</v>
       </c>
     </row>
     <row r="205" spans="1:5">
@@ -15835,16 +15832,16 @@
         <v>204</v>
       </c>
       <c r="B205" s="3" t="s">
-        <v>1385</v>
+        <v>1384</v>
       </c>
       <c r="C205" t="s">
-        <v>1084</v>
+        <v>1083</v>
       </c>
       <c r="D205" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="E205" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
     </row>
     <row r="206" spans="1:5">
@@ -15852,16 +15849,16 @@
         <v>205</v>
       </c>
       <c r="B206" s="3" t="s">
-        <v>1386</v>
+        <v>1385</v>
       </c>
       <c r="C206" t="s">
-        <v>1084</v>
+        <v>1083</v>
       </c>
       <c r="D206" t="s">
+        <v>1093</v>
+      </c>
+      <c r="E206" t="s">
         <v>1094</v>
-      </c>
-      <c r="E206" t="s">
-        <v>1095</v>
       </c>
     </row>
     <row r="207" spans="1:5">
@@ -15869,16 +15866,16 @@
         <v>206</v>
       </c>
       <c r="B207" s="3" t="s">
-        <v>1387</v>
+        <v>1386</v>
       </c>
       <c r="C207" t="s">
-        <v>1084</v>
+        <v>1083</v>
       </c>
       <c r="D207" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="E207" t="s">
-        <v>1096</v>
+        <v>1095</v>
       </c>
     </row>
     <row r="208" spans="1:5">
@@ -15886,16 +15883,16 @@
         <v>207</v>
       </c>
       <c r="B208" s="3" t="s">
-        <v>1388</v>
+        <v>1387</v>
       </c>
       <c r="C208" t="s">
-        <v>1084</v>
+        <v>1083</v>
       </c>
       <c r="D208" t="s">
+        <v>1096</v>
+      </c>
+      <c r="E208" t="s">
         <v>1097</v>
-      </c>
-      <c r="E208" t="s">
-        <v>1098</v>
       </c>
     </row>
     <row r="209" spans="1:5">
@@ -15903,16 +15900,16 @@
         <v>208</v>
       </c>
       <c r="B209" s="3" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="C209" t="s">
-        <v>1084</v>
+        <v>1083</v>
       </c>
       <c r="D209" t="s">
-        <v>975</v>
+        <v>974</v>
       </c>
       <c r="E209" t="s">
-        <v>1099</v>
+        <v>1098</v>
       </c>
     </row>
     <row r="210" spans="1:5">
@@ -15920,16 +15917,16 @@
         <v>209</v>
       </c>
       <c r="B210" s="3" t="s">
-        <v>1390</v>
+        <v>1389</v>
       </c>
       <c r="C210" t="s">
-        <v>1084</v>
+        <v>1083</v>
       </c>
       <c r="D210" t="s">
+        <v>1099</v>
+      </c>
+      <c r="E210" t="s">
         <v>1100</v>
-      </c>
-      <c r="E210" t="s">
-        <v>1101</v>
       </c>
     </row>
     <row r="211" spans="1:5">
@@ -15937,16 +15934,16 @@
         <v>210</v>
       </c>
       <c r="B211" s="3" t="s">
-        <v>1391</v>
+        <v>1390</v>
       </c>
       <c r="C211" t="s">
-        <v>1084</v>
+        <v>1083</v>
       </c>
       <c r="D211" t="s">
+        <v>1101</v>
+      </c>
+      <c r="E211" t="s">
         <v>1102</v>
-      </c>
-      <c r="E211" t="s">
-        <v>1103</v>
       </c>
     </row>
     <row r="212" spans="1:5">
@@ -15954,16 +15951,16 @@
         <v>211</v>
       </c>
       <c r="B212" s="3" t="s">
-        <v>1392</v>
+        <v>1391</v>
       </c>
       <c r="C212" t="s">
-        <v>1084</v>
+        <v>1083</v>
       </c>
       <c r="D212" t="s">
+        <v>1103</v>
+      </c>
+      <c r="E212" t="s">
         <v>1104</v>
-      </c>
-      <c r="E212" t="s">
-        <v>1105</v>
       </c>
     </row>
     <row r="213" spans="1:5">
@@ -15971,16 +15968,16 @@
         <v>212</v>
       </c>
       <c r="B213" s="3" t="s">
-        <v>1393</v>
+        <v>1392</v>
       </c>
       <c r="C213" t="s">
-        <v>1084</v>
+        <v>1083</v>
       </c>
       <c r="D213" t="s">
+        <v>1105</v>
+      </c>
+      <c r="E213" t="s">
         <v>1106</v>
-      </c>
-      <c r="E213" t="s">
-        <v>1107</v>
       </c>
     </row>
     <row r="214" spans="1:5">
@@ -15988,16 +15985,16 @@
         <v>213</v>
       </c>
       <c r="B214" s="3" t="s">
-        <v>1394</v>
+        <v>1393</v>
       </c>
       <c r="C214" t="s">
-        <v>1084</v>
+        <v>1083</v>
       </c>
       <c r="D214" t="s">
+        <v>1107</v>
+      </c>
+      <c r="E214" t="s">
         <v>1108</v>
-      </c>
-      <c r="E214" t="s">
-        <v>1109</v>
       </c>
     </row>
     <row r="215" spans="1:5">
@@ -16005,16 +16002,16 @@
         <v>214</v>
       </c>
       <c r="B215" s="3" t="s">
-        <v>1395</v>
+        <v>1394</v>
       </c>
       <c r="C215" t="s">
-        <v>1084</v>
+        <v>1083</v>
       </c>
       <c r="D215" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="E215" t="s">
-        <v>1110</v>
+        <v>1109</v>
       </c>
     </row>
     <row r="216" spans="1:5">
@@ -16022,16 +16019,16 @@
         <v>215</v>
       </c>
       <c r="B216" s="3" t="s">
-        <v>1396</v>
+        <v>1395</v>
       </c>
       <c r="C216" t="s">
-        <v>1084</v>
+        <v>1083</v>
       </c>
       <c r="D216" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="E216" t="s">
-        <v>1111</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="217" spans="1:5">
@@ -16039,16 +16036,16 @@
         <v>216</v>
       </c>
       <c r="B217" s="3" t="s">
-        <v>1397</v>
+        <v>1396</v>
       </c>
       <c r="C217" t="s">
-        <v>1084</v>
+        <v>1083</v>
       </c>
       <c r="D217" t="s">
+        <v>1111</v>
+      </c>
+      <c r="E217" t="s">
         <v>1112</v>
-      </c>
-      <c r="E217" t="s">
-        <v>1113</v>
       </c>
     </row>
     <row r="218" spans="1:5">
@@ -16056,16 +16053,16 @@
         <v>217</v>
       </c>
       <c r="B218" s="3" t="s">
-        <v>1398</v>
+        <v>1397</v>
       </c>
       <c r="C218" t="s">
-        <v>1084</v>
+        <v>1083</v>
       </c>
       <c r="D218" t="s">
+        <v>1113</v>
+      </c>
+      <c r="E218" t="s">
         <v>1114</v>
-      </c>
-      <c r="E218" t="s">
-        <v>1115</v>
       </c>
     </row>
     <row r="219" spans="1:5">
@@ -16073,16 +16070,16 @@
         <v>218</v>
       </c>
       <c r="B219" s="3" t="s">
-        <v>1399</v>
+        <v>1398</v>
       </c>
       <c r="C219" t="s">
-        <v>1084</v>
+        <v>1083</v>
       </c>
       <c r="D219" t="s">
+        <v>1115</v>
+      </c>
+      <c r="E219" t="s">
         <v>1116</v>
-      </c>
-      <c r="E219" t="s">
-        <v>1117</v>
       </c>
     </row>
     <row r="220" spans="1:5">
@@ -16090,16 +16087,16 @@
         <v>219</v>
       </c>
       <c r="B220" s="3" t="s">
-        <v>1400</v>
+        <v>1399</v>
       </c>
       <c r="C220" t="s">
-        <v>1084</v>
+        <v>1083</v>
       </c>
       <c r="D220" t="s">
+        <v>1117</v>
+      </c>
+      <c r="E220" t="s">
         <v>1118</v>
-      </c>
-      <c r="E220" t="s">
-        <v>1119</v>
       </c>
     </row>
     <row r="221" spans="1:5">
@@ -16107,16 +16104,16 @@
         <v>220</v>
       </c>
       <c r="B221" s="3" t="s">
-        <v>1401</v>
+        <v>1400</v>
       </c>
       <c r="C221" t="s">
-        <v>1084</v>
+        <v>1083</v>
       </c>
       <c r="D221" t="s">
+        <v>1119</v>
+      </c>
+      <c r="E221" t="s">
         <v>1120</v>
-      </c>
-      <c r="E221" t="s">
-        <v>1121</v>
       </c>
     </row>
     <row r="222" spans="1:5">
@@ -16124,16 +16121,16 @@
         <v>221</v>
       </c>
       <c r="B222" s="3" t="s">
-        <v>1402</v>
+        <v>1401</v>
       </c>
       <c r="C222" t="s">
-        <v>1084</v>
+        <v>1083</v>
       </c>
       <c r="D222" t="s">
+        <v>1121</v>
+      </c>
+      <c r="E222" t="s">
         <v>1122</v>
-      </c>
-      <c r="E222" t="s">
-        <v>1123</v>
       </c>
     </row>
     <row r="223" spans="1:5">
@@ -16141,16 +16138,16 @@
         <v>222</v>
       </c>
       <c r="B223" s="3" t="s">
-        <v>1403</v>
+        <v>1402</v>
       </c>
       <c r="C223" t="s">
-        <v>1084</v>
+        <v>1083</v>
       </c>
       <c r="D223" t="s">
+        <v>1123</v>
+      </c>
+      <c r="E223" t="s">
         <v>1124</v>
-      </c>
-      <c r="E223" t="s">
-        <v>1125</v>
       </c>
     </row>
     <row r="224" spans="1:5">
@@ -16158,16 +16155,16 @@
         <v>223</v>
       </c>
       <c r="B224" s="3" t="s">
-        <v>1404</v>
+        <v>1403</v>
       </c>
       <c r="C224" t="s">
+        <v>1125</v>
+      </c>
+      <c r="D224" t="s">
         <v>1126</v>
       </c>
-      <c r="D224" t="s">
+      <c r="E224" t="s">
         <v>1127</v>
-      </c>
-      <c r="E224" t="s">
-        <v>1128</v>
       </c>
     </row>
     <row r="225" spans="1:5">
@@ -16175,16 +16172,16 @@
         <v>224</v>
       </c>
       <c r="B225" s="3" t="s">
-        <v>1405</v>
+        <v>1404</v>
       </c>
       <c r="C225" t="s">
-        <v>1126</v>
+        <v>1125</v>
       </c>
       <c r="D225" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="E225" t="s">
-        <v>1085</v>
+        <v>1084</v>
       </c>
     </row>
     <row r="226" spans="1:5">
@@ -16192,16 +16189,16 @@
         <v>225</v>
       </c>
       <c r="B226" s="3" t="s">
-        <v>1406</v>
+        <v>1405</v>
       </c>
       <c r="C226" t="s">
-        <v>1126</v>
+        <v>1125</v>
       </c>
       <c r="D226" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="E226" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
     </row>
     <row r="227" spans="1:5">
@@ -16209,16 +16206,16 @@
         <v>226</v>
       </c>
       <c r="B227" s="3" t="s">
-        <v>1407</v>
+        <v>1406</v>
       </c>
       <c r="C227" t="s">
-        <v>1126</v>
+        <v>1125</v>
       </c>
       <c r="D227" t="s">
+        <v>1086</v>
+      </c>
+      <c r="E227" t="s">
         <v>1087</v>
-      </c>
-      <c r="E227" t="s">
-        <v>1088</v>
       </c>
     </row>
     <row r="228" spans="1:5">
@@ -16226,16 +16223,16 @@
         <v>227</v>
       </c>
       <c r="B228" s="3" t="s">
-        <v>1408</v>
+        <v>1407</v>
       </c>
       <c r="C228" t="s">
-        <v>1126</v>
+        <v>1125</v>
       </c>
       <c r="D228" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
       <c r="E228" t="s">
-        <v>1129</v>
+        <v>1128</v>
       </c>
     </row>
     <row r="229" spans="1:5">
@@ -16243,16 +16240,16 @@
         <v>228</v>
       </c>
       <c r="B229" s="3" t="s">
-        <v>1409</v>
+        <v>1408</v>
       </c>
       <c r="C229" t="s">
-        <v>1126</v>
+        <v>1125</v>
       </c>
       <c r="D229" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="E229" t="s">
-        <v>1090</v>
+        <v>1089</v>
       </c>
     </row>
     <row r="230" spans="1:5">
@@ -16260,16 +16257,16 @@
         <v>229</v>
       </c>
       <c r="B230" s="3" t="s">
-        <v>1410</v>
+        <v>1409</v>
       </c>
       <c r="C230" t="s">
-        <v>1126</v>
+        <v>1125</v>
       </c>
       <c r="D230" t="s">
-        <v>965</v>
+        <v>964</v>
       </c>
       <c r="E230" t="s">
-        <v>1091</v>
+        <v>1090</v>
       </c>
     </row>
     <row r="231" spans="1:5">
@@ -16277,16 +16274,16 @@
         <v>230</v>
       </c>
       <c r="B231" s="3" t="s">
-        <v>1411</v>
+        <v>1410</v>
       </c>
       <c r="C231" t="s">
-        <v>1126</v>
+        <v>1125</v>
       </c>
       <c r="D231" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="E231" t="s">
-        <v>1130</v>
+        <v>1129</v>
       </c>
     </row>
     <row r="232" spans="1:5">
@@ -16294,16 +16291,16 @@
         <v>231</v>
       </c>
       <c r="B232" s="3" t="s">
-        <v>1412</v>
+        <v>1411</v>
       </c>
       <c r="C232" t="s">
-        <v>1126</v>
+        <v>1125</v>
       </c>
       <c r="D232" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
       <c r="E232" t="s">
-        <v>1093</v>
+        <v>1092</v>
       </c>
     </row>
     <row r="233" spans="1:5">
@@ -16311,16 +16308,16 @@
         <v>232</v>
       </c>
       <c r="B233" s="3" t="s">
-        <v>1413</v>
+        <v>1412</v>
       </c>
       <c r="C233" t="s">
-        <v>1126</v>
+        <v>1125</v>
       </c>
       <c r="D233" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="E233" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
     </row>
     <row r="234" spans="1:5">
@@ -16328,16 +16325,16 @@
         <v>233</v>
       </c>
       <c r="B234" s="3" t="s">
-        <v>1414</v>
+        <v>1413</v>
       </c>
       <c r="C234" t="s">
-        <v>1126</v>
+        <v>1125</v>
       </c>
       <c r="D234" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="E234" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
     </row>
     <row r="235" spans="1:5">
@@ -16345,16 +16342,16 @@
         <v>234</v>
       </c>
       <c r="B235" s="3" t="s">
-        <v>1415</v>
+        <v>1414</v>
       </c>
       <c r="C235" t="s">
-        <v>1126</v>
+        <v>1125</v>
       </c>
       <c r="D235" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
       <c r="E235" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
     </row>
     <row r="236" spans="1:5">
@@ -16362,16 +16359,16 @@
         <v>235</v>
       </c>
       <c r="B236" s="3" t="s">
-        <v>1416</v>
+        <v>1415</v>
       </c>
       <c r="C236" t="s">
-        <v>1126</v>
+        <v>1125</v>
       </c>
       <c r="D236" t="s">
+        <v>1096</v>
+      </c>
+      <c r="E236" t="s">
         <v>1097</v>
-      </c>
-      <c r="E236" t="s">
-        <v>1098</v>
       </c>
     </row>
     <row r="237" spans="1:5">
@@ -16379,16 +16376,16 @@
         <v>236</v>
       </c>
       <c r="B237" s="3" t="s">
-        <v>1417</v>
+        <v>1416</v>
       </c>
       <c r="C237" t="s">
-        <v>1126</v>
+        <v>1125</v>
       </c>
       <c r="D237" t="s">
+        <v>1131</v>
+      </c>
+      <c r="E237" t="s">
         <v>1132</v>
-      </c>
-      <c r="E237" t="s">
-        <v>1133</v>
       </c>
     </row>
     <row r="238" spans="1:5">
@@ -16396,16 +16393,16 @@
         <v>237</v>
       </c>
       <c r="B238" s="3" t="s">
-        <v>1418</v>
+        <v>1417</v>
       </c>
       <c r="C238" t="s">
-        <v>1126</v>
+        <v>1125</v>
       </c>
       <c r="D238" t="s">
-        <v>975</v>
+        <v>974</v>
       </c>
       <c r="E238" t="s">
-        <v>1099</v>
+        <v>1098</v>
       </c>
     </row>
     <row r="239" spans="1:5">
@@ -16413,16 +16410,16 @@
         <v>238</v>
       </c>
       <c r="B239" s="3" t="s">
-        <v>1419</v>
+        <v>1418</v>
       </c>
       <c r="C239" t="s">
-        <v>1126</v>
+        <v>1125</v>
       </c>
       <c r="D239" t="s">
-        <v>1102</v>
+        <v>1101</v>
       </c>
       <c r="E239" t="s">
-        <v>1134</v>
+        <v>1133</v>
       </c>
     </row>
     <row r="240" spans="1:5">
@@ -16430,16 +16427,16 @@
         <v>239</v>
       </c>
       <c r="B240" s="3" t="s">
-        <v>1420</v>
+        <v>1419</v>
       </c>
       <c r="C240" t="s">
-        <v>1126</v>
+        <v>1125</v>
       </c>
       <c r="D240" t="s">
+        <v>1134</v>
+      </c>
+      <c r="E240" t="s">
         <v>1135</v>
-      </c>
-      <c r="E240" t="s">
-        <v>1136</v>
       </c>
     </row>
     <row r="241" spans="1:5">
@@ -16447,16 +16444,16 @@
         <v>240</v>
       </c>
       <c r="B241" s="3" t="s">
-        <v>1421</v>
+        <v>1420</v>
       </c>
       <c r="C241" t="s">
-        <v>1126</v>
+        <v>1125</v>
       </c>
       <c r="D241" t="s">
-        <v>1114</v>
+        <v>1113</v>
       </c>
       <c r="E241" t="s">
-        <v>1137</v>
+        <v>1136</v>
       </c>
     </row>
     <row r="242" spans="1:5">
@@ -16464,16 +16461,16 @@
         <v>241</v>
       </c>
       <c r="B242" s="3" t="s">
-        <v>1422</v>
+        <v>1421</v>
       </c>
       <c r="C242" t="s">
-        <v>1126</v>
+        <v>1125</v>
       </c>
       <c r="D242" t="s">
+        <v>1105</v>
+      </c>
+      <c r="E242" t="s">
         <v>1106</v>
-      </c>
-      <c r="E242" t="s">
-        <v>1107</v>
       </c>
     </row>
     <row r="243" spans="1:5">
@@ -16481,16 +16478,16 @@
         <v>242</v>
       </c>
       <c r="B243" s="3" t="s">
-        <v>1423</v>
+        <v>1422</v>
       </c>
       <c r="C243" t="s">
-        <v>1126</v>
+        <v>1125</v>
       </c>
       <c r="D243" t="s">
+        <v>1107</v>
+      </c>
+      <c r="E243" t="s">
         <v>1108</v>
-      </c>
-      <c r="E243" t="s">
-        <v>1109</v>
       </c>
     </row>
     <row r="244" spans="1:5">
@@ -16498,16 +16495,16 @@
         <v>243</v>
       </c>
       <c r="B244" s="3" t="s">
-        <v>1424</v>
+        <v>1423</v>
       </c>
       <c r="C244" t="s">
-        <v>1126</v>
+        <v>1125</v>
       </c>
       <c r="D244" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="E244" t="s">
-        <v>1110</v>
+        <v>1109</v>
       </c>
     </row>
     <row r="245" spans="1:5">
@@ -16515,16 +16512,16 @@
         <v>244</v>
       </c>
       <c r="B245" s="3" t="s">
-        <v>1425</v>
+        <v>1424</v>
       </c>
       <c r="C245" t="s">
-        <v>1126</v>
+        <v>1125</v>
       </c>
       <c r="D245" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="E245" t="s">
-        <v>1138</v>
+        <v>1137</v>
       </c>
     </row>
     <row r="246" spans="1:5">
@@ -16532,16 +16529,16 @@
         <v>245</v>
       </c>
       <c r="B246" s="3" t="s">
-        <v>1426</v>
+        <v>1425</v>
       </c>
       <c r="C246" t="s">
-        <v>1126</v>
+        <v>1125</v>
       </c>
       <c r="D246" t="s">
+        <v>1115</v>
+      </c>
+      <c r="E246" t="s">
         <v>1116</v>
-      </c>
-      <c r="E246" t="s">
-        <v>1117</v>
       </c>
     </row>
     <row r="247" spans="1:5">
@@ -16549,16 +16546,16 @@
         <v>246</v>
       </c>
       <c r="B247" s="3" t="s">
-        <v>1427</v>
+        <v>1426</v>
       </c>
       <c r="C247" t="s">
-        <v>1126</v>
+        <v>1125</v>
       </c>
       <c r="D247" t="s">
-        <v>1120</v>
+        <v>1119</v>
       </c>
       <c r="E247" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
     </row>
     <row r="248" spans="1:5">
@@ -16566,16 +16563,16 @@
         <v>247</v>
       </c>
       <c r="B248" s="3" t="s">
-        <v>1428</v>
+        <v>1427</v>
       </c>
       <c r="C248" t="s">
-        <v>1126</v>
+        <v>1125</v>
       </c>
       <c r="D248" t="s">
+        <v>1139</v>
+      </c>
+      <c r="E248" t="s">
         <v>1140</v>
-      </c>
-      <c r="E248" t="s">
-        <v>1141</v>
       </c>
     </row>
     <row r="249" spans="1:5">
@@ -16583,16 +16580,16 @@
         <v>248</v>
       </c>
       <c r="B249" s="3" t="s">
-        <v>1429</v>
+        <v>1428</v>
       </c>
       <c r="C249" t="s">
-        <v>1126</v>
+        <v>1125</v>
       </c>
       <c r="D249" t="s">
+        <v>1141</v>
+      </c>
+      <c r="E249" t="s">
         <v>1142</v>
-      </c>
-      <c r="E249" t="s">
-        <v>1143</v>
       </c>
     </row>
     <row r="250" spans="1:5">
@@ -16600,16 +16597,16 @@
         <v>249</v>
       </c>
       <c r="B250" s="3" t="s">
-        <v>1430</v>
+        <v>1429</v>
       </c>
       <c r="C250" t="s">
-        <v>1126</v>
+        <v>1125</v>
       </c>
       <c r="D250" t="s">
+        <v>1143</v>
+      </c>
+      <c r="E250" t="s">
         <v>1144</v>
-      </c>
-      <c r="E250" t="s">
-        <v>1145</v>
       </c>
     </row>
     <row r="251" spans="1:5">
@@ -16617,16 +16614,16 @@
         <v>250</v>
       </c>
       <c r="B251" s="3" t="s">
-        <v>1431</v>
+        <v>1430</v>
       </c>
       <c r="C251" t="s">
-        <v>1126</v>
+        <v>1125</v>
       </c>
       <c r="D251" t="s">
+        <v>1145</v>
+      </c>
+      <c r="E251" t="s">
         <v>1146</v>
-      </c>
-      <c r="E251" t="s">
-        <v>1147</v>
       </c>
     </row>
     <row r="252" spans="1:5">
@@ -16634,16 +16631,16 @@
         <v>251</v>
       </c>
       <c r="B252" s="3" t="s">
-        <v>1432</v>
+        <v>1431</v>
       </c>
       <c r="C252" t="s">
-        <v>1126</v>
+        <v>1125</v>
       </c>
       <c r="D252" t="s">
+        <v>1147</v>
+      </c>
+      <c r="E252" t="s">
         <v>1148</v>
-      </c>
-      <c r="E252" t="s">
-        <v>1149</v>
       </c>
     </row>
     <row r="253" spans="1:5">
@@ -16651,16 +16648,16 @@
         <v>252</v>
       </c>
       <c r="B253" s="3" t="s">
-        <v>1433</v>
+        <v>1432</v>
       </c>
       <c r="C253" t="s">
-        <v>1126</v>
+        <v>1125</v>
       </c>
       <c r="D253" t="s">
+        <v>1149</v>
+      </c>
+      <c r="E253" t="s">
         <v>1150</v>
-      </c>
-      <c r="E253" t="s">
-        <v>1151</v>
       </c>
     </row>
     <row r="254" spans="1:5">
@@ -16671,13 +16668,13 @@
         <v>488</v>
       </c>
       <c r="C254" t="s">
+        <v>1151</v>
+      </c>
+      <c r="D254" t="s">
+        <v>1126</v>
+      </c>
+      <c r="E254" t="s">
         <v>1152</v>
-      </c>
-      <c r="D254" t="s">
-        <v>1127</v>
-      </c>
-      <c r="E254" t="s">
-        <v>1153</v>
       </c>
     </row>
     <row r="255" spans="1:5">
@@ -16685,16 +16682,16 @@
         <v>254</v>
       </c>
       <c r="B255" s="3" t="s">
-        <v>1434</v>
+        <v>1433</v>
       </c>
       <c r="C255" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="D255" t="s">
+        <v>1153</v>
+      </c>
+      <c r="E255" t="s">
         <v>1154</v>
-      </c>
-      <c r="E255" t="s">
-        <v>1155</v>
       </c>
     </row>
     <row r="256" spans="1:5">
@@ -16702,16 +16699,16 @@
         <v>255</v>
       </c>
       <c r="B256" s="3" t="s">
-        <v>1435</v>
+        <v>1434</v>
       </c>
       <c r="C256" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="D256" t="s">
+        <v>1155</v>
+      </c>
+      <c r="E256" t="s">
         <v>1156</v>
-      </c>
-      <c r="E256" t="s">
-        <v>1157</v>
       </c>
     </row>
     <row r="257" spans="1:5">
@@ -16719,16 +16716,16 @@
         <v>256</v>
       </c>
       <c r="B257" s="3" t="s">
-        <v>1436</v>
+        <v>1435</v>
       </c>
       <c r="C257" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="D257" t="s">
+        <v>1157</v>
+      </c>
+      <c r="E257" t="s">
         <v>1158</v>
-      </c>
-      <c r="E257" t="s">
-        <v>1159</v>
       </c>
     </row>
     <row r="258" spans="1:5">
@@ -16736,16 +16733,16 @@
         <v>257</v>
       </c>
       <c r="B258" s="3" t="s">
-        <v>1437</v>
+        <v>1436</v>
       </c>
       <c r="C258" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="D258" t="s">
+        <v>1159</v>
+      </c>
+      <c r="E258" t="s">
         <v>1160</v>
-      </c>
-      <c r="E258" t="s">
-        <v>1161</v>
       </c>
     </row>
     <row r="259" spans="1:5">
@@ -16753,16 +16750,16 @@
         <v>258</v>
       </c>
       <c r="B259" s="3" t="s">
-        <v>1434</v>
+        <v>1433</v>
       </c>
       <c r="C259" t="s">
-        <v>1152</v>
+        <v>1151</v>
       </c>
       <c r="D259" t="s">
+        <v>1161</v>
+      </c>
+      <c r="E259" t="s">
         <v>1162</v>
-      </c>
-      <c r="E259" t="s">
-        <v>1163</v>
       </c>
     </row>
     <row r="260" spans="1:5">
@@ -16770,16 +16767,16 @@
         <v>259</v>
       </c>
       <c r="B260" s="3" t="s">
-        <v>1435</v>
+        <v>1434</v>
       </c>
       <c r="C260" t="s">
-        <v>1152</v>
+        <v>1151</v>
       </c>
       <c r="D260" t="s">
+        <v>1163</v>
+      </c>
+      <c r="E260" t="s">
         <v>1164</v>
-      </c>
-      <c r="E260" t="s">
-        <v>1165</v>
       </c>
     </row>
     <row r="261" spans="1:5">
@@ -16787,16 +16784,16 @@
         <v>260</v>
       </c>
       <c r="B261" s="3" t="s">
-        <v>1436</v>
+        <v>1435</v>
       </c>
       <c r="C261" t="s">
-        <v>1152</v>
+        <v>1151</v>
       </c>
       <c r="D261" t="s">
+        <v>1165</v>
+      </c>
+      <c r="E261" t="s">
         <v>1166</v>
-      </c>
-      <c r="E261" t="s">
-        <v>1167</v>
       </c>
     </row>
     <row r="262" spans="1:5">
@@ -16804,16 +16801,16 @@
         <v>261</v>
       </c>
       <c r="B262" s="3" t="s">
-        <v>1437</v>
+        <v>1436</v>
       </c>
       <c r="C262" t="s">
-        <v>1152</v>
+        <v>1151</v>
       </c>
       <c r="D262" t="s">
+        <v>1167</v>
+      </c>
+      <c r="E262" t="s">
         <v>1168</v>
-      </c>
-      <c r="E262" t="s">
-        <v>1169</v>
       </c>
     </row>
     <row r="263" spans="1:5">
@@ -16821,16 +16818,16 @@
         <v>262</v>
       </c>
       <c r="B263" s="3" t="s">
+        <v>1169</v>
+      </c>
+      <c r="C263" t="s">
+        <v>727</v>
+      </c>
+      <c r="D263" s="14" t="s">
         <v>1170</v>
       </c>
-      <c r="C263" t="s">
-        <v>728</v>
-      </c>
-      <c r="D263" s="14" t="s">
+      <c r="E263" s="14" t="s">
         <v>1171</v>
-      </c>
-      <c r="E263" s="14" t="s">
-        <v>1172</v>
       </c>
     </row>
     <row r="264" spans="1:5">
@@ -16838,16 +16835,16 @@
         <v>263</v>
       </c>
       <c r="B264" s="3" t="s">
+        <v>1172</v>
+      </c>
+      <c r="C264" t="s">
+        <v>727</v>
+      </c>
+      <c r="D264" s="14" t="s">
+        <v>1170</v>
+      </c>
+      <c r="E264" s="14" t="s">
         <v>1173</v>
-      </c>
-      <c r="C264" t="s">
-        <v>728</v>
-      </c>
-      <c r="D264" s="14" t="s">
-        <v>1171</v>
-      </c>
-      <c r="E264" s="14" t="s">
-        <v>1174</v>
       </c>
     </row>
     <row r="265" spans="1:5">
@@ -16855,16 +16852,16 @@
         <v>264</v>
       </c>
       <c r="B265" s="3" t="s">
+        <v>1174</v>
+      </c>
+      <c r="C265" t="s">
+        <v>727</v>
+      </c>
+      <c r="D265" s="14" t="s">
         <v>1175</v>
       </c>
-      <c r="C265" t="s">
-        <v>728</v>
-      </c>
-      <c r="D265" s="14" t="s">
+      <c r="E265" s="14" t="s">
         <v>1176</v>
-      </c>
-      <c r="E265" s="14" t="s">
-        <v>1177</v>
       </c>
     </row>
     <row r="266" spans="1:5">
@@ -16872,16 +16869,16 @@
         <v>265</v>
       </c>
       <c r="B266" s="3" t="s">
+        <v>1177</v>
+      </c>
+      <c r="C266" t="s">
+        <v>727</v>
+      </c>
+      <c r="D266" s="14" t="s">
         <v>1178</v>
       </c>
-      <c r="C266" t="s">
-        <v>728</v>
-      </c>
-      <c r="D266" s="14" t="s">
+      <c r="E266" s="14" t="s">
         <v>1179</v>
-      </c>
-      <c r="E266" s="14" t="s">
-        <v>1180</v>
       </c>
     </row>
     <row r="267" spans="1:5">
@@ -16889,16 +16886,16 @@
         <v>266</v>
       </c>
       <c r="B267" s="3" t="s">
+        <v>1180</v>
+      </c>
+      <c r="C267" t="s">
+        <v>727</v>
+      </c>
+      <c r="D267" s="14" t="s">
         <v>1181</v>
       </c>
-      <c r="C267" t="s">
-        <v>728</v>
-      </c>
-      <c r="D267" s="14" t="s">
+      <c r="E267" s="14" t="s">
         <v>1182</v>
-      </c>
-      <c r="E267" s="14" t="s">
-        <v>1183</v>
       </c>
     </row>
     <row r="268" spans="1:5">
@@ -16906,7 +16903,7 @@
         <v>99999</v>
       </c>
       <c r="B268" s="3" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="C268" t="s">
         <v>169</v>
@@ -16949,8 +16946,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:I66"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A41" workbookViewId="0">
-      <selection activeCell="A62" sqref="A62:XFD62"/>
+    <sheetView tabSelected="1" topLeftCell="E43" workbookViewId="0">
+      <selection activeCell="H62" sqref="H62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16"/>
@@ -16975,13 +16972,13 @@
         <v>523</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>673</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>674</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="1" t="s">
         <v>675</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>676</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>528</v>
@@ -17758,13 +17755,13 @@
         <v>646</v>
       </c>
       <c r="C28" s="12" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="D28" s="13" t="s">
         <v>646</v>
       </c>
       <c r="E28" s="12" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="F28" s="12" t="s">
         <v>534</v>
@@ -17784,16 +17781,16 @@
         <v>267</v>
       </c>
       <c r="B29" s="13" t="s">
+        <v>704</v>
+      </c>
+      <c r="C29" s="12" t="s">
         <v>705</v>
       </c>
-      <c r="C29" s="12" t="s">
-        <v>706</v>
-      </c>
       <c r="D29" s="13" t="s">
+        <v>704</v>
+      </c>
+      <c r="E29" s="12" t="s">
         <v>705</v>
-      </c>
-      <c r="E29" s="12" t="s">
-        <v>706</v>
       </c>
       <c r="F29" s="12" t="s">
         <v>534</v>
@@ -18164,13 +18161,13 @@
         <v>611</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="D42" s="2" t="s">
         <v>611</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="F42" s="1" t="s">
         <v>534</v>
@@ -18193,13 +18190,13 @@
         <v>613</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="D43" s="2" t="s">
         <v>613</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="F43" s="1" t="s">
         <v>534</v>
@@ -18222,13 +18219,13 @@
         <v>614</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="D44" s="2" t="s">
         <v>614</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="F44" s="1" t="s">
         <v>534</v>
@@ -18251,13 +18248,13 @@
         <v>615</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="D45" s="2" t="s">
         <v>615</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="F45" s="1" t="s">
         <v>534</v>
@@ -18309,13 +18306,13 @@
         <v>617</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="D47" s="2" t="s">
         <v>617</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="F47" s="1" t="s">
         <v>534</v>
@@ -18338,13 +18335,13 @@
         <v>619</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="D48" s="2" t="s">
         <v>619</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="F48" s="1" t="s">
         <v>534</v>
@@ -18625,16 +18622,16 @@
         <v>909</v>
       </c>
       <c r="B58" s="2" t="s">
+        <v>719</v>
+      </c>
+      <c r="C58" s="1" t="s">
         <v>720</v>
       </c>
-      <c r="C58" s="1" t="s">
-        <v>721</v>
-      </c>
       <c r="D58" s="2" t="s">
+        <v>719</v>
+      </c>
+      <c r="E58" s="1" t="s">
         <v>720</v>
-      </c>
-      <c r="E58" s="1" t="s">
-        <v>721</v>
       </c>
       <c r="F58" s="1" t="s">
         <v>623</v>
@@ -18759,7 +18756,7 @@
         <v>168</v>
       </c>
       <c r="H62" s="1" t="s">
-        <v>649</v>
+        <v>607</v>
       </c>
       <c r="I62" s="1" t="s">
         <v>592</v>
@@ -18770,16 +18767,16 @@
         <v>641</v>
       </c>
       <c r="B63" s="2" t="s">
+        <v>649</v>
+      </c>
+      <c r="C63" s="1" t="s">
         <v>650</v>
       </c>
-      <c r="C63" s="1" t="s">
-        <v>651</v>
-      </c>
       <c r="D63" s="2" t="s">
+        <v>649</v>
+      </c>
+      <c r="E63" s="1" t="s">
         <v>650</v>
-      </c>
-      <c r="E63" s="1" t="s">
-        <v>651</v>
       </c>
       <c r="F63" s="1" t="s">
         <v>534</v>
@@ -18788,7 +18785,7 @@
         <v>168</v>
       </c>
       <c r="H63" s="1" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="I63" s="1" t="s">
         <v>536</v>
@@ -18799,16 +18796,16 @@
         <v>642</v>
       </c>
       <c r="B64" s="2" t="s">
+        <v>652</v>
+      </c>
+      <c r="C64" s="1" t="s">
         <v>653</v>
       </c>
-      <c r="C64" s="1" t="s">
-        <v>654</v>
-      </c>
       <c r="D64" s="2" t="s">
+        <v>652</v>
+      </c>
+      <c r="E64" s="1" t="s">
         <v>653</v>
-      </c>
-      <c r="E64" s="1" t="s">
-        <v>654</v>
       </c>
       <c r="F64" s="1" t="s">
         <v>534</v>
@@ -18817,7 +18814,7 @@
         <v>168</v>
       </c>
       <c r="H64" s="1" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="I64" s="1" t="s">
         <v>536</v>
@@ -18828,13 +18825,13 @@
         <v>99999</v>
       </c>
       <c r="B65" s="3" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="C65" s="1" t="s">
         <v>169</v>
       </c>
       <c r="D65" s="3" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="E65" s="1" t="s">
         <v>169</v>
@@ -18917,13 +18914,13 @@
         <v>523</v>
       </c>
       <c r="C1" t="s">
+        <v>673</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>674</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>675</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>676</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="15" customHeight="1">
@@ -18951,13 +18948,13 @@
         <v>45</v>
       </c>
       <c r="C3" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>45</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="15" customHeight="1">
@@ -19062,13 +19059,13 @@
         <v>523</v>
       </c>
       <c r="C1" t="s">
+        <v>673</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>674</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="1" t="s">
         <v>675</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>676</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="15" customHeight="1">
@@ -19368,13 +19365,13 @@
         <v>85</v>
       </c>
       <c r="C19" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="D19" s="2" t="s">
         <v>85</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="15" customHeight="1">
@@ -19841,16 +19838,16 @@
         <v>58</v>
       </c>
       <c r="B47" s="2" t="s">
+        <v>685</v>
+      </c>
+      <c r="C47" s="1" t="s">
         <v>686</v>
       </c>
-      <c r="C47" s="1" t="s">
-        <v>687</v>
-      </c>
       <c r="D47" s="2" t="s">
+        <v>685</v>
+      </c>
+      <c r="E47" s="1" t="s">
         <v>686</v>
-      </c>
-      <c r="E47" s="1" t="s">
-        <v>687</v>
       </c>
     </row>
     <row r="48" spans="1:5">
@@ -19920,13 +19917,13 @@
         <v>523</v>
       </c>
       <c r="C1" t="s">
+        <v>673</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>674</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="1" t="s">
         <v>675</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>676</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="15" customHeight="1">
@@ -20030,13 +20027,13 @@
         <v>523</v>
       </c>
       <c r="C1" s="4" t="s">
+        <v>673</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>674</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="4" t="s">
         <v>675</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>676</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="15" customHeight="1">
@@ -20047,13 +20044,13 @@
         <v>37</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>37</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="15" customHeight="1">
@@ -20132,13 +20129,13 @@
         <v>140</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>140</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="15" customHeight="1">
@@ -20166,13 +20163,13 @@
         <v>35</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>35</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="15" customHeight="1">
@@ -20251,13 +20248,13 @@
         <v>274</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>274</v>
       </c>
       <c r="E14" s="10" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
     </row>
     <row r="15" spans="1:5" s="1" customFormat="1" ht="15" customHeight="1">
@@ -20362,13 +20359,13 @@
         <v>523</v>
       </c>
       <c r="C1" s="4" t="s">
+        <v>673</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>674</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="4" t="s">
         <v>675</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>676</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="15" customHeight="1">
@@ -20379,13 +20376,13 @@
         <v>11</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>1442</v>
+        <v>1441</v>
       </c>
       <c r="D2" s="2">
         <v>11</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>1442</v>
+        <v>1441</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="15" customHeight="1">
@@ -20498,13 +20495,13 @@
         <v>35</v>
       </c>
       <c r="C9" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="D9" s="2">
         <v>35</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="15" customHeight="1">
